--- a/Översikt OVANÅKER.xlsx
+++ b/Översikt OVANÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>43847</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44819</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>43713</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>44887</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43713</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>43349</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>43521</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43875</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>44365</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>44379</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44841</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>44957</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>43318</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>43349</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43349</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>43382</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>43392</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>43392</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         <v>43402</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>43403</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43409</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43409</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43410</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43412</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43416</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43419</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43419</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43419</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43424</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43434</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43440</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         <v>43440</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>43440</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         <v>43440</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>43451</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43451</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43451</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43451</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43451</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>43462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>43467</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43479</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43480</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43481</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43482</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>43486</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4301,7 +4301,7 @@
         <v>43487</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>43493</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>43493</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>43503</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>43507</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>43509</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>43515</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>43521</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>43521</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43525</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>43529</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>43531</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>43539</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>43542</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>43545</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>43551</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         <v>43556</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
         <v>43556</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5441,7 +5441,7 @@
         <v>43556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         <v>43570</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>43571</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5612,7 +5612,7 @@
         <v>43572</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5669,7 +5669,7 @@
         <v>43581</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>43587</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         <v>43591</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5897,7 +5897,7 @@
         <v>43601</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         <v>43602</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>43606</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6078,7 +6078,7 @@
         <v>43607</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6135,7 +6135,7 @@
         <v>43608</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6192,7 +6192,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
         <v>43613</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         <v>43614</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>43614</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>43614</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>43616</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6554,7 +6554,7 @@
         <v>43616</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>43616</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>43616</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43616</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>43616</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43616</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43616</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>43619</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>43619</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
         <v>43621</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>43621</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43629</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>43629</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>43640</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>43640</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>43641</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43643</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>43671</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7625,7 +7625,7 @@
         <v>43679</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43682</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>43686</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43689</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43689</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>43690</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43692</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8034,7 +8034,7 @@
         <v>43692</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>43693</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         <v>43704</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8205,7 +8205,7 @@
         <v>43705</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8262,7 +8262,7 @@
         <v>43713</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43725</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43725</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43725</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43726</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8552,7 +8552,7 @@
         <v>43728</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8609,7 +8609,7 @@
         <v>43731</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8666,7 +8666,7 @@
         <v>43731</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         <v>43731</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8780,7 +8780,7 @@
         <v>43731</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8837,7 +8837,7 @@
         <v>43731</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>43740</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>43747</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>43749</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         <v>43749</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         <v>43755</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         <v>43755</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
         <v>43766</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>43774</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>43780</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43787</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43790</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43790</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>43790</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43790</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43796</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43802</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43812</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>43817</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>43839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>43846</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43846</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10163,7 +10163,7 @@
         <v>43846</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43846</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>43846</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43850</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>43852</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>43852</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>43854</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>43854</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>43854</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>43854</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>43854</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>43859</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>43881</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>43886</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>43888</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>43892</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>43893</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>43900</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>43906</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>43907</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>43909</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>43914</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>43914</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>43915</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>43915</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         <v>43916</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11695,7 +11695,7 @@
         <v>43917</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11752,7 +11752,7 @@
         <v>43917</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11809,7 +11809,7 @@
         <v>43917</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11866,7 +11866,7 @@
         <v>43922</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>43924</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>43924</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         <v>43935</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>43935</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>43937</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>43937</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>43942</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>43942</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         <v>43945</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>43948</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>43950</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12570,7 +12570,7 @@
         <v>43951</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12627,7 +12627,7 @@
         <v>43957</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12684,7 +12684,7 @@
         <v>43962</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         <v>43965</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>43965</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12865,7 +12865,7 @@
         <v>43969</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12922,7 +12922,7 @@
         <v>43985</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         <v>43987</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13036,7 +13036,7 @@
         <v>43987</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>43992</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>43994</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>43999</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
         <v>44005</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>44012</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13383,7 +13383,7 @@
         <v>44012</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13440,7 +13440,7 @@
         <v>44025</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>44035</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44041</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44041</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>44053</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>44053</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>44054</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>44054</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>44054</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>44062</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>44063</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>44067</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>44071</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14268,7 +14268,7 @@
         <v>44071</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14325,7 +14325,7 @@
         <v>44074</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14382,7 +14382,7 @@
         <v>44083</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14439,7 +14439,7 @@
         <v>44083</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14496,7 +14496,7 @@
         <v>44089</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>44091</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>44091</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>44096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>44096</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>44102</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14853,7 +14853,7 @@
         <v>44105</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>44109</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14972,7 +14972,7 @@
         <v>44109</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15029,7 +15029,7 @@
         <v>44109</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15086,7 +15086,7 @@
         <v>44112</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
         <v>44112</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15200,7 +15200,7 @@
         <v>44112</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15257,7 +15257,7 @@
         <v>44113</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15314,7 +15314,7 @@
         <v>44120</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15371,7 +15371,7 @@
         <v>44125</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15428,7 +15428,7 @@
         <v>44131</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15485,7 +15485,7 @@
         <v>44131</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15542,7 +15542,7 @@
         <v>44131</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15599,7 +15599,7 @@
         <v>44137</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15656,7 +15656,7 @@
         <v>44145</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>44146</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15770,7 +15770,7 @@
         <v>44146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         <v>44153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15884,7 +15884,7 @@
         <v>44159</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15946,7 +15946,7 @@
         <v>44159</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         <v>44160</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16065,7 +16065,7 @@
         <v>44162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16122,7 +16122,7 @@
         <v>44167</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16179,7 +16179,7 @@
         <v>44167</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16236,7 +16236,7 @@
         <v>44167</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16293,7 +16293,7 @@
         <v>44167</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16350,7 +16350,7 @@
         <v>44167</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16407,7 +16407,7 @@
         <v>44167</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16464,7 +16464,7 @@
         <v>44169</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16521,7 +16521,7 @@
         <v>44174</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16578,7 +16578,7 @@
         <v>44183</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16635,7 +16635,7 @@
         <v>44188</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16692,7 +16692,7 @@
         <v>44204</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         <v>44222</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16806,7 +16806,7 @@
         <v>44223</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>44223</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16920,7 +16920,7 @@
         <v>44231</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16977,7 +16977,7 @@
         <v>44245</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17034,7 +17034,7 @@
         <v>44258</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17091,7 +17091,7 @@
         <v>44258</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17148,7 +17148,7 @@
         <v>44264</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
         <v>44264</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17262,7 +17262,7 @@
         <v>44264</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17319,7 +17319,7 @@
         <v>44264</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>44266</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>44266</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>44270</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>44271</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44277</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>44278</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>44279</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>44285</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>44287</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17904,7 +17904,7 @@
         <v>44298</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>44301</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44305</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>44310</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18137,7 +18137,7 @@
         <v>44310</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>44312</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         <v>44314</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18323,7 +18323,7 @@
         <v>44322</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>44328</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44336</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>44371</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>44376</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         <v>44379</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18685,7 +18685,7 @@
         <v>44379</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44379</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44379</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         <v>44379</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18928,7 +18928,7 @@
         <v>44379</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18990,7 +18990,7 @@
         <v>44379</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19052,7 +19052,7 @@
         <v>44379</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19114,7 +19114,7 @@
         <v>44384</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>44384</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>44400</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19300,7 +19300,7 @@
         <v>44435</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>44435</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>44449</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19476,7 +19476,7 @@
         <v>44475</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19533,7 +19533,7 @@
         <v>44484</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19590,7 +19590,7 @@
         <v>44491</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19647,7 +19647,7 @@
         <v>44494</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19704,7 +19704,7 @@
         <v>44503</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19761,7 +19761,7 @@
         <v>44516</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19818,7 +19818,7 @@
         <v>44517</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19880,7 +19880,7 @@
         <v>44530</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19937,7 +19937,7 @@
         <v>44531</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19994,7 +19994,7 @@
         <v>44571</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20056,7 +20056,7 @@
         <v>44571</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20113,7 +20113,7 @@
         <v>44581</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20170,7 +20170,7 @@
         <v>44585</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20227,7 +20227,7 @@
         <v>44603</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20284,7 +20284,7 @@
         <v>44607</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20341,7 +20341,7 @@
         <v>44614</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20398,7 +20398,7 @@
         <v>44614</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20455,7 +20455,7 @@
         <v>44614</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20512,7 +20512,7 @@
         <v>44617</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
         <v>44617</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         <v>44617</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44621</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>44650</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>44665</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>44698</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>44701</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>44706</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21030,7 +21030,7 @@
         <v>44715</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21092,7 +21092,7 @@
         <v>44719</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21149,7 +21149,7 @@
         <v>44725</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21211,7 +21211,7 @@
         <v>44729</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21273,7 +21273,7 @@
         <v>44746</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>44746</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>44749</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44750</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21521,7 +21521,7 @@
         <v>44754</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21578,7 +21578,7 @@
         <v>44757</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>44757</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>44760</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21764,7 +21764,7 @@
         <v>44776</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         <v>44776</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
         <v>44789</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21950,7 +21950,7 @@
         <v>44797</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22007,7 +22007,7 @@
         <v>44798</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22064,7 +22064,7 @@
         <v>44798</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22121,7 +22121,7 @@
         <v>44799</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
         <v>44802</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>44804</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22312,7 +22312,7 @@
         <v>44811</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>44811</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22436,7 +22436,7 @@
         <v>44811</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22498,7 +22498,7 @@
         <v>44817</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         <v>44818</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22617,7 +22617,7 @@
         <v>44819</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22679,7 +22679,7 @@
         <v>44823</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>44823</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22803,7 +22803,7 @@
         <v>44823</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22865,7 +22865,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22927,7 +22927,7 @@
         <v>44830</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22984,7 +22984,7 @@
         <v>44839</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23041,7 +23041,7 @@
         <v>44840</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23098,7 +23098,7 @@
         <v>44859</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23160,7 +23160,7 @@
         <v>44862</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23217,7 +23217,7 @@
         <v>44868</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23274,7 +23274,7 @@
         <v>44868</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23331,7 +23331,7 @@
         <v>44872</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23388,7 +23388,7 @@
         <v>44872</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23445,7 +23445,7 @@
         <v>44874</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23502,7 +23502,7 @@
         <v>44876</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23559,7 +23559,7 @@
         <v>44876</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23616,7 +23616,7 @@
         <v>44879</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23678,7 +23678,7 @@
         <v>44883</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23735,7 +23735,7 @@
         <v>44886</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23792,7 +23792,7 @@
         <v>44887</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23849,7 +23849,7 @@
         <v>44889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         <v>44889</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23963,7 +23963,7 @@
         <v>44889</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24020,7 +24020,7 @@
         <v>44897</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24077,7 +24077,7 @@
         <v>44900</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         <v>44902</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24201,7 +24201,7 @@
         <v>44902</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>44903</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24325,7 +24325,7 @@
         <v>44907</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24382,7 +24382,7 @@
         <v>44909</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24444,7 +24444,7 @@
         <v>44910</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24506,7 +24506,7 @@
         <v>44916</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24563,7 +24563,7 @@
         <v>44917</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24620,7 +24620,7 @@
         <v>44923</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24677,7 +24677,7 @@
         <v>44943</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>44943</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24791,7 +24791,7 @@
         <v>44943</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24848,7 +24848,7 @@
         <v>44946</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24905,7 +24905,7 @@
         <v>44946</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24962,7 +24962,7 @@
         <v>44952</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25019,7 +25019,7 @@
         <v>44957</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>44958</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>44959</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25195,7 +25195,7 @@
         <v>44961</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25252,7 +25252,7 @@
         <v>44979</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>44985</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25366,7 +25366,7 @@
         <v>44986</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>45000</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>45002</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>45002</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>45005</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>45033</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>45033</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>45033</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>45035</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>45036</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25993,7 +25993,7 @@
         <v>45044</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>45051</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>45063</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>45068</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45070</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>45072</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45079</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26407,7 +26407,7 @@
         <v>45079</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26464,7 +26464,7 @@
         <v>45079</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26526,7 +26526,7 @@
         <v>45084</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26583,7 +26583,7 @@
         <v>45086</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26640,7 +26640,7 @@
         <v>45092</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26697,7 +26697,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26759,7 +26759,7 @@
         <v>45102</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26816,7 +26816,7 @@
         <v>45102</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26873,7 +26873,7 @@
         <v>45103</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26930,7 +26930,7 @@
         <v>45103</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26987,7 +26987,7 @@
         <v>45103</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27044,7 +27044,7 @@
         <v>45106</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27101,7 +27101,7 @@
         <v>45111</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27158,7 +27158,7 @@
         <v>45117</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27215,7 +27215,7 @@
         <v>45117</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27272,7 +27272,7 @@
         <v>45118</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27329,7 +27329,7 @@
         <v>45133</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27391,7 +27391,7 @@
         <v>45152</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27448,7 +27448,7 @@
         <v>45167</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27505,7 +27505,7 @@
         <v>45167</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27562,7 +27562,7 @@
         <v>45168</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>

--- a/Översikt OVANÅKER.xlsx
+++ b/Översikt OVANÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>43847</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44819</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>43713</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>44887</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43713</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>43349</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>43521</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43875</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>44365</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>44379</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44841</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>44957</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>43318</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>43349</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43349</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>43382</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>43392</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>43392</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         <v>43402</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>43403</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43409</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43409</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43410</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43412</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43416</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43419</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43419</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43419</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43424</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43434</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43440</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         <v>43440</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>43440</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         <v>43440</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>43451</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43451</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43451</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43451</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43451</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>43462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>43467</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43479</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43480</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43481</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43482</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>43486</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4301,7 +4301,7 @@
         <v>43487</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>43493</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>43493</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>43503</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>43507</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>43509</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>43515</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>43521</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>43521</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43525</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>43529</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>43531</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>43539</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>43542</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>43545</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>43551</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         <v>43556</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
         <v>43556</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5441,7 +5441,7 @@
         <v>43556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         <v>43570</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>43571</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5612,7 +5612,7 @@
         <v>43572</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5669,7 +5669,7 @@
         <v>43581</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>43587</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         <v>43591</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5897,7 +5897,7 @@
         <v>43601</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         <v>43602</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>43606</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6078,7 +6078,7 @@
         <v>43607</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6135,7 +6135,7 @@
         <v>43608</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6192,7 +6192,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
         <v>43613</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         <v>43614</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>43614</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>43614</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>43616</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6554,7 +6554,7 @@
         <v>43616</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>43616</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>43616</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43616</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>43616</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43616</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43616</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>43619</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>43619</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
         <v>43621</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>43621</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43629</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>43629</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>43640</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>43640</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>43641</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43643</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>43671</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7625,7 +7625,7 @@
         <v>43679</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43682</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>43686</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43689</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43689</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>43690</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43692</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8034,7 +8034,7 @@
         <v>43692</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>43693</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         <v>43704</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8205,7 +8205,7 @@
         <v>43705</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8262,7 +8262,7 @@
         <v>43713</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43725</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43725</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43725</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43726</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8552,7 +8552,7 @@
         <v>43728</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8609,7 +8609,7 @@
         <v>43731</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8666,7 +8666,7 @@
         <v>43731</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         <v>43731</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8780,7 +8780,7 @@
         <v>43731</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8837,7 +8837,7 @@
         <v>43731</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>43740</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>43747</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>43749</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         <v>43749</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         <v>43755</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         <v>43755</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
         <v>43766</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>43774</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>43780</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43787</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43790</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43790</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>43790</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43790</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43796</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43802</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43812</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>43817</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>43839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>43846</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43846</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10163,7 +10163,7 @@
         <v>43846</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43846</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>43846</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43850</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>43852</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>43852</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>43854</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>43854</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>43854</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>43854</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>43854</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>43859</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>43881</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>43886</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>43888</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>43892</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>43893</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>43900</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>43906</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>43907</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>43909</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>43914</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>43914</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>43915</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>43915</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         <v>43916</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11695,7 +11695,7 @@
         <v>43917</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11752,7 +11752,7 @@
         <v>43917</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11809,7 +11809,7 @@
         <v>43917</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11866,7 +11866,7 @@
         <v>43922</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>43924</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>43924</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         <v>43935</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>43935</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>43937</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>43937</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>43942</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>43942</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         <v>43945</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>43948</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>43950</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12570,7 +12570,7 @@
         <v>43951</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12627,7 +12627,7 @@
         <v>43957</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12684,7 +12684,7 @@
         <v>43962</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         <v>43965</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>43965</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12865,7 +12865,7 @@
         <v>43969</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12922,7 +12922,7 @@
         <v>43985</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         <v>43987</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13036,7 +13036,7 @@
         <v>43987</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>43992</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>43994</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>43999</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
         <v>44005</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>44012</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13383,7 +13383,7 @@
         <v>44012</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13440,7 +13440,7 @@
         <v>44025</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>44035</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44041</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44041</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>44053</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>44053</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>44054</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>44054</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>44054</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>44062</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>44063</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>44067</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>44071</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14268,7 +14268,7 @@
         <v>44071</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14325,7 +14325,7 @@
         <v>44074</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14382,7 +14382,7 @@
         <v>44083</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14439,7 +14439,7 @@
         <v>44083</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14496,7 +14496,7 @@
         <v>44089</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>44091</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>44091</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>44096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>44096</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>44102</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14853,7 +14853,7 @@
         <v>44105</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>44109</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14972,7 +14972,7 @@
         <v>44109</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15029,7 +15029,7 @@
         <v>44109</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15086,7 +15086,7 @@
         <v>44112</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
         <v>44112</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15200,7 +15200,7 @@
         <v>44112</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15257,7 +15257,7 @@
         <v>44113</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15314,7 +15314,7 @@
         <v>44120</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15371,7 +15371,7 @@
         <v>44125</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15428,7 +15428,7 @@
         <v>44131</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15485,7 +15485,7 @@
         <v>44131</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15542,7 +15542,7 @@
         <v>44131</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15599,7 +15599,7 @@
         <v>44137</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15656,7 +15656,7 @@
         <v>44145</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>44146</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15770,7 +15770,7 @@
         <v>44146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         <v>44153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15884,7 +15884,7 @@
         <v>44159</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15946,7 +15946,7 @@
         <v>44159</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         <v>44160</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16065,7 +16065,7 @@
         <v>44162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16122,7 +16122,7 @@
         <v>44167</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16179,7 +16179,7 @@
         <v>44167</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16236,7 +16236,7 @@
         <v>44167</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16293,7 +16293,7 @@
         <v>44167</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16350,7 +16350,7 @@
         <v>44167</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16407,7 +16407,7 @@
         <v>44167</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16464,7 +16464,7 @@
         <v>44169</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16521,7 +16521,7 @@
         <v>44174</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16578,7 +16578,7 @@
         <v>44183</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16635,7 +16635,7 @@
         <v>44188</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16692,7 +16692,7 @@
         <v>44204</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         <v>44222</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16806,7 +16806,7 @@
         <v>44223</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>44223</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16920,7 +16920,7 @@
         <v>44231</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16977,7 +16977,7 @@
         <v>44245</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17034,7 +17034,7 @@
         <v>44258</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17091,7 +17091,7 @@
         <v>44258</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17148,7 +17148,7 @@
         <v>44264</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
         <v>44264</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17262,7 +17262,7 @@
         <v>44264</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17319,7 +17319,7 @@
         <v>44264</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>44266</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>44266</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>44270</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>44271</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44277</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>44278</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>44279</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>44285</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>44287</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17904,7 +17904,7 @@
         <v>44298</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>44301</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44305</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>44310</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18137,7 +18137,7 @@
         <v>44310</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>44312</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         <v>44314</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18323,7 +18323,7 @@
         <v>44322</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>44328</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44336</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>44371</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>44376</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         <v>44379</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18685,7 +18685,7 @@
         <v>44379</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44379</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44379</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         <v>44379</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18928,7 +18928,7 @@
         <v>44379</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18990,7 +18990,7 @@
         <v>44379</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19052,7 +19052,7 @@
         <v>44379</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19114,7 +19114,7 @@
         <v>44384</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>44384</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>44400</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19300,7 +19300,7 @@
         <v>44435</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>44435</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>44449</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19476,7 +19476,7 @@
         <v>44475</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19533,7 +19533,7 @@
         <v>44484</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19590,7 +19590,7 @@
         <v>44491</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19647,7 +19647,7 @@
         <v>44494</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19704,7 +19704,7 @@
         <v>44503</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19761,7 +19761,7 @@
         <v>44516</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19818,7 +19818,7 @@
         <v>44517</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19880,7 +19880,7 @@
         <v>44530</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19937,7 +19937,7 @@
         <v>44531</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19994,7 +19994,7 @@
         <v>44571</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20056,7 +20056,7 @@
         <v>44571</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20113,7 +20113,7 @@
         <v>44581</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20170,7 +20170,7 @@
         <v>44585</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20227,7 +20227,7 @@
         <v>44603</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20284,7 +20284,7 @@
         <v>44607</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20341,7 +20341,7 @@
         <v>44614</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20398,7 +20398,7 @@
         <v>44614</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20455,7 +20455,7 @@
         <v>44614</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20512,7 +20512,7 @@
         <v>44617</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
         <v>44617</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         <v>44617</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44621</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>44650</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>44665</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>44698</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>44701</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>44706</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21030,7 +21030,7 @@
         <v>44715</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21092,7 +21092,7 @@
         <v>44719</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21149,7 +21149,7 @@
         <v>44725</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21211,7 +21211,7 @@
         <v>44729</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21273,7 +21273,7 @@
         <v>44746</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>44746</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>44749</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44750</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21521,7 +21521,7 @@
         <v>44754</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21578,7 +21578,7 @@
         <v>44757</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>44757</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>44760</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21764,7 +21764,7 @@
         <v>44776</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         <v>44776</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
         <v>44789</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21950,7 +21950,7 @@
         <v>44797</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22007,7 +22007,7 @@
         <v>44798</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22064,7 +22064,7 @@
         <v>44798</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22121,7 +22121,7 @@
         <v>44799</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
         <v>44802</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>44804</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22312,7 +22312,7 @@
         <v>44811</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>44811</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22436,7 +22436,7 @@
         <v>44811</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22498,7 +22498,7 @@
         <v>44817</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         <v>44818</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22617,7 +22617,7 @@
         <v>44819</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22679,7 +22679,7 @@
         <v>44823</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>44823</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22803,7 +22803,7 @@
         <v>44823</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22865,7 +22865,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22927,7 +22927,7 @@
         <v>44830</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22984,7 +22984,7 @@
         <v>44839</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23041,7 +23041,7 @@
         <v>44840</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23098,7 +23098,7 @@
         <v>44859</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23160,7 +23160,7 @@
         <v>44862</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23217,7 +23217,7 @@
         <v>44868</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23274,7 +23274,7 @@
         <v>44868</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23331,7 +23331,7 @@
         <v>44872</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23388,7 +23388,7 @@
         <v>44872</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23445,7 +23445,7 @@
         <v>44874</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23502,7 +23502,7 @@
         <v>44876</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23559,7 +23559,7 @@
         <v>44876</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23616,7 +23616,7 @@
         <v>44879</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23678,7 +23678,7 @@
         <v>44883</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23735,7 +23735,7 @@
         <v>44886</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23792,7 +23792,7 @@
         <v>44887</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23849,7 +23849,7 @@
         <v>44889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         <v>44889</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23963,7 +23963,7 @@
         <v>44889</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24020,7 +24020,7 @@
         <v>44897</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24077,7 +24077,7 @@
         <v>44900</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         <v>44902</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24201,7 +24201,7 @@
         <v>44902</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>44903</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24325,7 +24325,7 @@
         <v>44907</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24382,7 +24382,7 @@
         <v>44909</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24444,7 +24444,7 @@
         <v>44910</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24506,7 +24506,7 @@
         <v>44916</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24563,7 +24563,7 @@
         <v>44917</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24620,7 +24620,7 @@
         <v>44923</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24677,7 +24677,7 @@
         <v>44943</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>44943</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24791,7 +24791,7 @@
         <v>44943</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24848,7 +24848,7 @@
         <v>44946</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24905,7 +24905,7 @@
         <v>44946</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24962,7 +24962,7 @@
         <v>44952</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25019,7 +25019,7 @@
         <v>44957</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>44958</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>44959</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25195,7 +25195,7 @@
         <v>44961</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25252,7 +25252,7 @@
         <v>44979</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>44985</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25366,7 +25366,7 @@
         <v>44986</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>45000</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>45002</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>45002</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>45005</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>45033</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>45033</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>45033</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>45035</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>45036</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25993,7 +25993,7 @@
         <v>45044</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>45051</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>45063</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>45068</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45070</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>45072</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45079</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26407,7 +26407,7 @@
         <v>45079</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26464,7 +26464,7 @@
         <v>45079</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26526,7 +26526,7 @@
         <v>45084</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26583,7 +26583,7 @@
         <v>45086</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26640,7 +26640,7 @@
         <v>45092</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26697,7 +26697,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26759,7 +26759,7 @@
         <v>45102</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26816,7 +26816,7 @@
         <v>45102</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26873,7 +26873,7 @@
         <v>45103</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26930,7 +26930,7 @@
         <v>45103</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26987,7 +26987,7 @@
         <v>45103</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27044,7 +27044,7 @@
         <v>45106</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27101,7 +27101,7 @@
         <v>45111</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27158,7 +27158,7 @@
         <v>45117</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27215,7 +27215,7 @@
         <v>45117</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27272,7 +27272,7 @@
         <v>45118</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27329,7 +27329,7 @@
         <v>45133</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27391,7 +27391,7 @@
         <v>45152</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27448,7 +27448,7 @@
         <v>45167</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27505,7 +27505,7 @@
         <v>45167</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27562,7 +27562,7 @@
         <v>45168</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>

--- a/Översikt OVANÅKER.xlsx
+++ b/Översikt OVANÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>43847</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44819</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>43713</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>44887</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43713</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>43349</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>43521</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43875</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>44365</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>44379</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44841</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>44957</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>43318</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>43349</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43349</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>43382</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>43392</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>43392</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         <v>43402</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>43403</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43409</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43409</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43410</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43412</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43416</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43419</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43419</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43419</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43424</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43434</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43440</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         <v>43440</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>43440</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         <v>43440</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>43451</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43451</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43451</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43451</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43451</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>43462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>43467</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43479</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43480</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43481</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43482</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>43486</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4301,7 +4301,7 @@
         <v>43487</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>43493</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>43493</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>43503</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>43507</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>43509</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>43515</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>43521</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>43521</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43525</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>43529</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>43531</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>43539</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>43542</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>43545</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>43551</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         <v>43556</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
         <v>43556</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5441,7 +5441,7 @@
         <v>43556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         <v>43570</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>43571</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5612,7 +5612,7 @@
         <v>43572</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5669,7 +5669,7 @@
         <v>43581</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>43587</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         <v>43591</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5897,7 +5897,7 @@
         <v>43601</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         <v>43602</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>43606</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6078,7 +6078,7 @@
         <v>43607</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6135,7 +6135,7 @@
         <v>43608</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6192,7 +6192,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
         <v>43613</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         <v>43614</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>43614</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>43614</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>43616</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6554,7 +6554,7 @@
         <v>43616</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>43616</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>43616</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43616</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>43616</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43616</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43616</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>43619</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>43619</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
         <v>43621</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>43621</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43629</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>43629</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>43640</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>43640</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>43641</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43643</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>43671</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7625,7 +7625,7 @@
         <v>43679</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43682</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>43686</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43689</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43689</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>43690</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43692</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8034,7 +8034,7 @@
         <v>43692</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>43693</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         <v>43704</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8205,7 +8205,7 @@
         <v>43705</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8262,7 +8262,7 @@
         <v>43713</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43725</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43725</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43725</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43726</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8552,7 +8552,7 @@
         <v>43728</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8609,7 +8609,7 @@
         <v>43731</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8666,7 +8666,7 @@
         <v>43731</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         <v>43731</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8780,7 +8780,7 @@
         <v>43731</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8837,7 +8837,7 @@
         <v>43731</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>43740</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>43747</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>43749</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         <v>43749</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         <v>43755</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         <v>43755</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
         <v>43766</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>43774</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>43780</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43787</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43790</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43790</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>43790</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43790</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43796</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43802</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43812</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>43817</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>43839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>43846</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43846</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10163,7 +10163,7 @@
         <v>43846</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43846</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>43846</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43850</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>43852</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>43852</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>43854</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>43854</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>43854</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>43854</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>43854</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>43859</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>43881</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>43886</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>43888</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>43892</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>43893</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>43900</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>43906</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>43907</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>43909</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>43914</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>43914</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>43915</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>43915</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         <v>43916</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11695,7 +11695,7 @@
         <v>43917</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11752,7 +11752,7 @@
         <v>43917</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11809,7 +11809,7 @@
         <v>43917</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11866,7 +11866,7 @@
         <v>43922</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>43924</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>43924</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         <v>43935</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>43935</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>43937</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>43937</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>43942</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>43942</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         <v>43945</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>43948</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>43950</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12570,7 +12570,7 @@
         <v>43951</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12627,7 +12627,7 @@
         <v>43957</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12684,7 +12684,7 @@
         <v>43962</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         <v>43965</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>43965</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12865,7 +12865,7 @@
         <v>43969</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12922,7 +12922,7 @@
         <v>43985</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         <v>43987</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13036,7 +13036,7 @@
         <v>43987</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>43992</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>43994</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>43999</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
         <v>44005</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>44012</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13383,7 +13383,7 @@
         <v>44012</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13440,7 +13440,7 @@
         <v>44025</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>44035</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44041</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44041</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>44053</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>44053</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>44054</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>44054</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>44054</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>44062</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>44063</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>44067</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>44071</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14268,7 +14268,7 @@
         <v>44071</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14325,7 +14325,7 @@
         <v>44074</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14382,7 +14382,7 @@
         <v>44083</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14439,7 +14439,7 @@
         <v>44083</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14496,7 +14496,7 @@
         <v>44089</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>44091</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>44091</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>44096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>44096</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>44102</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14853,7 +14853,7 @@
         <v>44105</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>44109</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14972,7 +14972,7 @@
         <v>44109</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15029,7 +15029,7 @@
         <v>44109</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15086,7 +15086,7 @@
         <v>44112</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
         <v>44112</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15200,7 +15200,7 @@
         <v>44112</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15257,7 +15257,7 @@
         <v>44113</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15314,7 +15314,7 @@
         <v>44120</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15371,7 +15371,7 @@
         <v>44125</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15428,7 +15428,7 @@
         <v>44131</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15485,7 +15485,7 @@
         <v>44131</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15542,7 +15542,7 @@
         <v>44131</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15599,7 +15599,7 @@
         <v>44137</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15656,7 +15656,7 @@
         <v>44145</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>44146</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15770,7 +15770,7 @@
         <v>44146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         <v>44153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15884,7 +15884,7 @@
         <v>44159</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15946,7 +15946,7 @@
         <v>44159</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         <v>44160</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16065,7 +16065,7 @@
         <v>44162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16122,7 +16122,7 @@
         <v>44167</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16179,7 +16179,7 @@
         <v>44167</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16236,7 +16236,7 @@
         <v>44167</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16293,7 +16293,7 @@
         <v>44167</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16350,7 +16350,7 @@
         <v>44167</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16407,7 +16407,7 @@
         <v>44167</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16464,7 +16464,7 @@
         <v>44169</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16521,7 +16521,7 @@
         <v>44174</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16578,7 +16578,7 @@
         <v>44183</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16635,7 +16635,7 @@
         <v>44188</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16692,7 +16692,7 @@
         <v>44204</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         <v>44222</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16806,7 +16806,7 @@
         <v>44223</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>44223</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16920,7 +16920,7 @@
         <v>44231</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16977,7 +16977,7 @@
         <v>44245</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17034,7 +17034,7 @@
         <v>44258</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17091,7 +17091,7 @@
         <v>44258</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17148,7 +17148,7 @@
         <v>44264</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
         <v>44264</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17262,7 +17262,7 @@
         <v>44264</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17319,7 +17319,7 @@
         <v>44264</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>44266</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>44266</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>44270</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>44271</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44277</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>44278</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>44279</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>44285</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>44287</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17904,7 +17904,7 @@
         <v>44298</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>44301</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44305</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>44310</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18137,7 +18137,7 @@
         <v>44310</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>44312</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         <v>44314</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18323,7 +18323,7 @@
         <v>44322</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>44328</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44336</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>44371</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>44376</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         <v>44379</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18685,7 +18685,7 @@
         <v>44379</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44379</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44379</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         <v>44379</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18928,7 +18928,7 @@
         <v>44379</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18990,7 +18990,7 @@
         <v>44379</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19052,7 +19052,7 @@
         <v>44379</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19114,7 +19114,7 @@
         <v>44384</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>44384</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>44400</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19300,7 +19300,7 @@
         <v>44435</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>44435</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>44449</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19476,7 +19476,7 @@
         <v>44475</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19533,7 +19533,7 @@
         <v>44484</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19590,7 +19590,7 @@
         <v>44491</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19647,7 +19647,7 @@
         <v>44494</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19704,7 +19704,7 @@
         <v>44503</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19761,7 +19761,7 @@
         <v>44516</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19818,7 +19818,7 @@
         <v>44517</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19880,7 +19880,7 @@
         <v>44530</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19937,7 +19937,7 @@
         <v>44531</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19994,7 +19994,7 @@
         <v>44571</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20056,7 +20056,7 @@
         <v>44571</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20113,7 +20113,7 @@
         <v>44581</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20170,7 +20170,7 @@
         <v>44585</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20227,7 +20227,7 @@
         <v>44603</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20284,7 +20284,7 @@
         <v>44607</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20341,7 +20341,7 @@
         <v>44614</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20398,7 +20398,7 @@
         <v>44614</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20455,7 +20455,7 @@
         <v>44614</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20512,7 +20512,7 @@
         <v>44617</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
         <v>44617</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         <v>44617</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44621</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>44650</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>44665</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>44698</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>44701</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>44706</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21030,7 +21030,7 @@
         <v>44715</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21092,7 +21092,7 @@
         <v>44719</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21149,7 +21149,7 @@
         <v>44725</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21211,7 +21211,7 @@
         <v>44729</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21273,7 +21273,7 @@
         <v>44746</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>44746</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>44749</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44750</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21521,7 +21521,7 @@
         <v>44754</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21578,7 +21578,7 @@
         <v>44757</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>44757</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>44760</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21764,7 +21764,7 @@
         <v>44776</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         <v>44776</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
         <v>44789</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21950,7 +21950,7 @@
         <v>44797</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22007,7 +22007,7 @@
         <v>44798</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22064,7 +22064,7 @@
         <v>44798</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22121,7 +22121,7 @@
         <v>44799</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
         <v>44802</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>44804</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22312,7 +22312,7 @@
         <v>44811</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>44811</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22436,7 +22436,7 @@
         <v>44811</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22498,7 +22498,7 @@
         <v>44817</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         <v>44818</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22617,7 +22617,7 @@
         <v>44819</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22679,7 +22679,7 @@
         <v>44823</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>44823</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22803,7 +22803,7 @@
         <v>44823</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22865,7 +22865,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22927,7 +22927,7 @@
         <v>44830</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22984,7 +22984,7 @@
         <v>44839</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23041,7 +23041,7 @@
         <v>44840</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23098,7 +23098,7 @@
         <v>44859</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23160,7 +23160,7 @@
         <v>44862</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23217,7 +23217,7 @@
         <v>44868</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23274,7 +23274,7 @@
         <v>44868</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23331,7 +23331,7 @@
         <v>44872</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23388,7 +23388,7 @@
         <v>44872</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23445,7 +23445,7 @@
         <v>44874</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23502,7 +23502,7 @@
         <v>44876</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23559,7 +23559,7 @@
         <v>44876</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23616,7 +23616,7 @@
         <v>44879</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23678,7 +23678,7 @@
         <v>44883</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23735,7 +23735,7 @@
         <v>44886</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23792,7 +23792,7 @@
         <v>44887</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23849,7 +23849,7 @@
         <v>44889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         <v>44889</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23963,7 +23963,7 @@
         <v>44889</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24020,7 +24020,7 @@
         <v>44897</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24077,7 +24077,7 @@
         <v>44900</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         <v>44902</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24201,7 +24201,7 @@
         <v>44902</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>44903</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24325,7 +24325,7 @@
         <v>44907</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24382,7 +24382,7 @@
         <v>44909</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24444,7 +24444,7 @@
         <v>44910</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24506,7 +24506,7 @@
         <v>44916</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24563,7 +24563,7 @@
         <v>44917</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24620,7 +24620,7 @@
         <v>44923</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24677,7 +24677,7 @@
         <v>44943</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>44943</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24791,7 +24791,7 @@
         <v>44943</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24848,7 +24848,7 @@
         <v>44946</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24905,7 +24905,7 @@
         <v>44946</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24962,7 +24962,7 @@
         <v>44952</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25019,7 +25019,7 @@
         <v>44957</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>44958</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>44959</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25195,7 +25195,7 @@
         <v>44961</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25252,7 +25252,7 @@
         <v>44979</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>44985</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25366,7 +25366,7 @@
         <v>44986</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>45000</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>45002</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>45002</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>45005</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>45033</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>45033</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>45033</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>45035</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>45036</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25993,7 +25993,7 @@
         <v>45044</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>45051</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>45063</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>45068</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45070</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>45072</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45079</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26407,7 +26407,7 @@
         <v>45079</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26464,7 +26464,7 @@
         <v>45079</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26526,7 +26526,7 @@
         <v>45084</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26583,7 +26583,7 @@
         <v>45086</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26640,7 +26640,7 @@
         <v>45092</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26697,7 +26697,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26759,7 +26759,7 @@
         <v>45102</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26816,7 +26816,7 @@
         <v>45102</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26873,7 +26873,7 @@
         <v>45103</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26930,7 +26930,7 @@
         <v>45103</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26987,7 +26987,7 @@
         <v>45103</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27044,7 +27044,7 @@
         <v>45106</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27101,7 +27101,7 @@
         <v>45111</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27158,7 +27158,7 @@
         <v>45117</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27215,7 +27215,7 @@
         <v>45117</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27272,7 +27272,7 @@
         <v>45118</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27329,7 +27329,7 @@
         <v>45133</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27391,7 +27391,7 @@
         <v>45152</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27448,7 +27448,7 @@
         <v>45167</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27505,7 +27505,7 @@
         <v>45167</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27562,7 +27562,7 @@
         <v>45168</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>

--- a/Översikt OVANÅKER.xlsx
+++ b/Översikt OVANÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>43847</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44819</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>43713</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>44887</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43713</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>43349</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>43521</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43875</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>44365</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>44379</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44841</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>44957</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>43318</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>43349</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43349</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>43382</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>43392</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>43392</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         <v>43402</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>43403</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43409</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43409</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43410</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43412</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43416</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43419</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43419</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43419</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43424</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43434</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43440</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         <v>43440</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>43440</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         <v>43440</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>43451</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43451</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43451</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43451</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43451</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>43462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>43467</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43479</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43480</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43481</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43482</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>43486</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4301,7 +4301,7 @@
         <v>43487</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>43493</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>43493</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>43503</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>43507</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>43509</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>43515</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>43521</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>43521</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43525</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>43529</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>43531</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>43539</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>43542</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>43545</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>43551</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         <v>43556</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
         <v>43556</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5441,7 +5441,7 @@
         <v>43556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         <v>43570</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>43571</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5612,7 +5612,7 @@
         <v>43572</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5669,7 +5669,7 @@
         <v>43581</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>43587</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         <v>43591</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5897,7 +5897,7 @@
         <v>43601</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         <v>43602</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>43606</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6078,7 +6078,7 @@
         <v>43607</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6135,7 +6135,7 @@
         <v>43608</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6192,7 +6192,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
         <v>43613</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         <v>43614</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>43614</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>43614</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>43616</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6554,7 +6554,7 @@
         <v>43616</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>43616</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>43616</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43616</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>43616</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43616</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43616</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>43619</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>43619</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
         <v>43621</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>43621</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43629</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>43629</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>43640</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>43640</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>43641</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43643</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>43671</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7625,7 +7625,7 @@
         <v>43679</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43682</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>43686</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43689</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43689</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>43690</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43692</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8034,7 +8034,7 @@
         <v>43692</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>43693</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         <v>43704</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8205,7 +8205,7 @@
         <v>43705</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8262,7 +8262,7 @@
         <v>43713</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43725</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43725</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43725</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43726</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8552,7 +8552,7 @@
         <v>43728</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8609,7 +8609,7 @@
         <v>43731</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8666,7 +8666,7 @@
         <v>43731</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         <v>43731</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8780,7 +8780,7 @@
         <v>43731</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8837,7 +8837,7 @@
         <v>43731</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>43740</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>43747</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>43749</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         <v>43749</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         <v>43755</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         <v>43755</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
         <v>43766</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>43774</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>43780</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43787</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43790</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43790</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>43790</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43790</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43796</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43802</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43812</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>43817</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>43839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>43846</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43846</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10163,7 +10163,7 @@
         <v>43846</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43846</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>43846</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43850</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>43852</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>43852</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>43854</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>43854</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>43854</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>43854</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>43854</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>43859</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>43881</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>43886</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>43888</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>43892</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>43893</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>43900</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>43906</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>43907</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>43909</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>43914</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>43914</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>43915</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>43915</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         <v>43916</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11695,7 +11695,7 @@
         <v>43917</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11752,7 +11752,7 @@
         <v>43917</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11809,7 +11809,7 @@
         <v>43917</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11866,7 +11866,7 @@
         <v>43922</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>43924</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>43924</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         <v>43935</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>43935</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>43937</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>43937</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>43942</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>43942</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         <v>43945</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>43948</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>43950</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12570,7 +12570,7 @@
         <v>43951</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12627,7 +12627,7 @@
         <v>43957</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12684,7 +12684,7 @@
         <v>43962</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         <v>43965</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>43965</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12865,7 +12865,7 @@
         <v>43969</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12922,7 +12922,7 @@
         <v>43985</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         <v>43987</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13036,7 +13036,7 @@
         <v>43987</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>43992</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>43994</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>43999</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
         <v>44005</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>44012</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13383,7 +13383,7 @@
         <v>44012</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13440,7 +13440,7 @@
         <v>44025</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>44035</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44041</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44041</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>44053</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>44053</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>44054</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>44054</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>44054</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>44062</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>44063</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>44067</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>44071</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14268,7 +14268,7 @@
         <v>44071</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14325,7 +14325,7 @@
         <v>44074</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14382,7 +14382,7 @@
         <v>44083</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14439,7 +14439,7 @@
         <v>44083</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14496,7 +14496,7 @@
         <v>44089</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>44091</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>44091</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>44096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>44096</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>44102</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14853,7 +14853,7 @@
         <v>44105</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>44109</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14972,7 +14972,7 @@
         <v>44109</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15029,7 +15029,7 @@
         <v>44109</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15086,7 +15086,7 @@
         <v>44112</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
         <v>44112</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15200,7 +15200,7 @@
         <v>44112</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15257,7 +15257,7 @@
         <v>44113</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15314,7 +15314,7 @@
         <v>44120</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15371,7 +15371,7 @@
         <v>44125</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15428,7 +15428,7 @@
         <v>44131</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15485,7 +15485,7 @@
         <v>44131</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15542,7 +15542,7 @@
         <v>44131</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15599,7 +15599,7 @@
         <v>44137</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15656,7 +15656,7 @@
         <v>44145</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>44146</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15770,7 +15770,7 @@
         <v>44146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         <v>44153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15884,7 +15884,7 @@
         <v>44159</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15946,7 +15946,7 @@
         <v>44159</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         <v>44160</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16065,7 +16065,7 @@
         <v>44162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16122,7 +16122,7 @@
         <v>44167</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16179,7 +16179,7 @@
         <v>44167</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16236,7 +16236,7 @@
         <v>44167</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16293,7 +16293,7 @@
         <v>44167</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16350,7 +16350,7 @@
         <v>44167</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16407,7 +16407,7 @@
         <v>44167</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16464,7 +16464,7 @@
         <v>44169</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16521,7 +16521,7 @@
         <v>44174</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16578,7 +16578,7 @@
         <v>44183</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16635,7 +16635,7 @@
         <v>44188</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16692,7 +16692,7 @@
         <v>44204</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         <v>44222</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16806,7 +16806,7 @@
         <v>44223</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>44223</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16920,7 +16920,7 @@
         <v>44231</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16977,7 +16977,7 @@
         <v>44245</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17034,7 +17034,7 @@
         <v>44258</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17091,7 +17091,7 @@
         <v>44258</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17148,7 +17148,7 @@
         <v>44264</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
         <v>44264</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17262,7 +17262,7 @@
         <v>44264</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17319,7 +17319,7 @@
         <v>44264</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>44266</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>44266</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>44270</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>44271</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44277</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>44278</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>44279</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>44285</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>44287</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17904,7 +17904,7 @@
         <v>44298</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>44301</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44305</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>44310</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18137,7 +18137,7 @@
         <v>44310</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>44312</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         <v>44314</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18323,7 +18323,7 @@
         <v>44322</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>44328</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44336</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>44371</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>44376</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         <v>44379</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18685,7 +18685,7 @@
         <v>44379</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44379</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44379</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         <v>44379</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18928,7 +18928,7 @@
         <v>44379</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18990,7 +18990,7 @@
         <v>44379</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19052,7 +19052,7 @@
         <v>44379</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19114,7 +19114,7 @@
         <v>44384</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>44384</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>44400</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19300,7 +19300,7 @@
         <v>44435</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>44435</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>44449</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19476,7 +19476,7 @@
         <v>44475</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19533,7 +19533,7 @@
         <v>44484</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19590,7 +19590,7 @@
         <v>44491</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19647,7 +19647,7 @@
         <v>44494</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19704,7 +19704,7 @@
         <v>44503</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19761,7 +19761,7 @@
         <v>44516</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19818,7 +19818,7 @@
         <v>44517</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19880,7 +19880,7 @@
         <v>44530</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19937,7 +19937,7 @@
         <v>44531</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19994,7 +19994,7 @@
         <v>44571</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20056,7 +20056,7 @@
         <v>44571</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20113,7 +20113,7 @@
         <v>44581</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20170,7 +20170,7 @@
         <v>44585</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20227,7 +20227,7 @@
         <v>44603</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20284,7 +20284,7 @@
         <v>44607</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20341,7 +20341,7 @@
         <v>44614</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20398,7 +20398,7 @@
         <v>44614</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20455,7 +20455,7 @@
         <v>44614</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20512,7 +20512,7 @@
         <v>44617</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
         <v>44617</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         <v>44617</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44621</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>44650</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>44665</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>44698</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>44701</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>44706</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21030,7 +21030,7 @@
         <v>44715</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21092,7 +21092,7 @@
         <v>44719</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21149,7 +21149,7 @@
         <v>44725</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21211,7 +21211,7 @@
         <v>44729</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21273,7 +21273,7 @@
         <v>44746</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>44746</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>44749</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44750</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21521,7 +21521,7 @@
         <v>44754</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21578,7 +21578,7 @@
         <v>44757</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>44757</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>44760</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21764,7 +21764,7 @@
         <v>44776</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         <v>44776</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
         <v>44789</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21950,7 +21950,7 @@
         <v>44797</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22007,7 +22007,7 @@
         <v>44798</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22064,7 +22064,7 @@
         <v>44798</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22121,7 +22121,7 @@
         <v>44799</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
         <v>44802</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>44804</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22312,7 +22312,7 @@
         <v>44811</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>44811</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22436,7 +22436,7 @@
         <v>44811</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22498,7 +22498,7 @@
         <v>44817</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         <v>44818</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22617,7 +22617,7 @@
         <v>44819</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22679,7 +22679,7 @@
         <v>44823</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>44823</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22803,7 +22803,7 @@
         <v>44823</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22865,7 +22865,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22927,7 +22927,7 @@
         <v>44830</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22984,7 +22984,7 @@
         <v>44839</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23041,7 +23041,7 @@
         <v>44840</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23098,7 +23098,7 @@
         <v>44859</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23160,7 +23160,7 @@
         <v>44862</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23217,7 +23217,7 @@
         <v>44868</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23274,7 +23274,7 @@
         <v>44868</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23331,7 +23331,7 @@
         <v>44872</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23388,7 +23388,7 @@
         <v>44872</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23445,7 +23445,7 @@
         <v>44874</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23502,7 +23502,7 @@
         <v>44876</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23559,7 +23559,7 @@
         <v>44876</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23616,7 +23616,7 @@
         <v>44879</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23678,7 +23678,7 @@
         <v>44883</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23735,7 +23735,7 @@
         <v>44886</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23792,7 +23792,7 @@
         <v>44887</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23849,7 +23849,7 @@
         <v>44889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         <v>44889</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23963,7 +23963,7 @@
         <v>44889</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24020,7 +24020,7 @@
         <v>44897</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24077,7 +24077,7 @@
         <v>44900</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         <v>44902</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24201,7 +24201,7 @@
         <v>44902</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>44903</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24325,7 +24325,7 @@
         <v>44907</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24382,7 +24382,7 @@
         <v>44909</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24444,7 +24444,7 @@
         <v>44910</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24506,7 +24506,7 @@
         <v>44916</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24563,7 +24563,7 @@
         <v>44917</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24620,7 +24620,7 @@
         <v>44923</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24677,7 +24677,7 @@
         <v>44943</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>44943</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24791,7 +24791,7 @@
         <v>44943</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24848,7 +24848,7 @@
         <v>44946</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24905,7 +24905,7 @@
         <v>44946</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24962,7 +24962,7 @@
         <v>44952</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25019,7 +25019,7 @@
         <v>44957</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>44958</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>44959</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25195,7 +25195,7 @@
         <v>44961</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25252,7 +25252,7 @@
         <v>44979</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>44985</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25366,7 +25366,7 @@
         <v>44986</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>45000</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>45002</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>45002</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>45005</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>45033</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>45033</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>45033</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>45035</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>45036</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25993,7 +25993,7 @@
         <v>45044</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>45051</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>45063</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>45068</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45070</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>45072</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45079</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26407,7 +26407,7 @@
         <v>45079</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26464,7 +26464,7 @@
         <v>45079</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26526,7 +26526,7 @@
         <v>45084</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26583,7 +26583,7 @@
         <v>45086</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26640,7 +26640,7 @@
         <v>45092</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26697,7 +26697,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26759,7 +26759,7 @@
         <v>45102</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26816,7 +26816,7 @@
         <v>45102</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26873,7 +26873,7 @@
         <v>45103</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26930,7 +26930,7 @@
         <v>45103</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26987,7 +26987,7 @@
         <v>45103</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27044,7 +27044,7 @@
         <v>45106</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27101,7 +27101,7 @@
         <v>45111</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27158,7 +27158,7 @@
         <v>45117</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27215,7 +27215,7 @@
         <v>45117</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27272,7 +27272,7 @@
         <v>45118</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27329,7 +27329,7 @@
         <v>45133</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27391,7 +27391,7 @@
         <v>45152</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27448,7 +27448,7 @@
         <v>45167</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27505,7 +27505,7 @@
         <v>45167</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27562,7 +27562,7 @@
         <v>45168</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>

--- a/Översikt OVANÅKER.xlsx
+++ b/Översikt OVANÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>43847</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44819</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>43713</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
         <v>4.7</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
         <v>2</v>
@@ -797,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -809,17 +809,18 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>Lunglav
+          <t>Knärot
+Lunglav
 Talltita
 Korallrot
 Spindelblomster</t>
@@ -833,6 +834,10 @@
         <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/kartor/A 45009-2019.png")</f>
         <v/>
       </c>
+      <c r="U4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/knärot/A 45009-2019.png")</f>
+        <v/>
+      </c>
       <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomål/A 45009-2019.docx")</f>
         <v/>
@@ -860,7 +865,7 @@
         <v>44887</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +953,7 @@
         <v>43713</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1044,7 @@
         <v>43349</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1129,7 @@
         <v>43521</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1209,7 +1214,7 @@
         <v>43875</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1294,7 +1299,7 @@
         <v>44365</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1384,7 +1389,7 @@
         <v>44379</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1479,7 @@
         <v>44841</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1569,7 @@
         <v>44957</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1649,7 +1654,7 @@
         <v>43318</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1706,7 +1711,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1763,7 +1768,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1820,7 +1825,7 @@
         <v>43349</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1877,7 +1882,7 @@
         <v>43349</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1934,7 +1939,7 @@
         <v>43382</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1991,7 +1996,7 @@
         <v>43392</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2048,7 +2053,7 @@
         <v>43392</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2105,7 +2110,7 @@
         <v>43402</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2162,7 +2167,7 @@
         <v>43403</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2219,7 +2224,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2276,7 +2281,7 @@
         <v>43409</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2333,7 +2338,7 @@
         <v>43409</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2390,7 +2395,7 @@
         <v>43410</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2447,7 +2452,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2504,7 +2509,7 @@
         <v>43412</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2561,7 +2566,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2618,7 +2623,7 @@
         <v>43416</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2675,7 +2680,7 @@
         <v>43419</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2732,7 +2737,7 @@
         <v>43419</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2789,7 +2794,7 @@
         <v>43419</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2846,7 +2851,7 @@
         <v>43424</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2903,7 +2908,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2960,7 +2965,7 @@
         <v>43434</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3017,7 +3022,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3074,7 +3079,7 @@
         <v>43440</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3136,7 +3141,7 @@
         <v>43440</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3198,7 +3203,7 @@
         <v>43440</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3255,7 +3260,7 @@
         <v>43440</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3317,7 +3322,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3374,7 +3379,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3431,7 +3436,7 @@
         <v>43451</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3488,7 +3493,7 @@
         <v>43451</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3545,7 +3550,7 @@
         <v>43451</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3602,7 +3607,7 @@
         <v>43451</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3659,7 +3664,7 @@
         <v>43451</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3721,7 +3726,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3778,7 +3783,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3835,7 +3840,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3892,7 +3897,7 @@
         <v>43462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3954,7 +3959,7 @@
         <v>43467</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4016,7 +4021,7 @@
         <v>43479</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4073,7 +4078,7 @@
         <v>43480</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4130,7 +4135,7 @@
         <v>43481</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4187,7 +4192,7 @@
         <v>43482</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4244,7 +4249,7 @@
         <v>43486</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4301,7 +4306,7 @@
         <v>43487</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4358,7 +4363,7 @@
         <v>43493</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4415,7 +4420,7 @@
         <v>43493</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4472,7 +4477,7 @@
         <v>43503</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4529,7 +4534,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4586,7 +4591,7 @@
         <v>43507</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4643,7 +4648,7 @@
         <v>43509</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4700,7 +4705,7 @@
         <v>43515</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4757,7 +4762,7 @@
         <v>43521</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4814,7 +4819,7 @@
         <v>43521</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4871,7 +4876,7 @@
         <v>43525</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4928,7 +4933,7 @@
         <v>43529</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4985,7 +4990,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5042,7 +5047,7 @@
         <v>43531</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5099,7 +5104,7 @@
         <v>43539</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5156,7 +5161,7 @@
         <v>43542</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5213,7 +5218,7 @@
         <v>43545</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5270,7 +5275,7 @@
         <v>43551</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5327,7 +5332,7 @@
         <v>43556</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5384,7 +5389,7 @@
         <v>43556</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5441,7 +5446,7 @@
         <v>43556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5498,7 +5503,7 @@
         <v>43570</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5555,7 +5560,7 @@
         <v>43571</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5612,7 +5617,7 @@
         <v>43572</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5669,7 +5674,7 @@
         <v>43581</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5726,7 +5731,7 @@
         <v>43587</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5783,7 +5788,7 @@
         <v>43591</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5840,7 +5845,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5897,7 +5902,7 @@
         <v>43601</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5954,7 +5959,7 @@
         <v>43602</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6016,7 +6021,7 @@
         <v>43606</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6078,7 +6083,7 @@
         <v>43607</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6135,7 +6140,7 @@
         <v>43608</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6192,7 +6197,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6249,7 +6254,7 @@
         <v>43613</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6306,7 +6311,7 @@
         <v>43614</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6368,7 +6373,7 @@
         <v>43614</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6430,7 +6435,7 @@
         <v>43614</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6492,7 +6497,7 @@
         <v>43616</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6554,7 +6559,7 @@
         <v>43616</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6616,7 +6621,7 @@
         <v>43616</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6678,7 +6683,7 @@
         <v>43616</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6740,7 +6745,7 @@
         <v>43616</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6802,7 +6807,7 @@
         <v>43616</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6864,7 +6869,7 @@
         <v>43616</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6926,7 +6931,7 @@
         <v>43616</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6988,7 +6993,7 @@
         <v>43619</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7045,7 +7050,7 @@
         <v>43619</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7107,7 +7112,7 @@
         <v>43621</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7164,7 +7169,7 @@
         <v>43621</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7221,7 +7226,7 @@
         <v>43629</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7278,7 +7283,7 @@
         <v>43629</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7335,7 +7340,7 @@
         <v>43640</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7392,7 +7397,7 @@
         <v>43640</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7449,7 +7454,7 @@
         <v>43641</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7506,7 +7511,7 @@
         <v>43643</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7563,7 +7568,7 @@
         <v>43671</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7625,7 +7630,7 @@
         <v>43679</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7687,7 +7692,7 @@
         <v>43682</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7749,7 +7754,7 @@
         <v>43686</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7806,7 +7811,7 @@
         <v>43689</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7863,7 +7868,7 @@
         <v>43689</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7920,7 +7925,7 @@
         <v>43690</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7977,7 +7982,7 @@
         <v>43692</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8034,7 +8039,7 @@
         <v>43692</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8091,7 +8096,7 @@
         <v>43693</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8148,7 +8153,7 @@
         <v>43704</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8205,7 +8210,7 @@
         <v>43705</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8262,7 +8267,7 @@
         <v>43713</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8324,7 +8329,7 @@
         <v>43725</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8381,7 +8386,7 @@
         <v>43725</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8438,7 +8443,7 @@
         <v>43725</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8495,7 +8500,7 @@
         <v>43726</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8552,7 +8557,7 @@
         <v>43728</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8609,7 +8614,7 @@
         <v>43731</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8666,7 +8671,7 @@
         <v>43731</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8723,7 +8728,7 @@
         <v>43731</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8780,7 +8785,7 @@
         <v>43731</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8837,7 +8842,7 @@
         <v>43731</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8894,7 +8899,7 @@
         <v>43740</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8951,7 +8956,7 @@
         <v>43747</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9008,7 +9013,7 @@
         <v>43749</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9065,7 +9070,7 @@
         <v>43749</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9127,7 +9132,7 @@
         <v>43755</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9184,7 +9189,7 @@
         <v>43755</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9241,7 +9246,7 @@
         <v>43766</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9298,7 +9303,7 @@
         <v>43774</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9355,7 +9360,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9412,7 +9417,7 @@
         <v>43780</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9469,7 +9474,7 @@
         <v>43787</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9526,7 +9531,7 @@
         <v>43790</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9583,7 +9588,7 @@
         <v>43790</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9640,7 +9645,7 @@
         <v>43790</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9697,7 +9702,7 @@
         <v>43790</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9754,7 +9759,7 @@
         <v>43796</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9811,7 +9816,7 @@
         <v>43802</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9868,7 +9873,7 @@
         <v>43812</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9925,7 +9930,7 @@
         <v>43817</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9982,7 +9987,7 @@
         <v>43839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10039,7 +10044,7 @@
         <v>43846</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10101,7 +10106,7 @@
         <v>43846</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10163,7 +10168,7 @@
         <v>43846</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10225,7 +10230,7 @@
         <v>43846</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10287,7 +10292,7 @@
         <v>43846</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10349,7 +10354,7 @@
         <v>43850</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10406,7 +10411,7 @@
         <v>43852</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10468,7 +10473,7 @@
         <v>43852</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10525,7 +10530,7 @@
         <v>43854</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10582,7 +10587,7 @@
         <v>43854</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10639,7 +10644,7 @@
         <v>43854</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10696,7 +10701,7 @@
         <v>43854</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10753,7 +10758,7 @@
         <v>43854</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10810,7 +10815,7 @@
         <v>43859</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10872,7 +10877,7 @@
         <v>43881</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10929,7 +10934,7 @@
         <v>43886</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10986,7 +10991,7 @@
         <v>43888</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11043,7 +11048,7 @@
         <v>43892</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11100,7 +11105,7 @@
         <v>43893</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11157,7 +11162,7 @@
         <v>43900</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11219,7 +11224,7 @@
         <v>43906</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11276,7 +11281,7 @@
         <v>43907</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11333,7 +11338,7 @@
         <v>43909</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11390,7 +11395,7 @@
         <v>43914</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11452,7 +11457,7 @@
         <v>43914</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11514,7 +11519,7 @@
         <v>43915</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11576,7 +11581,7 @@
         <v>43915</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11638,7 +11643,7 @@
         <v>43916</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11695,7 +11700,7 @@
         <v>43917</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11752,7 +11757,7 @@
         <v>43917</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11809,7 +11814,7 @@
         <v>43917</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11866,7 +11871,7 @@
         <v>43922</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11928,7 +11933,7 @@
         <v>43924</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11985,7 +11990,7 @@
         <v>43924</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12042,7 +12047,7 @@
         <v>43935</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12099,7 +12104,7 @@
         <v>43935</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12156,7 +12161,7 @@
         <v>43937</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12213,7 +12218,7 @@
         <v>43937</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12270,7 +12275,7 @@
         <v>43942</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12332,7 +12337,7 @@
         <v>43942</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12394,7 +12399,7 @@
         <v>43945</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12451,7 +12456,7 @@
         <v>43948</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12513,7 +12518,7 @@
         <v>43950</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12570,7 +12575,7 @@
         <v>43951</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12627,7 +12632,7 @@
         <v>43957</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12684,7 +12689,7 @@
         <v>43962</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12746,7 +12751,7 @@
         <v>43965</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12808,7 +12813,7 @@
         <v>43965</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12865,7 +12870,7 @@
         <v>43969</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12922,7 +12927,7 @@
         <v>43985</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12979,7 +12984,7 @@
         <v>43987</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13036,7 +13041,7 @@
         <v>43987</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13098,7 +13103,7 @@
         <v>43992</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13155,7 +13160,7 @@
         <v>43994</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13212,7 +13217,7 @@
         <v>43999</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13269,7 +13274,7 @@
         <v>44005</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13326,7 +13331,7 @@
         <v>44012</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13383,7 +13388,7 @@
         <v>44012</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13440,7 +13445,7 @@
         <v>44025</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13497,7 +13502,7 @@
         <v>44035</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13554,7 +13559,7 @@
         <v>44041</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13611,7 +13616,7 @@
         <v>44041</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13668,7 +13673,7 @@
         <v>44053</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13730,7 +13735,7 @@
         <v>44053</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13792,7 +13797,7 @@
         <v>44054</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13854,7 +13859,7 @@
         <v>44054</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13916,7 +13921,7 @@
         <v>44054</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13978,7 +13983,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14040,7 +14045,7 @@
         <v>44062</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14097,7 +14102,7 @@
         <v>44063</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14154,7 +14159,7 @@
         <v>44067</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14211,7 +14216,7 @@
         <v>44071</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14268,7 +14273,7 @@
         <v>44071</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14325,7 +14330,7 @@
         <v>44074</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14382,7 +14387,7 @@
         <v>44083</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14439,7 +14444,7 @@
         <v>44083</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14496,7 +14501,7 @@
         <v>44089</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14558,7 +14563,7 @@
         <v>44091</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14615,7 +14620,7 @@
         <v>44091</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14677,7 +14682,7 @@
         <v>44096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14734,7 +14739,7 @@
         <v>44096</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14791,7 +14796,7 @@
         <v>44102</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14853,7 +14858,7 @@
         <v>44105</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14915,7 +14920,7 @@
         <v>44109</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14972,7 +14977,7 @@
         <v>44109</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15029,7 +15034,7 @@
         <v>44109</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15086,7 +15091,7 @@
         <v>44112</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15143,7 +15148,7 @@
         <v>44112</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15200,7 +15205,7 @@
         <v>44112</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15257,7 +15262,7 @@
         <v>44113</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15314,7 +15319,7 @@
         <v>44120</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15371,7 +15376,7 @@
         <v>44125</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15428,7 +15433,7 @@
         <v>44131</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15485,7 +15490,7 @@
         <v>44131</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15542,7 +15547,7 @@
         <v>44131</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15599,7 +15604,7 @@
         <v>44137</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15656,7 +15661,7 @@
         <v>44145</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15713,7 +15718,7 @@
         <v>44146</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15770,7 +15775,7 @@
         <v>44146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15827,7 +15832,7 @@
         <v>44153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15884,7 +15889,7 @@
         <v>44159</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15946,7 +15951,7 @@
         <v>44159</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16003,7 +16008,7 @@
         <v>44160</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16065,7 +16070,7 @@
         <v>44162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16122,7 +16127,7 @@
         <v>44167</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16179,7 +16184,7 @@
         <v>44167</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16236,7 +16241,7 @@
         <v>44167</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16293,7 +16298,7 @@
         <v>44167</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16350,7 +16355,7 @@
         <v>44167</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16407,7 +16412,7 @@
         <v>44167</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16464,7 +16469,7 @@
         <v>44169</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16521,7 +16526,7 @@
         <v>44174</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16578,7 +16583,7 @@
         <v>44183</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16635,7 +16640,7 @@
         <v>44188</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16692,7 +16697,7 @@
         <v>44204</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16749,7 +16754,7 @@
         <v>44222</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16806,7 +16811,7 @@
         <v>44223</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16863,7 +16868,7 @@
         <v>44223</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16920,7 +16925,7 @@
         <v>44231</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16977,7 +16982,7 @@
         <v>44245</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17034,7 +17039,7 @@
         <v>44258</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17091,7 +17096,7 @@
         <v>44258</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17148,7 +17153,7 @@
         <v>44264</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17205,7 +17210,7 @@
         <v>44264</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17262,7 +17267,7 @@
         <v>44264</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17319,7 +17324,7 @@
         <v>44264</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17376,7 +17381,7 @@
         <v>44266</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17433,7 +17438,7 @@
         <v>44266</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17490,7 +17495,7 @@
         <v>44270</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17547,7 +17552,7 @@
         <v>44271</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17609,7 +17614,7 @@
         <v>44277</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17671,7 +17676,7 @@
         <v>44278</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17728,7 +17733,7 @@
         <v>44279</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17785,7 +17790,7 @@
         <v>44285</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17847,7 +17852,7 @@
         <v>44287</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17904,7 +17909,7 @@
         <v>44298</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17961,7 +17966,7 @@
         <v>44301</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18018,7 +18023,7 @@
         <v>44305</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18075,7 +18080,7 @@
         <v>44310</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18137,7 +18142,7 @@
         <v>44310</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18199,7 +18204,7 @@
         <v>44312</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18261,7 +18266,7 @@
         <v>44314</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18323,7 +18328,7 @@
         <v>44322</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18385,7 +18390,7 @@
         <v>44328</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18447,7 +18452,7 @@
         <v>44336</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18509,7 +18514,7 @@
         <v>44371</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18566,7 +18571,7 @@
         <v>44376</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18628,7 +18633,7 @@
         <v>44379</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18685,7 +18690,7 @@
         <v>44379</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18747,7 +18752,7 @@
         <v>44379</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18804,7 +18809,7 @@
         <v>44379</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18866,7 +18871,7 @@
         <v>44379</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18928,7 +18933,7 @@
         <v>44379</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18990,7 +18995,7 @@
         <v>44379</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19052,7 +19057,7 @@
         <v>44379</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19114,7 +19119,7 @@
         <v>44384</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19176,7 +19181,7 @@
         <v>44384</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19238,7 +19243,7 @@
         <v>44400</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19300,7 +19305,7 @@
         <v>44435</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19362,7 +19367,7 @@
         <v>44435</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19419,7 +19424,7 @@
         <v>44449</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19476,7 +19481,7 @@
         <v>44475</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19533,7 +19538,7 @@
         <v>44484</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19590,7 +19595,7 @@
         <v>44491</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19647,7 +19652,7 @@
         <v>44494</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19704,7 +19709,7 @@
         <v>44503</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19761,7 +19766,7 @@
         <v>44516</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19818,7 +19823,7 @@
         <v>44517</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19880,7 +19885,7 @@
         <v>44530</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19937,7 +19942,7 @@
         <v>44531</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19994,7 +19999,7 @@
         <v>44571</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20056,7 +20061,7 @@
         <v>44571</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20113,7 +20118,7 @@
         <v>44581</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20170,7 +20175,7 @@
         <v>44585</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20227,7 +20232,7 @@
         <v>44603</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20284,7 +20289,7 @@
         <v>44607</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20341,7 +20346,7 @@
         <v>44614</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20398,7 +20403,7 @@
         <v>44614</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20455,7 +20460,7 @@
         <v>44614</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20512,7 +20517,7 @@
         <v>44617</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20569,7 +20574,7 @@
         <v>44617</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20626,7 +20631,7 @@
         <v>44617</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20683,7 +20688,7 @@
         <v>44621</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20740,7 +20745,7 @@
         <v>44650</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20797,7 +20802,7 @@
         <v>44665</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20854,7 +20859,7 @@
         <v>44698</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20911,7 +20916,7 @@
         <v>44701</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20968,7 +20973,7 @@
         <v>44706</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21030,7 +21035,7 @@
         <v>44715</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21092,7 +21097,7 @@
         <v>44719</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21149,7 +21154,7 @@
         <v>44725</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21211,7 +21216,7 @@
         <v>44729</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21273,7 +21278,7 @@
         <v>44746</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21335,7 +21340,7 @@
         <v>44746</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21397,7 +21402,7 @@
         <v>44749</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21459,7 +21464,7 @@
         <v>44750</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21521,7 +21526,7 @@
         <v>44754</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21578,7 +21583,7 @@
         <v>44757</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21640,7 +21645,7 @@
         <v>44757</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21702,7 +21707,7 @@
         <v>44760</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21764,7 +21769,7 @@
         <v>44776</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21826,7 +21831,7 @@
         <v>44776</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21888,7 +21893,7 @@
         <v>44789</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21950,7 +21955,7 @@
         <v>44797</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22007,7 +22012,7 @@
         <v>44798</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22064,7 +22069,7 @@
         <v>44798</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22121,7 +22126,7 @@
         <v>44799</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22198,7 +22203,7 @@
         <v>44802</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22255,7 +22260,7 @@
         <v>44804</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22312,7 +22317,7 @@
         <v>44811</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22374,7 +22379,7 @@
         <v>44811</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22436,7 +22441,7 @@
         <v>44811</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22498,7 +22503,7 @@
         <v>44817</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22555,7 +22560,7 @@
         <v>44818</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22617,7 +22622,7 @@
         <v>44819</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22679,7 +22684,7 @@
         <v>44823</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22741,7 +22746,7 @@
         <v>44823</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22803,7 +22808,7 @@
         <v>44823</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22865,7 +22870,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22927,7 +22932,7 @@
         <v>44830</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22984,7 +22989,7 @@
         <v>44839</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23041,7 +23046,7 @@
         <v>44840</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23098,7 +23103,7 @@
         <v>44859</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23160,7 +23165,7 @@
         <v>44862</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23217,7 +23222,7 @@
         <v>44868</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23274,7 +23279,7 @@
         <v>44868</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23331,7 +23336,7 @@
         <v>44872</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23388,7 +23393,7 @@
         <v>44872</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23445,7 +23450,7 @@
         <v>44874</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23502,7 +23507,7 @@
         <v>44876</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23559,7 +23564,7 @@
         <v>44876</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23616,7 +23621,7 @@
         <v>44879</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23678,7 +23683,7 @@
         <v>44883</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23735,7 +23740,7 @@
         <v>44886</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23792,7 +23797,7 @@
         <v>44887</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23849,7 +23854,7 @@
         <v>44889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23906,7 +23911,7 @@
         <v>44889</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23963,7 +23968,7 @@
         <v>44889</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24020,7 +24025,7 @@
         <v>44897</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24077,7 +24082,7 @@
         <v>44900</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24139,7 +24144,7 @@
         <v>44902</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24201,7 +24206,7 @@
         <v>44902</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24263,7 +24268,7 @@
         <v>44903</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24325,7 +24330,7 @@
         <v>44907</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24382,7 +24387,7 @@
         <v>44909</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24444,7 +24449,7 @@
         <v>44910</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24506,7 +24511,7 @@
         <v>44916</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24563,7 +24568,7 @@
         <v>44917</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24620,7 +24625,7 @@
         <v>44923</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24677,7 +24682,7 @@
         <v>44943</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24734,7 +24739,7 @@
         <v>44943</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24791,7 +24796,7 @@
         <v>44943</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24848,7 +24853,7 @@
         <v>44946</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24905,7 +24910,7 @@
         <v>44946</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24962,7 +24967,7 @@
         <v>44952</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25019,7 +25024,7 @@
         <v>44957</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25081,7 +25086,7 @@
         <v>44958</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25138,7 +25143,7 @@
         <v>44959</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25195,7 +25200,7 @@
         <v>44961</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25252,7 +25257,7 @@
         <v>44979</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25309,7 +25314,7 @@
         <v>44985</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25366,7 +25371,7 @@
         <v>44986</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25423,7 +25428,7 @@
         <v>45000</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25480,7 +25485,7 @@
         <v>45002</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25537,7 +25542,7 @@
         <v>45002</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25594,7 +25599,7 @@
         <v>45005</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25651,7 +25656,7 @@
         <v>45033</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25708,7 +25713,7 @@
         <v>45033</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25765,7 +25770,7 @@
         <v>45033</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25822,7 +25827,7 @@
         <v>45035</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25879,7 +25884,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25936,7 +25941,7 @@
         <v>45036</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25993,7 +25998,7 @@
         <v>45044</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26050,7 +26055,7 @@
         <v>45051</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26107,7 +26112,7 @@
         <v>45063</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26164,7 +26169,7 @@
         <v>45068</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26226,7 +26231,7 @@
         <v>45070</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26288,7 +26293,7 @@
         <v>45072</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26350,7 +26355,7 @@
         <v>45079</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26407,7 +26412,7 @@
         <v>45079</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26464,7 +26469,7 @@
         <v>45079</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26526,7 +26531,7 @@
         <v>45084</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26583,7 +26588,7 @@
         <v>45086</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26640,7 +26645,7 @@
         <v>45092</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26697,7 +26702,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26759,7 +26764,7 @@
         <v>45102</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26816,7 +26821,7 @@
         <v>45102</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26873,7 +26878,7 @@
         <v>45103</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26930,7 +26935,7 @@
         <v>45103</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26987,7 +26992,7 @@
         <v>45103</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27044,7 +27049,7 @@
         <v>45106</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27101,7 +27106,7 @@
         <v>45111</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27158,7 +27163,7 @@
         <v>45117</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27215,7 +27220,7 @@
         <v>45117</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27272,7 +27277,7 @@
         <v>45118</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27329,7 +27334,7 @@
         <v>45133</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27391,7 +27396,7 @@
         <v>45152</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27448,7 +27453,7 @@
         <v>45167</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27505,7 +27510,7 @@
         <v>45167</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27562,7 +27567,7 @@
         <v>45168</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>

--- a/Översikt OVANÅKER.xlsx
+++ b/Översikt OVANÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>43847</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44819</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>43713</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>44887</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>43713</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>43349</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43521</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>43875</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>44365</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>44379</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44841</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>44957</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>43318</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43349</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>43349</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>43382</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>43392</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>43392</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>43402</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>43403</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
         <v>43409</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>43409</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>43410</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>43412</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         <v>43416</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
         <v>43419</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>43419</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
         <v>43419</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         <v>43424</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>43434</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>43440</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>43440</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>43440</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43440</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3322,7 +3322,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3379,7 +3379,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3436,7 +3436,7 @@
         <v>43451</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3493,7 +3493,7 @@
         <v>43451</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
         <v>43451</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         <v>43451</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         <v>43451</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>43462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43467</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43479</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43480</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43481</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43482</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43486</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43487</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43493</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>43493</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>43503</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>43507</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>43509</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>43515</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>43521</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>43521</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>43525</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43529</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
         <v>43531</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>43539</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>43542</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>43545</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>43551</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>43556</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>43556</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         <v>43556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
         <v>43570</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43571</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>43572</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
         <v>43581</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
         <v>43587</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>43591</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>43601</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>43602</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>43606</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43607</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43608</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43613</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43614</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43614</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43614</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>43616</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>43616</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>43616</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43616</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43616</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43616</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43616</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43616</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43619</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43619</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>43621</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>43621</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>43629</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>43629</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>43640</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>43640</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7454,7 +7454,7 @@
         <v>43641</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>43643</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>43671</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43679</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43682</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>43686</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43689</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>43689</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43690</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>43692</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43692</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43693</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43704</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43705</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43713</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43725</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43725</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43725</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>43726</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43728</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43731</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43731</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43731</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43731</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43731</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43740</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43747</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43749</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43749</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43755</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>43755</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>43766</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>43774</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43780</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>43787</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43790</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43790</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>43790</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>43790</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>43796</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>43802</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43812</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>43817</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         <v>43839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43846</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10106,7 +10106,7 @@
         <v>43846</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43846</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>43846</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43846</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43850</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43852</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>43852</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>43854</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>43854</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>43854</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43854</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>43854</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>43859</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43881</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43886</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>43888</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>43892</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>43893</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>43900</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>43906</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>43907</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>43909</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>43914</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>43914</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>43915</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>43915</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>43916</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>43917</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>43917</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>43917</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>43922</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>43924</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>43924</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>43935</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>43935</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>43937</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>43937</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>43942</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12337,7 +12337,7 @@
         <v>43942</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12399,7 +12399,7 @@
         <v>43945</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12456,7 +12456,7 @@
         <v>43948</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>43950</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>43951</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>43957</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>43962</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>43965</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>43965</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>43969</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>43985</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>43987</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>43987</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43992</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43994</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43999</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>44005</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>44012</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44012</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>44025</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44035</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>44041</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>44041</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>44053</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44053</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>44054</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>44054</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         <v>44054</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>44062</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>44063</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>44067</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>44071</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>44071</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>44074</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>44083</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>44083</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>44089</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>44091</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>44091</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>44096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>44096</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>44102</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>44105</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>44109</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>44109</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>44109</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         <v>44112</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
         <v>44112</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>44112</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>44113</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>44120</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>44125</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>44131</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         <v>44131</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         <v>44131</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15604,7 +15604,7 @@
         <v>44137</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>44145</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>44146</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>44146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>44153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>44159</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15951,7 +15951,7 @@
         <v>44159</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16008,7 +16008,7 @@
         <v>44160</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>44162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>44167</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>44167</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>44167</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>44167</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>44167</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>44167</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>44169</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>44174</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>44183</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>44188</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>44204</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>44222</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>44223</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>44223</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>44231</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>44245</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>44258</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>44258</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>44264</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>44264</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>44264</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>44264</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>44266</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44266</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44270</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44271</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>44277</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17676,7 +17676,7 @@
         <v>44278</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>44279</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>44285</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>44287</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>44298</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>44301</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>44305</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>44310</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44310</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18204,7 +18204,7 @@
         <v>44312</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18266,7 +18266,7 @@
         <v>44314</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44322</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>44328</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44336</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>44371</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>44376</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44379</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44379</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44379</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44379</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>44379</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>44379</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>44379</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>44379</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44384</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>44384</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         <v>44400</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>44435</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19367,7 +19367,7 @@
         <v>44435</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19424,7 +19424,7 @@
         <v>44449</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19481,7 +19481,7 @@
         <v>44475</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19538,7 +19538,7 @@
         <v>44484</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19595,7 +19595,7 @@
         <v>44491</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19652,7 +19652,7 @@
         <v>44494</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19709,7 +19709,7 @@
         <v>44503</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19766,7 +19766,7 @@
         <v>44516</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19823,7 +19823,7 @@
         <v>44517</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19885,7 +19885,7 @@
         <v>44530</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19942,7 +19942,7 @@
         <v>44531</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19999,7 +19999,7 @@
         <v>44571</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         <v>44571</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20118,7 +20118,7 @@
         <v>44581</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20175,7 +20175,7 @@
         <v>44585</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20232,7 +20232,7 @@
         <v>44603</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20289,7 +20289,7 @@
         <v>44607</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20346,7 +20346,7 @@
         <v>44614</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20403,7 +20403,7 @@
         <v>44614</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20460,7 +20460,7 @@
         <v>44614</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20517,7 +20517,7 @@
         <v>44617</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20574,7 +20574,7 @@
         <v>44617</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20631,7 +20631,7 @@
         <v>44617</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
         <v>44621</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>44650</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
         <v>44665</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20859,7 +20859,7 @@
         <v>44698</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20916,7 +20916,7 @@
         <v>44701</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20973,7 +20973,7 @@
         <v>44706</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21035,7 +21035,7 @@
         <v>44715</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21097,7 +21097,7 @@
         <v>44719</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21154,7 +21154,7 @@
         <v>44725</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21216,7 +21216,7 @@
         <v>44729</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>44746</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44746</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44749</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21464,7 +21464,7 @@
         <v>44750</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>44754</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>44757</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>44757</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21707,7 +21707,7 @@
         <v>44760</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>44776</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>44776</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21893,7 +21893,7 @@
         <v>44789</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>44797</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         <v>44798</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22069,7 +22069,7 @@
         <v>44798</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>44799</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>44802</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>44804</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>44811</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22379,7 +22379,7 @@
         <v>44811</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>44811</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>44817</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>44818</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>44819</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>44823</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22746,7 +22746,7 @@
         <v>44823</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22808,7 +22808,7 @@
         <v>44823</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22870,7 +22870,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22932,7 +22932,7 @@
         <v>44830</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22989,7 +22989,7 @@
         <v>44839</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23046,7 +23046,7 @@
         <v>44840</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23103,7 +23103,7 @@
         <v>44859</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>44862</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>44868</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>44868</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23336,7 +23336,7 @@
         <v>44872</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23393,7 +23393,7 @@
         <v>44872</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23450,7 +23450,7 @@
         <v>44874</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23507,7 +23507,7 @@
         <v>44876</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23564,7 +23564,7 @@
         <v>44876</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>44879</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>44883</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>44886</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23797,7 +23797,7 @@
         <v>44887</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23854,7 +23854,7 @@
         <v>44889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23911,7 +23911,7 @@
         <v>44889</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23968,7 +23968,7 @@
         <v>44889</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24025,7 +24025,7 @@
         <v>44897</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>44900</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>44902</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>44902</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>44903</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24330,7 +24330,7 @@
         <v>44907</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24387,7 +24387,7 @@
         <v>44909</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24449,7 +24449,7 @@
         <v>44910</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>44916</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>44917</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>44923</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>44943</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>44943</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44943</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>44946</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44946</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44952</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44957</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>44958</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>44959</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44961</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44979</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>44985</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44986</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>45000</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25485,7 +25485,7 @@
         <v>45002</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>45002</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25599,7 +25599,7 @@
         <v>45005</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25656,7 +25656,7 @@
         <v>45033</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25713,7 +25713,7 @@
         <v>45033</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25770,7 +25770,7 @@
         <v>45033</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25827,7 +25827,7 @@
         <v>45035</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25884,7 +25884,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25941,7 +25941,7 @@
         <v>45036</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25998,7 +25998,7 @@
         <v>45044</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26055,7 +26055,7 @@
         <v>45051</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26112,7 +26112,7 @@
         <v>45063</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45068</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>45070</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>45072</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26355,7 +26355,7 @@
         <v>45079</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>45079</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>45079</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>45084</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26588,7 +26588,7 @@
         <v>45086</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26645,7 +26645,7 @@
         <v>45092</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26764,7 +26764,7 @@
         <v>45102</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26821,7 +26821,7 @@
         <v>45102</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26878,7 +26878,7 @@
         <v>45103</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>45103</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26992,7 +26992,7 @@
         <v>45103</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>45106</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         <v>45111</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         <v>45117</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27220,7 +27220,7 @@
         <v>45117</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27277,7 +27277,7 @@
         <v>45118</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27334,7 +27334,7 @@
         <v>45133</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>45152</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>45167</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>45167</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>45168</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>

--- a/Översikt OVANÅKER.xlsx
+++ b/Översikt OVANÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>43847</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44819</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>43713</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>44887</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>43713</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>43349</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43521</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>43875</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>44365</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>44379</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44841</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>44957</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>43318</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43349</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>43349</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>43382</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>43392</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>43392</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>43402</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>43403</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
         <v>43409</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>43409</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>43410</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>43412</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         <v>43416</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
         <v>43419</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>43419</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
         <v>43419</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         <v>43424</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>43434</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>43440</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>43440</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>43440</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43440</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3322,7 +3322,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3379,7 +3379,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3436,7 +3436,7 @@
         <v>43451</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3493,7 +3493,7 @@
         <v>43451</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
         <v>43451</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         <v>43451</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         <v>43451</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>43462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43467</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43479</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43480</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43481</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43482</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43486</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43487</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43493</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>43493</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>43503</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>43507</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>43509</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>43515</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>43521</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>43521</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>43525</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43529</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
         <v>43531</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>43539</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>43542</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>43545</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>43551</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>43556</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>43556</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         <v>43556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
         <v>43570</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43571</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>43572</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
         <v>43581</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
         <v>43587</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>43591</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>43601</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>43602</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>43606</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43607</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43608</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43613</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43614</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43614</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43614</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>43616</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>43616</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>43616</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43616</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43616</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43616</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43616</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43616</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43619</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43619</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>43621</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>43621</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>43629</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>43629</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>43640</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>43640</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7454,7 +7454,7 @@
         <v>43641</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>43643</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>43671</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43679</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43682</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>43686</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43689</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>43689</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43690</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>43692</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43692</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43693</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43704</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43705</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43713</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43725</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43725</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43725</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>43726</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43728</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43731</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43731</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43731</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43731</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43731</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43740</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43747</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43749</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43749</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43755</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>43755</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>43766</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>43774</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43780</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>43787</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43790</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43790</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>43790</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>43790</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>43796</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>43802</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43812</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>43817</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         <v>43839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43846</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10106,7 +10106,7 @@
         <v>43846</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43846</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>43846</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43846</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43850</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43852</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>43852</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>43854</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>43854</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>43854</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43854</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>43854</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>43859</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43881</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43886</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>43888</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>43892</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>43893</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>43900</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>43906</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>43907</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>43909</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>43914</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>43914</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>43915</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>43915</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>43916</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>43917</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>43917</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>43917</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>43922</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>43924</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>43924</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>43935</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>43935</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>43937</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>43937</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>43942</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12337,7 +12337,7 @@
         <v>43942</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12399,7 +12399,7 @@
         <v>43945</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12456,7 +12456,7 @@
         <v>43948</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>43950</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>43951</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>43957</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>43962</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>43965</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>43965</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>43969</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>43985</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>43987</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>43987</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43992</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43994</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43999</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>44005</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>44012</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44012</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>44025</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44035</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>44041</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>44041</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>44053</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44053</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>44054</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>44054</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         <v>44054</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>44062</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>44063</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>44067</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>44071</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>44071</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>44074</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>44083</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>44083</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>44089</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>44091</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>44091</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>44096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>44096</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>44102</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>44105</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>44109</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>44109</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>44109</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         <v>44112</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
         <v>44112</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>44112</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>44113</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>44120</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>44125</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>44131</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         <v>44131</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         <v>44131</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15604,7 +15604,7 @@
         <v>44137</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>44145</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>44146</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>44146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>44153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>44159</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15951,7 +15951,7 @@
         <v>44159</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16008,7 +16008,7 @@
         <v>44160</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>44162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>44167</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>44167</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>44167</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>44167</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>44167</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>44167</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>44169</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>44174</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>44183</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>44188</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>44204</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>44222</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>44223</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>44223</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>44231</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>44245</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>44258</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>44258</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>44264</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>44264</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>44264</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>44264</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>44266</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44266</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44270</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44271</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>44277</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17676,7 +17676,7 @@
         <v>44278</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>44279</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>44285</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>44287</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>44298</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>44301</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>44305</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>44310</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44310</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18204,7 +18204,7 @@
         <v>44312</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18266,7 +18266,7 @@
         <v>44314</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44322</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>44328</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44336</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>44371</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>44376</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44379</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44379</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44379</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44379</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>44379</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>44379</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>44379</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>44379</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44384</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>44384</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         <v>44400</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>44435</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19367,7 +19367,7 @@
         <v>44435</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19424,7 +19424,7 @@
         <v>44449</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19481,7 +19481,7 @@
         <v>44475</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19538,7 +19538,7 @@
         <v>44484</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19595,7 +19595,7 @@
         <v>44491</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19652,7 +19652,7 @@
         <v>44494</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19709,7 +19709,7 @@
         <v>44503</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19766,7 +19766,7 @@
         <v>44516</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19823,7 +19823,7 @@
         <v>44517</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19885,7 +19885,7 @@
         <v>44530</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19942,7 +19942,7 @@
         <v>44531</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19999,7 +19999,7 @@
         <v>44571</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         <v>44571</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20118,7 +20118,7 @@
         <v>44581</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20175,7 +20175,7 @@
         <v>44585</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20232,7 +20232,7 @@
         <v>44603</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20289,7 +20289,7 @@
         <v>44607</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20346,7 +20346,7 @@
         <v>44614</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20403,7 +20403,7 @@
         <v>44614</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20460,7 +20460,7 @@
         <v>44614</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20517,7 +20517,7 @@
         <v>44617</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20574,7 +20574,7 @@
         <v>44617</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20631,7 +20631,7 @@
         <v>44617</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
         <v>44621</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>44650</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
         <v>44665</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20859,7 +20859,7 @@
         <v>44698</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20916,7 +20916,7 @@
         <v>44701</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20973,7 +20973,7 @@
         <v>44706</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21035,7 +21035,7 @@
         <v>44715</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21097,7 +21097,7 @@
         <v>44719</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21154,7 +21154,7 @@
         <v>44725</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21216,7 +21216,7 @@
         <v>44729</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>44746</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44746</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44749</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21464,7 +21464,7 @@
         <v>44750</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>44754</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>44757</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>44757</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21707,7 +21707,7 @@
         <v>44760</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>44776</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>44776</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21893,7 +21893,7 @@
         <v>44789</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>44797</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         <v>44798</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22069,7 +22069,7 @@
         <v>44798</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>44799</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>44802</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>44804</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>44811</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22379,7 +22379,7 @@
         <v>44811</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>44811</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>44817</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>44818</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>44819</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>44823</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22746,7 +22746,7 @@
         <v>44823</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22808,7 +22808,7 @@
         <v>44823</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22870,7 +22870,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22932,7 +22932,7 @@
         <v>44830</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22989,7 +22989,7 @@
         <v>44839</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23046,7 +23046,7 @@
         <v>44840</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23103,7 +23103,7 @@
         <v>44859</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>44862</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>44868</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>44868</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23336,7 +23336,7 @@
         <v>44872</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23393,7 +23393,7 @@
         <v>44872</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23450,7 +23450,7 @@
         <v>44874</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23507,7 +23507,7 @@
         <v>44876</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23564,7 +23564,7 @@
         <v>44876</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>44879</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>44883</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>44886</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23797,7 +23797,7 @@
         <v>44887</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23854,7 +23854,7 @@
         <v>44889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23911,7 +23911,7 @@
         <v>44889</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23968,7 +23968,7 @@
         <v>44889</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24025,7 +24025,7 @@
         <v>44897</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>44900</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>44902</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>44902</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>44903</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24330,7 +24330,7 @@
         <v>44907</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24387,7 +24387,7 @@
         <v>44909</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24449,7 +24449,7 @@
         <v>44910</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>44916</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>44917</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>44923</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>44943</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>44943</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44943</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>44946</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44946</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44952</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44957</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>44958</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>44959</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44961</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44979</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>44985</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44986</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>45000</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25485,7 +25485,7 @@
         <v>45002</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>45002</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25599,7 +25599,7 @@
         <v>45005</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25656,7 +25656,7 @@
         <v>45033</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25713,7 +25713,7 @@
         <v>45033</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25770,7 +25770,7 @@
         <v>45033</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25827,7 +25827,7 @@
         <v>45035</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25884,7 +25884,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25941,7 +25941,7 @@
         <v>45036</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25998,7 +25998,7 @@
         <v>45044</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26055,7 +26055,7 @@
         <v>45051</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26112,7 +26112,7 @@
         <v>45063</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45068</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>45070</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>45072</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26355,7 +26355,7 @@
         <v>45079</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>45079</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>45079</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>45084</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26588,7 +26588,7 @@
         <v>45086</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26645,7 +26645,7 @@
         <v>45092</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26764,7 +26764,7 @@
         <v>45102</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26821,7 +26821,7 @@
         <v>45102</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26878,7 +26878,7 @@
         <v>45103</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>45103</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26992,7 +26992,7 @@
         <v>45103</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>45106</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         <v>45111</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         <v>45117</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27220,7 +27220,7 @@
         <v>45117</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27277,7 +27277,7 @@
         <v>45118</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27334,7 +27334,7 @@
         <v>45133</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>45152</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>45167</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>45167</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>45168</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>

--- a/Översikt OVANÅKER.xlsx
+++ b/Översikt OVANÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>43847</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44819</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>43713</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>44887</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>43713</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>43349</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43521</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>43875</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>44365</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>44379</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44841</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>44957</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>43318</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43349</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>43349</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>43382</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>43392</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>43392</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>43402</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>43403</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
         <v>43409</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>43409</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>43410</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>43412</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         <v>43416</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
         <v>43419</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>43419</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
         <v>43419</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         <v>43424</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>43434</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>43440</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>43440</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>43440</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43440</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3322,7 +3322,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3379,7 +3379,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3436,7 +3436,7 @@
         <v>43451</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3493,7 +3493,7 @@
         <v>43451</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
         <v>43451</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         <v>43451</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         <v>43451</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>43462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43467</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43479</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43480</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43481</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43482</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43486</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43487</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43493</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>43493</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>43503</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>43507</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>43509</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>43515</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>43521</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>43521</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>43525</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43529</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
         <v>43531</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>43539</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>43542</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>43545</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>43551</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>43556</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>43556</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         <v>43556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
         <v>43570</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43571</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>43572</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
         <v>43581</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
         <v>43587</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>43591</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>43601</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>43602</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>43606</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43607</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43608</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43613</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43614</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43614</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43614</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>43616</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>43616</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>43616</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43616</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43616</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43616</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43616</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43616</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43619</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43619</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>43621</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>43621</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>43629</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>43629</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>43640</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>43640</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7454,7 +7454,7 @@
         <v>43641</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>43643</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>43671</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43679</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43682</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>43686</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43689</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>43689</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43690</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>43692</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43692</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43693</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43704</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43705</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43713</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43725</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43725</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43725</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>43726</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43728</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43731</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43731</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43731</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43731</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43731</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43740</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43747</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43749</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43749</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43755</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>43755</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>43766</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>43774</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43780</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>43787</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43790</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43790</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>43790</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>43790</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>43796</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>43802</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43812</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>43817</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         <v>43839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43846</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10106,7 +10106,7 @@
         <v>43846</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43846</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>43846</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43846</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43850</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43852</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>43852</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>43854</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>43854</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>43854</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43854</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>43854</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>43859</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43881</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43886</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>43888</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>43892</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>43893</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>43900</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>43906</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>43907</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>43909</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>43914</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>43914</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>43915</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>43915</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>43916</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>43917</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>43917</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>43917</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>43922</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>43924</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>43924</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>43935</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>43935</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>43937</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>43937</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>43942</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12337,7 +12337,7 @@
         <v>43942</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12399,7 +12399,7 @@
         <v>43945</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12456,7 +12456,7 @@
         <v>43948</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>43950</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>43951</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>43957</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>43962</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>43965</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>43965</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>43969</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>43985</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>43987</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>43987</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43992</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43994</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43999</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>44005</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>44012</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44012</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>44025</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44035</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>44041</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>44041</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>44053</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44053</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>44054</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>44054</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         <v>44054</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>44062</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>44063</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>44067</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>44071</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>44071</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>44074</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>44083</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>44083</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>44089</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>44091</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>44091</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>44096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>44096</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>44102</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>44105</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>44109</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>44109</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>44109</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         <v>44112</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
         <v>44112</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>44112</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>44113</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>44120</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>44125</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>44131</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         <v>44131</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         <v>44131</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15604,7 +15604,7 @@
         <v>44137</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>44145</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>44146</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>44146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>44153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>44159</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15951,7 +15951,7 @@
         <v>44159</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16008,7 +16008,7 @@
         <v>44160</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>44162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>44167</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>44167</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>44167</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>44167</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>44167</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>44167</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>44169</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>44174</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>44183</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>44188</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>44204</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>44222</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>44223</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>44223</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>44231</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>44245</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>44258</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>44258</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>44264</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>44264</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>44264</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>44264</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>44266</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44266</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44270</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44271</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>44277</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17676,7 +17676,7 @@
         <v>44278</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>44279</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>44285</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>44287</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>44298</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>44301</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>44305</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>44310</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44310</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18204,7 +18204,7 @@
         <v>44312</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18266,7 +18266,7 @@
         <v>44314</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44322</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>44328</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44336</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>44371</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>44376</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44379</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44379</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44379</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44379</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>44379</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>44379</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>44379</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>44379</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44384</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>44384</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         <v>44400</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>44435</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19367,7 +19367,7 @@
         <v>44435</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19424,7 +19424,7 @@
         <v>44449</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19481,7 +19481,7 @@
         <v>44475</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19538,7 +19538,7 @@
         <v>44484</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19595,7 +19595,7 @@
         <v>44491</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19652,7 +19652,7 @@
         <v>44494</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19709,7 +19709,7 @@
         <v>44503</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19766,7 +19766,7 @@
         <v>44516</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19823,7 +19823,7 @@
         <v>44517</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19885,7 +19885,7 @@
         <v>44530</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19942,7 +19942,7 @@
         <v>44531</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19999,7 +19999,7 @@
         <v>44571</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         <v>44571</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20118,7 +20118,7 @@
         <v>44581</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20175,7 +20175,7 @@
         <v>44585</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20232,7 +20232,7 @@
         <v>44603</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20289,7 +20289,7 @@
         <v>44607</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20346,7 +20346,7 @@
         <v>44614</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20403,7 +20403,7 @@
         <v>44614</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20460,7 +20460,7 @@
         <v>44614</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20517,7 +20517,7 @@
         <v>44617</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20574,7 +20574,7 @@
         <v>44617</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20631,7 +20631,7 @@
         <v>44617</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
         <v>44621</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>44650</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
         <v>44665</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20859,7 +20859,7 @@
         <v>44698</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20916,7 +20916,7 @@
         <v>44701</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20973,7 +20973,7 @@
         <v>44706</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21035,7 +21035,7 @@
         <v>44715</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21097,7 +21097,7 @@
         <v>44719</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21154,7 +21154,7 @@
         <v>44725</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21216,7 +21216,7 @@
         <v>44729</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>44746</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44746</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44749</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21464,7 +21464,7 @@
         <v>44750</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>44754</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>44757</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>44757</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21707,7 +21707,7 @@
         <v>44760</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>44776</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>44776</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21893,7 +21893,7 @@
         <v>44789</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>44797</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         <v>44798</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22069,7 +22069,7 @@
         <v>44798</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>44799</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>44802</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>44804</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>44811</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22379,7 +22379,7 @@
         <v>44811</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>44811</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>44817</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>44818</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>44819</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>44823</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22746,7 +22746,7 @@
         <v>44823</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22808,7 +22808,7 @@
         <v>44823</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22870,7 +22870,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22932,7 +22932,7 @@
         <v>44830</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22989,7 +22989,7 @@
         <v>44839</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23046,7 +23046,7 @@
         <v>44840</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23103,7 +23103,7 @@
         <v>44859</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>44862</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>44868</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>44868</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23336,7 +23336,7 @@
         <v>44872</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23393,7 +23393,7 @@
         <v>44872</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23450,7 +23450,7 @@
         <v>44874</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23507,7 +23507,7 @@
         <v>44876</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23564,7 +23564,7 @@
         <v>44876</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>44879</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>44883</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>44886</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23797,7 +23797,7 @@
         <v>44887</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23854,7 +23854,7 @@
         <v>44889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23911,7 +23911,7 @@
         <v>44889</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23968,7 +23968,7 @@
         <v>44889</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24025,7 +24025,7 @@
         <v>44897</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>44900</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>44902</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>44902</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>44903</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24330,7 +24330,7 @@
         <v>44907</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24387,7 +24387,7 @@
         <v>44909</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24449,7 +24449,7 @@
         <v>44910</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>44916</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>44917</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>44923</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>44943</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>44943</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44943</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>44946</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44946</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44952</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44957</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>44958</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>44959</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44961</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44979</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>44985</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44986</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>45000</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25485,7 +25485,7 @@
         <v>45002</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>45002</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25599,7 +25599,7 @@
         <v>45005</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25656,7 +25656,7 @@
         <v>45033</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25713,7 +25713,7 @@
         <v>45033</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25770,7 +25770,7 @@
         <v>45033</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25827,7 +25827,7 @@
         <v>45035</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25884,7 +25884,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25941,7 +25941,7 @@
         <v>45036</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25998,7 +25998,7 @@
         <v>45044</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26055,7 +26055,7 @@
         <v>45051</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26112,7 +26112,7 @@
         <v>45063</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45068</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>45070</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>45072</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26355,7 +26355,7 @@
         <v>45079</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>45079</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>45079</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>45084</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26588,7 +26588,7 @@
         <v>45086</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26645,7 +26645,7 @@
         <v>45092</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26764,7 +26764,7 @@
         <v>45102</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26821,7 +26821,7 @@
         <v>45102</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26878,7 +26878,7 @@
         <v>45103</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>45103</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26992,7 +26992,7 @@
         <v>45103</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>45106</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         <v>45111</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         <v>45117</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27220,7 +27220,7 @@
         <v>45117</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27277,7 +27277,7 @@
         <v>45118</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27334,7 +27334,7 @@
         <v>45133</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>45152</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>45167</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>45167</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>45168</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>

--- a/Översikt OVANÅKER.xlsx
+++ b/Översikt OVANÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>43847</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44819</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>43713</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>44887</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>43713</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>43349</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43521</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>43875</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>44365</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>44379</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44841</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>44957</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>43318</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43349</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>43349</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>43382</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>43392</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>43392</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>43402</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>43403</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
         <v>43409</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>43409</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>43410</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>43412</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         <v>43416</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
         <v>43419</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>43419</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
         <v>43419</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         <v>43424</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>43434</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>43440</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>43440</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>43440</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43440</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3322,7 +3322,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3379,7 +3379,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3436,7 +3436,7 @@
         <v>43451</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3493,7 +3493,7 @@
         <v>43451</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
         <v>43451</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         <v>43451</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         <v>43451</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>43462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43467</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43479</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43480</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43481</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43482</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43486</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43487</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43493</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>43493</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>43503</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>43507</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>43509</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>43515</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>43521</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>43521</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>43525</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43529</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
         <v>43531</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>43539</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>43542</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>43545</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>43551</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>43556</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>43556</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         <v>43556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
         <v>43570</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43571</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>43572</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
         <v>43581</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
         <v>43587</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>43591</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>43601</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>43602</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>43606</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43607</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43608</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43613</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43614</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43614</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43614</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>43616</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>43616</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>43616</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43616</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43616</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43616</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43616</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43616</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43619</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43619</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>43621</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>43621</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>43629</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>43629</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>43640</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>43640</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7454,7 +7454,7 @@
         <v>43641</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>43643</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>43671</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43679</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43682</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>43686</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43689</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>43689</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43690</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>43692</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43692</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43693</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43704</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43705</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43713</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43725</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43725</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43725</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>43726</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43728</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43731</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43731</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43731</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43731</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43731</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43740</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43747</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43749</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43749</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43755</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>43755</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>43766</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>43774</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43780</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>43787</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43790</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43790</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>43790</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>43790</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>43796</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>43802</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43812</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>43817</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         <v>43839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43846</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10106,7 +10106,7 @@
         <v>43846</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43846</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>43846</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43846</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43850</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43852</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>43852</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>43854</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>43854</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>43854</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43854</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>43854</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>43859</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43881</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43886</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>43888</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>43892</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>43893</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>43900</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>43906</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>43907</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>43909</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>43914</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>43914</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>43915</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>43915</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>43916</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>43917</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>43917</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>43917</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>43922</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>43924</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>43924</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>43935</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>43935</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>43937</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>43937</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>43942</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12337,7 +12337,7 @@
         <v>43942</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12399,7 +12399,7 @@
         <v>43945</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12456,7 +12456,7 @@
         <v>43948</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>43950</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>43951</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>43957</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>43962</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>43965</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>43965</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>43969</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>43985</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>43987</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>43987</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43992</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43994</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43999</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>44005</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>44012</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44012</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>44025</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44035</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>44041</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>44041</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>44053</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44053</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>44054</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>44054</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         <v>44054</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>44062</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>44063</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>44067</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>44071</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>44071</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>44074</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>44083</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>44083</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>44089</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>44091</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>44091</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>44096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>44096</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>44102</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>44105</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>44109</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>44109</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>44109</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         <v>44112</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
         <v>44112</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>44112</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>44113</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>44120</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>44125</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>44131</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         <v>44131</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         <v>44131</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15604,7 +15604,7 @@
         <v>44137</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>44145</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>44146</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>44146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>44153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>44159</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15951,7 +15951,7 @@
         <v>44159</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16008,7 +16008,7 @@
         <v>44160</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>44162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>44167</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>44167</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>44167</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>44167</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>44167</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>44167</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>44169</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>44174</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>44183</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>44188</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>44204</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>44222</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>44223</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>44223</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>44231</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>44245</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>44258</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>44258</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>44264</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>44264</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>44264</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>44264</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>44266</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44266</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44270</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44271</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>44277</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17676,7 +17676,7 @@
         <v>44278</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>44279</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>44285</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>44287</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>44298</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>44301</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>44305</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>44310</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44310</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18204,7 +18204,7 @@
         <v>44312</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18266,7 +18266,7 @@
         <v>44314</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44322</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>44328</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44336</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>44371</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>44376</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44379</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44379</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44379</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44379</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>44379</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>44379</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>44379</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>44379</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44384</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>44384</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         <v>44400</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>44435</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19367,7 +19367,7 @@
         <v>44435</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19424,7 +19424,7 @@
         <v>44449</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19481,7 +19481,7 @@
         <v>44475</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19538,7 +19538,7 @@
         <v>44484</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19595,7 +19595,7 @@
         <v>44491</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19652,7 +19652,7 @@
         <v>44494</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19709,7 +19709,7 @@
         <v>44503</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19766,7 +19766,7 @@
         <v>44516</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19823,7 +19823,7 @@
         <v>44517</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19885,7 +19885,7 @@
         <v>44530</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19942,7 +19942,7 @@
         <v>44531</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19999,7 +19999,7 @@
         <v>44571</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         <v>44571</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20118,7 +20118,7 @@
         <v>44581</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20175,7 +20175,7 @@
         <v>44585</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20232,7 +20232,7 @@
         <v>44603</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20289,7 +20289,7 @@
         <v>44607</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20346,7 +20346,7 @@
         <v>44614</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20403,7 +20403,7 @@
         <v>44614</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20460,7 +20460,7 @@
         <v>44614</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20517,7 +20517,7 @@
         <v>44617</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20574,7 +20574,7 @@
         <v>44617</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20631,7 +20631,7 @@
         <v>44617</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
         <v>44621</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>44650</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
         <v>44665</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20859,7 +20859,7 @@
         <v>44698</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20916,7 +20916,7 @@
         <v>44701</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20973,7 +20973,7 @@
         <v>44706</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21035,7 +21035,7 @@
         <v>44715</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21097,7 +21097,7 @@
         <v>44719</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21154,7 +21154,7 @@
         <v>44725</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21216,7 +21216,7 @@
         <v>44729</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>44746</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44746</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44749</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21464,7 +21464,7 @@
         <v>44750</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>44754</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>44757</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>44757</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21707,7 +21707,7 @@
         <v>44760</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>44776</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>44776</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21893,7 +21893,7 @@
         <v>44789</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>44797</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         <v>44798</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22069,7 +22069,7 @@
         <v>44798</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>44799</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>44802</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>44804</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>44811</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22379,7 +22379,7 @@
         <v>44811</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>44811</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>44817</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>44818</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>44819</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>44823</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22746,7 +22746,7 @@
         <v>44823</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22808,7 +22808,7 @@
         <v>44823</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22870,7 +22870,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22932,7 +22932,7 @@
         <v>44830</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22989,7 +22989,7 @@
         <v>44839</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23046,7 +23046,7 @@
         <v>44840</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23103,7 +23103,7 @@
         <v>44859</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>44862</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>44868</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>44868</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23336,7 +23336,7 @@
         <v>44872</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23393,7 +23393,7 @@
         <v>44872</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23450,7 +23450,7 @@
         <v>44874</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23507,7 +23507,7 @@
         <v>44876</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23564,7 +23564,7 @@
         <v>44876</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>44879</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>44883</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>44886</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23797,7 +23797,7 @@
         <v>44887</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23854,7 +23854,7 @@
         <v>44889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23911,7 +23911,7 @@
         <v>44889</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23968,7 +23968,7 @@
         <v>44889</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24025,7 +24025,7 @@
         <v>44897</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>44900</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>44902</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>44902</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>44903</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24330,7 +24330,7 @@
         <v>44907</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24387,7 +24387,7 @@
         <v>44909</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24449,7 +24449,7 @@
         <v>44910</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>44916</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>44917</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>44923</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>44943</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>44943</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44943</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>44946</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44946</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44952</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44957</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>44958</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>44959</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44961</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44979</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>44985</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44986</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>45000</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25485,7 +25485,7 @@
         <v>45002</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>45002</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25599,7 +25599,7 @@
         <v>45005</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25656,7 +25656,7 @@
         <v>45033</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25713,7 +25713,7 @@
         <v>45033</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25770,7 +25770,7 @@
         <v>45033</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25827,7 +25827,7 @@
         <v>45035</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25884,7 +25884,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25941,7 +25941,7 @@
         <v>45036</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25998,7 +25998,7 @@
         <v>45044</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26055,7 +26055,7 @@
         <v>45051</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26112,7 +26112,7 @@
         <v>45063</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45068</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>45070</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>45072</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26355,7 +26355,7 @@
         <v>45079</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>45079</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>45079</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>45084</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26588,7 +26588,7 @@
         <v>45086</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26645,7 +26645,7 @@
         <v>45092</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26764,7 +26764,7 @@
         <v>45102</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26821,7 +26821,7 @@
         <v>45102</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26878,7 +26878,7 @@
         <v>45103</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>45103</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26992,7 +26992,7 @@
         <v>45103</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>45106</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         <v>45111</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         <v>45117</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27220,7 +27220,7 @@
         <v>45117</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27277,7 +27277,7 @@
         <v>45118</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27334,7 +27334,7 @@
         <v>45133</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>45152</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>45167</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>45167</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>45168</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>

--- a/Översikt OVANÅKER.xlsx
+++ b/Översikt OVANÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>43847</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -636,31 +636,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/artfynd/A 2508-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/artfynd/A 2508-2020.xlsx", "A 2508-2020")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/kartor/A 2508-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/kartor/A 2508-2020.png", "A 2508-2020")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/knärot/A 2508-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/knärot/A 2508-2020.png", "A 2508-2020")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomål/A 2508-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomål/A 2508-2020.docx", "A 2508-2020")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomålsmail/A 2508-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomålsmail/A 2508-2020.docx", "A 2508-2020")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsyn/A 2508-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsyn/A 2508-2020.docx", "A 2508-2020")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsynsmail/A 2508-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsynsmail/A 2508-2020.docx", "A 2508-2020")</f>
         <v/>
       </c>
     </row>
@@ -674,7 +674,7 @@
         <v>44819</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -733,27 +733,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/artfynd/A 39905-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/artfynd/A 39905-2022.xlsx", "A 39905-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/kartor/A 39905-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/kartor/A 39905-2022.png", "A 39905-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomål/A 39905-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomål/A 39905-2022.docx", "A 39905-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomålsmail/A 39905-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomålsmail/A 39905-2022.docx", "A 39905-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsyn/A 39905-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsyn/A 39905-2022.docx", "A 39905-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsynsmail/A 39905-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsynsmail/A 39905-2022.docx", "A 39905-2022")</f>
         <v/>
       </c>
     </row>
@@ -767,7 +767,7 @@
         <v>43713</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -827,31 +827,31 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/artfynd/A 45009-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/artfynd/A 45009-2019.xlsx", "A 45009-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/kartor/A 45009-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/kartor/A 45009-2019.png", "A 45009-2019")</f>
         <v/>
       </c>
       <c r="U4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/knärot/A 45009-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/knärot/A 45009-2019.png", "A 45009-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomål/A 45009-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomål/A 45009-2019.docx", "A 45009-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomålsmail/A 45009-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomålsmail/A 45009-2019.docx", "A 45009-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsyn/A 45009-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsyn/A 45009-2019.docx", "A 45009-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsynsmail/A 45009-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsynsmail/A 45009-2019.docx", "A 45009-2019")</f>
         <v/>
       </c>
     </row>
@@ -865,7 +865,7 @@
         <v>44887</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,27 +919,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/artfynd/A 55473-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/artfynd/A 55473-2022.xlsx", "A 55473-2022")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/kartor/A 55473-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/kartor/A 55473-2022.png", "A 55473-2022")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomål/A 55473-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomål/A 55473-2022.docx", "A 55473-2022")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomålsmail/A 55473-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomålsmail/A 55473-2022.docx", "A 55473-2022")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsyn/A 55473-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsyn/A 55473-2022.docx", "A 55473-2022")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsynsmail/A 55473-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsynsmail/A 55473-2022.docx", "A 55473-2022")</f>
         <v/>
       </c>
     </row>
@@ -953,7 +953,7 @@
         <v>43713</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,27 +1010,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/artfynd/A 45004-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/artfynd/A 45004-2019.xlsx", "A 45004-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/kartor/A 45004-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/kartor/A 45004-2019.png", "A 45004-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomål/A 45004-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomål/A 45004-2019.docx", "A 45004-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomålsmail/A 45004-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomålsmail/A 45004-2019.docx", "A 45004-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsyn/A 45004-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsyn/A 45004-2019.docx", "A 45004-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsynsmail/A 45004-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsynsmail/A 45004-2019.docx", "A 45004-2019")</f>
         <v/>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
         <v>43349</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,27 +1095,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/artfynd/A 42220-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/artfynd/A 42220-2018.xlsx", "A 42220-2018")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/kartor/A 42220-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/kartor/A 42220-2018.png", "A 42220-2018")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomål/A 42220-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomål/A 42220-2018.docx", "A 42220-2018")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomålsmail/A 42220-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomålsmail/A 42220-2018.docx", "A 42220-2018")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsyn/A 42220-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsyn/A 42220-2018.docx", "A 42220-2018")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsynsmail/A 42220-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsynsmail/A 42220-2018.docx", "A 42220-2018")</f>
         <v/>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
         <v>43521</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,27 +1180,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/artfynd/A 11884-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/artfynd/A 11884-2019.xlsx", "A 11884-2019")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/kartor/A 11884-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/kartor/A 11884-2019.png", "A 11884-2019")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomål/A 11884-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomål/A 11884-2019.docx", "A 11884-2019")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomålsmail/A 11884-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomålsmail/A 11884-2019.docx", "A 11884-2019")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsyn/A 11884-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsyn/A 11884-2019.docx", "A 11884-2019")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsynsmail/A 11884-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsynsmail/A 11884-2019.docx", "A 11884-2019")</f>
         <v/>
       </c>
     </row>
@@ -1214,7 +1214,7 @@
         <v>43875</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,27 +1265,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/artfynd/A 8361-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/artfynd/A 8361-2020.xlsx", "A 8361-2020")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/kartor/A 8361-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/kartor/A 8361-2020.png", "A 8361-2020")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomål/A 8361-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomål/A 8361-2020.docx", "A 8361-2020")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomålsmail/A 8361-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomålsmail/A 8361-2020.docx", "A 8361-2020")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsyn/A 8361-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsyn/A 8361-2020.docx", "A 8361-2020")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsynsmail/A 8361-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsynsmail/A 8361-2020.docx", "A 8361-2020")</f>
         <v/>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
         <v>44365</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1355,27 +1355,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/artfynd/A 30954-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/artfynd/A 30954-2021.xlsx", "A 30954-2021")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/kartor/A 30954-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/kartor/A 30954-2021.png", "A 30954-2021")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomål/A 30954-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomål/A 30954-2021.docx", "A 30954-2021")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomålsmail/A 30954-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomålsmail/A 30954-2021.docx", "A 30954-2021")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsyn/A 30954-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsyn/A 30954-2021.docx", "A 30954-2021")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsynsmail/A 30954-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsynsmail/A 30954-2021.docx", "A 30954-2021")</f>
         <v/>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
         <v>44379</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,27 +1445,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/artfynd/A 34219-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/artfynd/A 34219-2021.xlsx", "A 34219-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/kartor/A 34219-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/kartor/A 34219-2021.png", "A 34219-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomål/A 34219-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomål/A 34219-2021.docx", "A 34219-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomålsmail/A 34219-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomålsmail/A 34219-2021.docx", "A 34219-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsyn/A 34219-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsyn/A 34219-2021.docx", "A 34219-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsynsmail/A 34219-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsynsmail/A 34219-2021.docx", "A 34219-2021")</f>
         <v/>
       </c>
     </row>
@@ -1479,7 +1479,7 @@
         <v>44841</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1535,27 +1535,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/artfynd/A 45007-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/artfynd/A 45007-2022.xlsx", "A 45007-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/kartor/A 45007-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/kartor/A 45007-2022.png", "A 45007-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomål/A 45007-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomål/A 45007-2022.docx", "A 45007-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomålsmail/A 45007-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomålsmail/A 45007-2022.docx", "A 45007-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsyn/A 45007-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsyn/A 45007-2022.docx", "A 45007-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsynsmail/A 45007-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsynsmail/A 45007-2022.docx", "A 45007-2022")</f>
         <v/>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
         <v>44957</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1620,27 +1620,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/artfynd/A 4827-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/artfynd/A 4827-2023.xlsx", "A 4827-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/kartor/A 4827-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/kartor/A 4827-2023.png", "A 4827-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomål/A 4827-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomål/A 4827-2023.docx", "A 4827-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomålsmail/A 4827-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomålsmail/A 4827-2023.docx", "A 4827-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsyn/A 4827-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsyn/A 4827-2023.docx", "A 4827-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsynsmail/A 4827-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsynsmail/A 4827-2023.docx", "A 4827-2023")</f>
         <v/>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
         <v>43318</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43349</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>43349</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>43382</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>43392</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>43392</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>43402</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>43403</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
         <v>43409</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>43409</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>43410</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>43412</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         <v>43416</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
         <v>43419</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>43419</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
         <v>43419</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         <v>43424</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>43434</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>43440</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>43440</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>43440</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43440</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3322,7 +3322,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3379,7 +3379,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3436,7 +3436,7 @@
         <v>43451</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3493,7 +3493,7 @@
         <v>43451</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
         <v>43451</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         <v>43451</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         <v>43451</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>43462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43467</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43479</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43480</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43481</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43482</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43486</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43487</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43493</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>43493</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>43503</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>43507</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>43509</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>43515</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>43521</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>43521</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>43525</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43529</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
         <v>43531</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>43539</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>43542</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>43545</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>43551</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>43556</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>43556</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         <v>43556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
         <v>43570</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43571</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>43572</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
         <v>43581</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
         <v>43587</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>43591</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>43601</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>43602</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>43606</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43607</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43608</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43613</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43614</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43614</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43614</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>43616</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>43616</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>43616</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43616</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43616</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43616</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43616</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43616</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43619</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43619</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>43621</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>43621</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>43629</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>43629</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>43640</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>43640</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7454,7 +7454,7 @@
         <v>43641</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>43643</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>43671</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43679</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43682</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>43686</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43689</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>43689</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43690</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>43692</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43692</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43693</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43704</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43705</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43713</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43725</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43725</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43725</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>43726</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43728</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43731</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43731</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43731</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43731</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43731</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43740</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43747</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43749</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43749</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43755</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>43755</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>43766</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>43774</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43780</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>43787</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43790</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43790</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>43790</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>43790</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>43796</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>43802</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43812</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>43817</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         <v>43839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43846</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10106,7 +10106,7 @@
         <v>43846</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43846</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>43846</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43846</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43850</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43852</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>43852</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>43854</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>43854</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>43854</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43854</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>43854</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>43859</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43881</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43886</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>43888</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>43892</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>43893</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>43900</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>43906</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>43907</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>43909</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>43914</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>43914</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>43915</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>43915</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>43916</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>43917</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>43917</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>43917</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>43922</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>43924</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>43924</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>43935</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>43935</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>43937</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>43937</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>43942</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12337,7 +12337,7 @@
         <v>43942</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12399,7 +12399,7 @@
         <v>43945</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12456,7 +12456,7 @@
         <v>43948</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>43950</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>43951</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>43957</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>43962</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>43965</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>43965</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>43969</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>43985</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>43987</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>43987</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43992</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43994</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43999</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>44005</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>44012</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44012</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>44025</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44035</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>44041</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>44041</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>44053</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44053</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>44054</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>44054</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         <v>44054</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>44062</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>44063</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>44067</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>44071</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>44071</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>44074</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>44083</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>44083</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>44089</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>44091</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>44091</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>44096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>44096</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>44102</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>44105</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>44109</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>44109</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>44109</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         <v>44112</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
         <v>44112</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>44112</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>44113</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>44120</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>44125</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>44131</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         <v>44131</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         <v>44131</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15604,7 +15604,7 @@
         <v>44137</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>44145</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>44146</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>44146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>44153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>44159</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15951,7 +15951,7 @@
         <v>44159</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16008,7 +16008,7 @@
         <v>44160</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>44162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>44167</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>44167</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>44167</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>44167</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>44167</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>44167</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>44169</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>44174</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>44183</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>44188</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>44204</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>44222</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>44223</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>44223</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>44231</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>44245</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>44258</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>44258</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>44264</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>44264</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>44264</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>44264</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>44266</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44266</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44270</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44271</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>44277</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17676,7 +17676,7 @@
         <v>44278</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>44279</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>44285</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>44287</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>44298</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>44301</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>44305</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>44310</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44310</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18204,7 +18204,7 @@
         <v>44312</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18266,7 +18266,7 @@
         <v>44314</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44322</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>44328</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44336</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>44371</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>44376</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44379</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44379</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44379</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44379</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>44379</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>44379</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>44379</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>44379</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44384</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>44384</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         <v>44400</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>44435</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19367,7 +19367,7 @@
         <v>44435</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19424,7 +19424,7 @@
         <v>44449</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19481,7 +19481,7 @@
         <v>44475</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19538,7 +19538,7 @@
         <v>44484</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19595,7 +19595,7 @@
         <v>44491</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19652,7 +19652,7 @@
         <v>44494</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19709,7 +19709,7 @@
         <v>44503</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19766,7 +19766,7 @@
         <v>44516</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19823,7 +19823,7 @@
         <v>44517</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19885,7 +19885,7 @@
         <v>44530</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19942,7 +19942,7 @@
         <v>44531</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19999,7 +19999,7 @@
         <v>44571</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         <v>44571</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20118,7 +20118,7 @@
         <v>44581</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20175,7 +20175,7 @@
         <v>44585</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20232,7 +20232,7 @@
         <v>44603</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20289,7 +20289,7 @@
         <v>44607</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20346,7 +20346,7 @@
         <v>44614</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20403,7 +20403,7 @@
         <v>44614</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20460,7 +20460,7 @@
         <v>44614</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20517,7 +20517,7 @@
         <v>44617</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20574,7 +20574,7 @@
         <v>44617</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20631,7 +20631,7 @@
         <v>44617</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
         <v>44621</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>44650</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
         <v>44665</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20859,7 +20859,7 @@
         <v>44698</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20916,7 +20916,7 @@
         <v>44701</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20973,7 +20973,7 @@
         <v>44706</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21035,7 +21035,7 @@
         <v>44715</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21097,7 +21097,7 @@
         <v>44719</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21154,7 +21154,7 @@
         <v>44725</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21216,7 +21216,7 @@
         <v>44729</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>44746</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44746</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44749</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21464,7 +21464,7 @@
         <v>44750</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>44754</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>44757</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>44757</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21707,7 +21707,7 @@
         <v>44760</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>44776</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>44776</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21893,7 +21893,7 @@
         <v>44789</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>44797</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         <v>44798</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22069,7 +22069,7 @@
         <v>44798</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>44799</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22173,23 +22173,23 @@
       </c>
       <c r="R365" s="2" t="inlineStr"/>
       <c r="U365">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/knärot/A 35739-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/knärot/A 35739-2022.png", "A 35739-2022")</f>
         <v/>
       </c>
       <c r="V365">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomål/A 35739-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomål/A 35739-2022.docx", "A 35739-2022")</f>
         <v/>
       </c>
       <c r="W365">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomålsmail/A 35739-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/klagomålsmail/A 35739-2022.docx", "A 35739-2022")</f>
         <v/>
       </c>
       <c r="X365">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsyn/A 35739-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsyn/A 35739-2022.docx", "A 35739-2022")</f>
         <v/>
       </c>
       <c r="Y365">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsynsmail/A 35739-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OVANAKER/tillsynsmail/A 35739-2022.docx", "A 35739-2022")</f>
         <v/>
       </c>
     </row>
@@ -22203,7 +22203,7 @@
         <v>44802</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>44804</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>44811</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22379,7 +22379,7 @@
         <v>44811</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>44811</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>44817</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>44818</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>44819</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>44823</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22746,7 +22746,7 @@
         <v>44823</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22808,7 +22808,7 @@
         <v>44823</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22870,7 +22870,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22932,7 +22932,7 @@
         <v>44830</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22989,7 +22989,7 @@
         <v>44839</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23046,7 +23046,7 @@
         <v>44840</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23103,7 +23103,7 @@
         <v>44859</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>44862</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>44868</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>44868</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23336,7 +23336,7 @@
         <v>44872</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23393,7 +23393,7 @@
         <v>44872</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23450,7 +23450,7 @@
         <v>44874</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23507,7 +23507,7 @@
         <v>44876</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23564,7 +23564,7 @@
         <v>44876</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>44879</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>44883</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>44886</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23797,7 +23797,7 @@
         <v>44887</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23854,7 +23854,7 @@
         <v>44889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23911,7 +23911,7 @@
         <v>44889</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23968,7 +23968,7 @@
         <v>44889</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24025,7 +24025,7 @@
         <v>44897</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>44900</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>44902</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>44902</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>44903</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24330,7 +24330,7 @@
         <v>44907</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24387,7 +24387,7 @@
         <v>44909</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24449,7 +24449,7 @@
         <v>44910</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>44916</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>44917</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>44923</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>44943</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>44943</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44943</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>44946</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44946</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44952</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44957</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>44958</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>44959</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44961</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44979</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>44985</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44986</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>45000</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25485,7 +25485,7 @@
         <v>45002</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>45002</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25599,7 +25599,7 @@
         <v>45005</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25656,7 +25656,7 @@
         <v>45033</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25713,7 +25713,7 @@
         <v>45033</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25770,7 +25770,7 @@
         <v>45033</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25827,7 +25827,7 @@
         <v>45035</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25884,7 +25884,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25941,7 +25941,7 @@
         <v>45036</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25998,7 +25998,7 @@
         <v>45044</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26055,7 +26055,7 @@
         <v>45051</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26112,7 +26112,7 @@
         <v>45063</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45068</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>45070</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>45072</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26355,7 +26355,7 @@
         <v>45079</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>45079</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>45079</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>45084</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26588,7 +26588,7 @@
         <v>45086</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26645,7 +26645,7 @@
         <v>45092</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26764,7 +26764,7 @@
         <v>45102</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26821,7 +26821,7 @@
         <v>45102</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26878,7 +26878,7 @@
         <v>45103</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>45103</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26992,7 +26992,7 @@
         <v>45103</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>45106</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         <v>45111</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         <v>45117</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27220,7 +27220,7 @@
         <v>45117</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27277,7 +27277,7 @@
         <v>45118</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27334,7 +27334,7 @@
         <v>45133</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>45152</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>45167</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>45167</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>45168</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>

--- a/Översikt OVANÅKER.xlsx
+++ b/Översikt OVANÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>43847</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44819</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>43713</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>44887</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>43713</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>43349</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43521</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>43875</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>44365</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>44379</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44841</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>44957</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>43318</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43349</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>43349</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>43382</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>43392</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>43392</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>43402</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>43403</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
         <v>43409</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>43409</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>43410</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>43412</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         <v>43416</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
         <v>43419</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>43419</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
         <v>43419</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         <v>43424</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>43434</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>43440</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>43440</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>43440</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43440</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3322,7 +3322,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3379,7 +3379,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3436,7 +3436,7 @@
         <v>43451</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3493,7 +3493,7 @@
         <v>43451</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
         <v>43451</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         <v>43451</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         <v>43451</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>43462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43467</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43479</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43480</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43481</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43482</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43486</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43487</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43493</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>43493</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>43503</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>43507</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>43509</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>43515</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>43521</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>43521</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>43525</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43529</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
         <v>43531</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>43539</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>43542</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>43545</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>43551</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>43556</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>43556</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         <v>43556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
         <v>43570</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43571</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>43572</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
         <v>43581</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
         <v>43587</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>43591</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>43601</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>43602</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>43606</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43607</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43608</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43613</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43614</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43614</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43614</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>43616</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>43616</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>43616</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43616</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43616</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43616</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43616</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43616</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43619</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43619</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>43621</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>43621</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>43629</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>43629</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>43640</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>43640</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7454,7 +7454,7 @@
         <v>43641</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>43643</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>43671</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43679</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43682</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>43686</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43689</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>43689</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43690</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>43692</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43692</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43693</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43704</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43705</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43713</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43725</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43725</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43725</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>43726</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43728</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43731</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43731</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43731</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43731</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43731</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43740</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43747</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43749</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43749</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43755</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>43755</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>43766</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>43774</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43780</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>43787</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43790</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43790</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>43790</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>43790</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>43796</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>43802</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43812</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>43817</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         <v>43839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43846</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10106,7 +10106,7 @@
         <v>43846</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43846</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>43846</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43846</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43850</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43852</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>43852</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>43854</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>43854</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>43854</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43854</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>43854</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>43859</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43881</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43886</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>43888</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>43892</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>43893</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>43900</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>43906</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>43907</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>43909</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>43914</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>43914</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>43915</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>43915</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>43916</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>43917</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>43917</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>43917</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>43922</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>43924</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>43924</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>43935</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>43935</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>43937</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>43937</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>43942</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12337,7 +12337,7 @@
         <v>43942</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12399,7 +12399,7 @@
         <v>43945</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12456,7 +12456,7 @@
         <v>43948</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>43950</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>43951</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>43957</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>43962</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>43965</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>43965</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>43969</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>43985</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>43987</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>43987</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43992</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43994</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43999</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>44005</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>44012</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44012</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>44025</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44035</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>44041</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>44041</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>44053</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44053</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>44054</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>44054</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         <v>44054</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>44062</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>44063</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>44067</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>44071</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>44071</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>44074</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>44083</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>44083</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>44089</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>44091</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>44091</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>44096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>44096</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>44102</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>44105</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>44109</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>44109</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>44109</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         <v>44112</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
         <v>44112</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>44112</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>44113</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>44120</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>44125</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>44131</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         <v>44131</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         <v>44131</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15604,7 +15604,7 @@
         <v>44137</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>44145</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>44146</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>44146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>44153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>44159</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15951,7 +15951,7 @@
         <v>44159</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16008,7 +16008,7 @@
         <v>44160</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>44162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>44167</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>44167</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>44167</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>44167</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>44167</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>44167</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>44169</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>44174</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>44183</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>44188</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>44204</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>44222</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>44223</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>44223</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>44231</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>44245</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>44258</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>44258</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>44264</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>44264</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>44264</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>44264</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>44266</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44266</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44270</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44271</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>44277</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17676,7 +17676,7 @@
         <v>44278</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>44279</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>44285</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>44287</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>44298</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>44301</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>44305</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>44310</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44310</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18204,7 +18204,7 @@
         <v>44312</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18266,7 +18266,7 @@
         <v>44314</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44322</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>44328</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44336</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>44371</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>44376</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44379</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44379</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44379</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44379</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>44379</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>44379</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>44379</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>44379</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44384</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>44384</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         <v>44400</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>44435</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19367,7 +19367,7 @@
         <v>44435</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19424,7 +19424,7 @@
         <v>44449</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19481,7 +19481,7 @@
         <v>44475</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19538,7 +19538,7 @@
         <v>44484</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19595,7 +19595,7 @@
         <v>44491</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19652,7 +19652,7 @@
         <v>44494</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19709,7 +19709,7 @@
         <v>44503</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19766,7 +19766,7 @@
         <v>44516</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19823,7 +19823,7 @@
         <v>44517</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19885,7 +19885,7 @@
         <v>44530</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19942,7 +19942,7 @@
         <v>44531</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19999,7 +19999,7 @@
         <v>44571</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         <v>44571</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20118,7 +20118,7 @@
         <v>44581</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20175,7 +20175,7 @@
         <v>44585</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20232,7 +20232,7 @@
         <v>44603</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20289,7 +20289,7 @@
         <v>44607</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20346,7 +20346,7 @@
         <v>44614</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20403,7 +20403,7 @@
         <v>44614</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20460,7 +20460,7 @@
         <v>44614</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20517,7 +20517,7 @@
         <v>44617</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20574,7 +20574,7 @@
         <v>44617</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20631,7 +20631,7 @@
         <v>44617</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
         <v>44621</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>44650</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
         <v>44665</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20859,7 +20859,7 @@
         <v>44698</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20916,7 +20916,7 @@
         <v>44701</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20973,7 +20973,7 @@
         <v>44706</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21035,7 +21035,7 @@
         <v>44715</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21097,7 +21097,7 @@
         <v>44719</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21154,7 +21154,7 @@
         <v>44725</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21216,7 +21216,7 @@
         <v>44729</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>44746</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44746</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44749</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21464,7 +21464,7 @@
         <v>44750</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>44754</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>44757</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>44757</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21707,7 +21707,7 @@
         <v>44760</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>44776</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>44776</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21893,7 +21893,7 @@
         <v>44789</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>44797</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         <v>44798</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22069,7 +22069,7 @@
         <v>44798</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>44799</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>44802</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>44804</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>44811</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22379,7 +22379,7 @@
         <v>44811</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>44811</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>44817</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>44818</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>44819</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>44823</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22746,7 +22746,7 @@
         <v>44823</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22808,7 +22808,7 @@
         <v>44823</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22870,7 +22870,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22932,7 +22932,7 @@
         <v>44830</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22989,7 +22989,7 @@
         <v>44839</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23046,7 +23046,7 @@
         <v>44840</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23103,7 +23103,7 @@
         <v>44859</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>44862</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>44868</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>44868</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23336,7 +23336,7 @@
         <v>44872</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23393,7 +23393,7 @@
         <v>44872</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23450,7 +23450,7 @@
         <v>44874</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23507,7 +23507,7 @@
         <v>44876</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23564,7 +23564,7 @@
         <v>44876</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>44879</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>44883</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>44886</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23797,7 +23797,7 @@
         <v>44887</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23854,7 +23854,7 @@
         <v>44889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23911,7 +23911,7 @@
         <v>44889</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23968,7 +23968,7 @@
         <v>44889</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24025,7 +24025,7 @@
         <v>44897</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>44900</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>44902</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>44902</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>44903</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24330,7 +24330,7 @@
         <v>44907</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24387,7 +24387,7 @@
         <v>44909</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24449,7 +24449,7 @@
         <v>44910</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>44916</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>44917</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>44923</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>44943</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>44943</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44943</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>44946</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44946</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44952</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44957</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>44958</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>44959</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44961</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44979</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>44985</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44986</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>45000</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25485,7 +25485,7 @@
         <v>45002</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>45002</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25599,7 +25599,7 @@
         <v>45005</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25656,7 +25656,7 @@
         <v>45033</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25713,7 +25713,7 @@
         <v>45033</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25770,7 +25770,7 @@
         <v>45033</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25827,7 +25827,7 @@
         <v>45035</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25884,7 +25884,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25941,7 +25941,7 @@
         <v>45036</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25998,7 +25998,7 @@
         <v>45044</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26055,7 +26055,7 @@
         <v>45051</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26112,7 +26112,7 @@
         <v>45063</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45068</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>45070</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>45072</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26355,7 +26355,7 @@
         <v>45079</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>45079</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>45079</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>45084</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26588,7 +26588,7 @@
         <v>45086</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26645,7 +26645,7 @@
         <v>45092</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26764,7 +26764,7 @@
         <v>45102</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26821,7 +26821,7 @@
         <v>45102</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26878,7 +26878,7 @@
         <v>45103</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>45103</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26992,7 +26992,7 @@
         <v>45103</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>45106</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         <v>45111</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         <v>45117</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27220,7 +27220,7 @@
         <v>45117</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27277,7 +27277,7 @@
         <v>45118</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27334,7 +27334,7 @@
         <v>45133</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>45152</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>45167</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>45167</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>45168</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>

--- a/Översikt OVANÅKER.xlsx
+++ b/Översikt OVANÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>43847</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44819</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>43713</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>44887</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>43713</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>43349</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43521</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>43875</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>44365</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>44379</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44841</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>44957</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>43318</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43349</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>43349</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>43382</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>43392</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>43392</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>43402</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>43403</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
         <v>43409</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>43409</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>43410</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>43412</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         <v>43416</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
         <v>43419</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>43419</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
         <v>43419</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         <v>43424</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>43434</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>43440</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>43440</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>43440</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43440</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3322,7 +3322,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3379,7 +3379,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3436,7 +3436,7 @@
         <v>43451</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3493,7 +3493,7 @@
         <v>43451</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
         <v>43451</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         <v>43451</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         <v>43451</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>43462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43467</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43479</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43480</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43481</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43482</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43486</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43487</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43493</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>43493</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>43503</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>43507</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>43509</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>43515</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>43521</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>43521</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>43525</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43529</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
         <v>43531</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>43539</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>43542</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>43545</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>43551</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>43556</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>43556</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         <v>43556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
         <v>43570</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43571</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>43572</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
         <v>43581</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
         <v>43587</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>43591</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>43601</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>43602</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>43606</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43607</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43608</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43613</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43614</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43614</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43614</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>43616</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>43616</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>43616</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43616</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43616</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43616</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43616</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43616</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43619</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43619</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>43621</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>43621</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>43629</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>43629</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>43640</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>43640</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7454,7 +7454,7 @@
         <v>43641</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>43643</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>43671</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43679</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43682</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>43686</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43689</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>43689</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43690</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>43692</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43692</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43693</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43704</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43705</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43713</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43725</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43725</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43725</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>43726</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43728</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43731</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43731</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43731</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43731</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43731</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43740</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43747</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43749</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43749</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43755</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>43755</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>43766</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>43774</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43780</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>43787</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43790</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43790</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>43790</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>43790</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>43796</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>43802</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43812</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>43817</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         <v>43839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43846</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10106,7 +10106,7 @@
         <v>43846</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43846</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>43846</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43846</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43850</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43852</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>43852</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>43854</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>43854</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>43854</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43854</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>43854</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>43859</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43881</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43886</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>43888</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>43892</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>43893</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>43900</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>43906</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>43907</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>43909</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>43914</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>43914</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>43915</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>43915</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>43916</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>43917</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>43917</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>43917</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>43922</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>43924</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>43924</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>43935</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>43935</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>43937</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>43937</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>43942</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12337,7 +12337,7 @@
         <v>43942</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12399,7 +12399,7 @@
         <v>43945</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12456,7 +12456,7 @@
         <v>43948</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>43950</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>43951</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>43957</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>43962</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>43965</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>43965</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>43969</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>43985</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>43987</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>43987</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43992</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43994</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43999</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>44005</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>44012</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44012</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>44025</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44035</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>44041</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>44041</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>44053</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44053</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>44054</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>44054</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         <v>44054</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>44062</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>44063</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>44067</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>44071</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>44071</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>44074</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>44083</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>44083</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>44089</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>44091</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>44091</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>44096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>44096</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>44102</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>44105</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>44109</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>44109</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>44109</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         <v>44112</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
         <v>44112</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>44112</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>44113</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>44120</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>44125</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>44131</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         <v>44131</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         <v>44131</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15604,7 +15604,7 @@
         <v>44137</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>44145</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>44146</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>44146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>44153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>44159</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15951,7 +15951,7 @@
         <v>44159</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16008,7 +16008,7 @@
         <v>44160</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>44162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>44167</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>44167</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>44167</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>44167</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>44167</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>44167</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>44169</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>44174</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>44183</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>44188</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>44204</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>44222</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>44223</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>44223</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>44231</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>44245</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>44258</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>44258</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>44264</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>44264</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>44264</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>44264</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>44266</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44266</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44270</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44271</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>44277</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17676,7 +17676,7 @@
         <v>44278</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>44279</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>44285</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>44287</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>44298</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>44301</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>44305</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>44310</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44310</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18204,7 +18204,7 @@
         <v>44312</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18266,7 +18266,7 @@
         <v>44314</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44322</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>44328</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44336</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>44371</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>44376</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44379</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44379</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44379</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44379</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>44379</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>44379</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>44379</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>44379</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44384</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>44384</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         <v>44400</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>44435</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19367,7 +19367,7 @@
         <v>44435</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19424,7 +19424,7 @@
         <v>44449</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19481,7 +19481,7 @@
         <v>44475</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19538,7 +19538,7 @@
         <v>44484</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19595,7 +19595,7 @@
         <v>44491</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19652,7 +19652,7 @@
         <v>44494</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19709,7 +19709,7 @@
         <v>44503</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19766,7 +19766,7 @@
         <v>44516</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19823,7 +19823,7 @@
         <v>44517</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19885,7 +19885,7 @@
         <v>44530</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19942,7 +19942,7 @@
         <v>44531</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19999,7 +19999,7 @@
         <v>44571</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         <v>44571</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20118,7 +20118,7 @@
         <v>44581</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20175,7 +20175,7 @@
         <v>44585</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20232,7 +20232,7 @@
         <v>44603</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20289,7 +20289,7 @@
         <v>44607</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20346,7 +20346,7 @@
         <v>44614</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20403,7 +20403,7 @@
         <v>44614</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20460,7 +20460,7 @@
         <v>44614</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20517,7 +20517,7 @@
         <v>44617</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20574,7 +20574,7 @@
         <v>44617</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20631,7 +20631,7 @@
         <v>44617</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
         <v>44621</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>44650</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
         <v>44665</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20859,7 +20859,7 @@
         <v>44698</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20916,7 +20916,7 @@
         <v>44701</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20973,7 +20973,7 @@
         <v>44706</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21035,7 +21035,7 @@
         <v>44715</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21097,7 +21097,7 @@
         <v>44719</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21154,7 +21154,7 @@
         <v>44725</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21216,7 +21216,7 @@
         <v>44729</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>44746</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44746</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44749</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21464,7 +21464,7 @@
         <v>44750</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>44754</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>44757</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>44757</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21707,7 +21707,7 @@
         <v>44760</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>44776</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>44776</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21893,7 +21893,7 @@
         <v>44789</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>44797</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         <v>44798</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22069,7 +22069,7 @@
         <v>44798</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>44799</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>44802</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>44804</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>44811</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22379,7 +22379,7 @@
         <v>44811</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>44811</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>44817</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>44818</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>44819</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>44823</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22746,7 +22746,7 @@
         <v>44823</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22808,7 +22808,7 @@
         <v>44823</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22870,7 +22870,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22932,7 +22932,7 @@
         <v>44830</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22989,7 +22989,7 @@
         <v>44839</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23046,7 +23046,7 @@
         <v>44840</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23103,7 +23103,7 @@
         <v>44859</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>44862</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>44868</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>44868</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23336,7 +23336,7 @@
         <v>44872</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23393,7 +23393,7 @@
         <v>44872</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23450,7 +23450,7 @@
         <v>44874</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23507,7 +23507,7 @@
         <v>44876</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23564,7 +23564,7 @@
         <v>44876</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>44879</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>44883</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>44886</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23797,7 +23797,7 @@
         <v>44887</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23854,7 +23854,7 @@
         <v>44889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23911,7 +23911,7 @@
         <v>44889</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23968,7 +23968,7 @@
         <v>44889</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24025,7 +24025,7 @@
         <v>44897</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>44900</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>44902</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>44902</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>44903</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24330,7 +24330,7 @@
         <v>44907</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24387,7 +24387,7 @@
         <v>44909</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24449,7 +24449,7 @@
         <v>44910</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>44916</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>44917</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>44923</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>44943</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>44943</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44943</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>44946</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44946</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44952</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44957</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>44958</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>44959</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44961</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44979</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>44985</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44986</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>45000</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25485,7 +25485,7 @@
         <v>45002</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>45002</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25599,7 +25599,7 @@
         <v>45005</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25656,7 +25656,7 @@
         <v>45033</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25713,7 +25713,7 @@
         <v>45033</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25770,7 +25770,7 @@
         <v>45033</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25827,7 +25827,7 @@
         <v>45035</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25884,7 +25884,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25941,7 +25941,7 @@
         <v>45036</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25998,7 +25998,7 @@
         <v>45044</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26055,7 +26055,7 @@
         <v>45051</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26112,7 +26112,7 @@
         <v>45063</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45068</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>45070</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>45072</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26355,7 +26355,7 @@
         <v>45079</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>45079</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>45079</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>45084</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26588,7 +26588,7 @@
         <v>45086</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26645,7 +26645,7 @@
         <v>45092</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26764,7 +26764,7 @@
         <v>45102</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26821,7 +26821,7 @@
         <v>45102</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26878,7 +26878,7 @@
         <v>45103</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>45103</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26992,7 +26992,7 @@
         <v>45103</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>45106</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         <v>45111</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         <v>45117</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27220,7 +27220,7 @@
         <v>45117</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27277,7 +27277,7 @@
         <v>45118</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27334,7 +27334,7 @@
         <v>45133</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>45152</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>45167</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>45167</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>45168</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>

--- a/Översikt OVANÅKER.xlsx
+++ b/Översikt OVANÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>43847</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44819</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>43713</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>44887</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>43713</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>43349</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43521</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>43875</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>44365</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>44379</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44841</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>44957</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>43318</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43349</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>43349</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>43382</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>43392</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>43392</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>43402</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>43403</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
         <v>43409</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>43409</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>43410</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>43412</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         <v>43416</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
         <v>43419</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>43419</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
         <v>43419</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         <v>43424</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>43434</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>43440</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>43440</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>43440</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43440</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3322,7 +3322,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3379,7 +3379,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3436,7 +3436,7 @@
         <v>43451</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3493,7 +3493,7 @@
         <v>43451</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
         <v>43451</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         <v>43451</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         <v>43451</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>43462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43467</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43479</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43480</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43481</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43482</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43486</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43487</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43493</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>43493</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>43503</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>43507</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>43509</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>43515</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>43521</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>43521</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>43525</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43529</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
         <v>43531</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>43539</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>43542</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>43545</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>43551</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>43556</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>43556</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         <v>43556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
         <v>43570</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43571</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>43572</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
         <v>43581</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
         <v>43587</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>43591</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>43601</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>43602</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>43606</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43607</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43608</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43613</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43614</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43614</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43614</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>43616</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>43616</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>43616</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43616</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43616</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43616</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43616</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43616</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43619</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43619</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>43621</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>43621</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>43629</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>43629</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>43640</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>43640</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7454,7 +7454,7 @@
         <v>43641</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>43643</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>43671</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43679</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43682</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>43686</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43689</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>43689</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43690</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>43692</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43692</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43693</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43704</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43705</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43713</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43725</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43725</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43725</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>43726</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43728</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43731</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43731</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43731</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43731</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43731</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43740</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43747</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43749</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43749</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43755</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>43755</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>43766</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>43774</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43780</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>43787</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43790</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43790</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>43790</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>43790</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>43796</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>43802</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43812</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>43817</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         <v>43839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43846</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10106,7 +10106,7 @@
         <v>43846</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43846</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>43846</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43846</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43850</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43852</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>43852</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>43854</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>43854</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>43854</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43854</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>43854</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>43859</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43881</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43886</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>43888</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>43892</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>43893</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>43900</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>43906</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>43907</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>43909</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>43914</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>43914</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>43915</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>43915</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>43916</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>43917</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>43917</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>43917</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>43922</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>43924</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>43924</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>43935</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>43935</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>43937</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>43937</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>43942</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12337,7 +12337,7 @@
         <v>43942</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12399,7 +12399,7 @@
         <v>43945</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12456,7 +12456,7 @@
         <v>43948</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>43950</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>43951</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>43957</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>43962</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>43965</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>43965</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>43969</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>43985</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>43987</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>43987</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43992</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43994</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43999</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>44005</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>44012</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44012</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>44025</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44035</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>44041</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>44041</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>44053</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44053</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>44054</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>44054</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         <v>44054</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>44062</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>44063</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>44067</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>44071</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>44071</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>44074</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>44083</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>44083</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>44089</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>44091</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>44091</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>44096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>44096</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>44102</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>44105</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>44109</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>44109</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>44109</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         <v>44112</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
         <v>44112</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>44112</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>44113</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>44120</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>44125</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>44131</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         <v>44131</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         <v>44131</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15604,7 +15604,7 @@
         <v>44137</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>44145</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>44146</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>44146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>44153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>44159</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15951,7 +15951,7 @@
         <v>44159</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16008,7 +16008,7 @@
         <v>44160</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>44162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>44167</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>44167</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>44167</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>44167</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>44167</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>44167</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>44169</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>44174</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>44183</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>44188</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>44204</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>44222</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>44223</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>44223</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>44231</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>44245</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>44258</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>44258</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>44264</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>44264</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>44264</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>44264</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>44266</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44266</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44270</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44271</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>44277</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17676,7 +17676,7 @@
         <v>44278</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>44279</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>44285</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>44287</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>44298</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>44301</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>44305</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>44310</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44310</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18204,7 +18204,7 @@
         <v>44312</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18266,7 +18266,7 @@
         <v>44314</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44322</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>44328</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44336</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>44371</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>44376</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44379</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44379</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44379</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44379</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>44379</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>44379</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>44379</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>44379</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44384</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>44384</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         <v>44400</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>44435</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19367,7 +19367,7 @@
         <v>44435</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19424,7 +19424,7 @@
         <v>44449</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19481,7 +19481,7 @@
         <v>44475</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19538,7 +19538,7 @@
         <v>44484</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19595,7 +19595,7 @@
         <v>44491</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19652,7 +19652,7 @@
         <v>44494</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19709,7 +19709,7 @@
         <v>44503</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19766,7 +19766,7 @@
         <v>44516</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19823,7 +19823,7 @@
         <v>44517</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19885,7 +19885,7 @@
         <v>44530</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19942,7 +19942,7 @@
         <v>44531</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19999,7 +19999,7 @@
         <v>44571</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         <v>44571</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20118,7 +20118,7 @@
         <v>44581</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20175,7 +20175,7 @@
         <v>44585</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20232,7 +20232,7 @@
         <v>44603</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20289,7 +20289,7 @@
         <v>44607</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20346,7 +20346,7 @@
         <v>44614</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20403,7 +20403,7 @@
         <v>44614</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20460,7 +20460,7 @@
         <v>44614</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20517,7 +20517,7 @@
         <v>44617</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20574,7 +20574,7 @@
         <v>44617</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20631,7 +20631,7 @@
         <v>44617</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
         <v>44621</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>44650</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
         <v>44665</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20859,7 +20859,7 @@
         <v>44698</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20916,7 +20916,7 @@
         <v>44701</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20973,7 +20973,7 @@
         <v>44706</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21035,7 +21035,7 @@
         <v>44715</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21097,7 +21097,7 @@
         <v>44719</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21154,7 +21154,7 @@
         <v>44725</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21216,7 +21216,7 @@
         <v>44729</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>44746</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44746</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44749</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21464,7 +21464,7 @@
         <v>44750</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>44754</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>44757</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>44757</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21707,7 +21707,7 @@
         <v>44760</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>44776</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>44776</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21893,7 +21893,7 @@
         <v>44789</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>44797</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         <v>44798</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22069,7 +22069,7 @@
         <v>44798</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>44799</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>44802</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>44804</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>44811</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22379,7 +22379,7 @@
         <v>44811</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>44811</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>44817</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>44818</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>44819</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>44823</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22746,7 +22746,7 @@
         <v>44823</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22808,7 +22808,7 @@
         <v>44823</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22870,7 +22870,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22932,7 +22932,7 @@
         <v>44830</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22989,7 +22989,7 @@
         <v>44839</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23046,7 +23046,7 @@
         <v>44840</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23103,7 +23103,7 @@
         <v>44859</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>44862</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>44868</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>44868</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23336,7 +23336,7 @@
         <v>44872</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23393,7 +23393,7 @@
         <v>44872</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23450,7 +23450,7 @@
         <v>44874</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23507,7 +23507,7 @@
         <v>44876</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23564,7 +23564,7 @@
         <v>44876</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>44879</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>44883</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>44886</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23797,7 +23797,7 @@
         <v>44887</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23854,7 +23854,7 @@
         <v>44889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23911,7 +23911,7 @@
         <v>44889</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23968,7 +23968,7 @@
         <v>44889</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24025,7 +24025,7 @@
         <v>44897</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>44900</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>44902</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>44902</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>44903</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24330,7 +24330,7 @@
         <v>44907</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24387,7 +24387,7 @@
         <v>44909</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24449,7 +24449,7 @@
         <v>44910</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>44916</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>44917</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>44923</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>44943</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>44943</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44943</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>44946</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44946</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44952</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44957</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>44958</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>44959</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44961</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44979</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>44985</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44986</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>45000</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25485,7 +25485,7 @@
         <v>45002</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>45002</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25599,7 +25599,7 @@
         <v>45005</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25656,7 +25656,7 @@
         <v>45033</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25713,7 +25713,7 @@
         <v>45033</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25770,7 +25770,7 @@
         <v>45033</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25827,7 +25827,7 @@
         <v>45035</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25884,7 +25884,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25941,7 +25941,7 @@
         <v>45036</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25998,7 +25998,7 @@
         <v>45044</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26055,7 +26055,7 @@
         <v>45051</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26112,7 +26112,7 @@
         <v>45063</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45068</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>45070</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>45072</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26355,7 +26355,7 @@
         <v>45079</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>45079</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>45079</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>45084</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26588,7 +26588,7 @@
         <v>45086</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26645,7 +26645,7 @@
         <v>45092</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26764,7 +26764,7 @@
         <v>45102</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26821,7 +26821,7 @@
         <v>45102</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26878,7 +26878,7 @@
         <v>45103</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>45103</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26992,7 +26992,7 @@
         <v>45103</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>45106</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         <v>45111</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         <v>45117</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27220,7 +27220,7 @@
         <v>45117</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27277,7 +27277,7 @@
         <v>45118</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27334,7 +27334,7 @@
         <v>45133</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>45152</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>45167</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>45167</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>45168</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>

--- a/Översikt OVANÅKER.xlsx
+++ b/Översikt OVANÅKER.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y458"/>
+  <dimension ref="A1:Y459"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43847</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44819</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>43713</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>44887</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>43713</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>43349</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43521</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>43875</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>44365</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>44379</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44841</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>44957</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>43318</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43349</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>43349</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>43382</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>43392</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>43392</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>43402</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>43403</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
         <v>43409</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>43409</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>43410</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>43412</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         <v>43416</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
         <v>43419</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>43419</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
         <v>43419</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         <v>43424</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>43434</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>43440</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>43440</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>43440</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43440</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3322,7 +3322,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3379,7 +3379,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3436,7 +3436,7 @@
         <v>43451</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3493,7 +3493,7 @@
         <v>43451</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
         <v>43451</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         <v>43451</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         <v>43451</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>43462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43467</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43479</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43480</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43481</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43482</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43486</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43487</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43493</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>43493</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>43503</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>43507</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>43509</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>43515</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>43521</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>43521</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>43525</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43529</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
         <v>43531</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>43539</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>43542</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>43545</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>43551</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>43556</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>43556</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         <v>43556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
         <v>43570</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43571</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>43572</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
         <v>43581</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
         <v>43587</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>43591</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>43601</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>43602</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>43606</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43607</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43608</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43613</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43614</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43614</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43614</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>43616</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>43616</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>43616</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43616</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43616</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43616</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43616</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43616</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43619</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43619</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>43621</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>43621</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>43629</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>43629</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>43640</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>43640</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7454,7 +7454,7 @@
         <v>43641</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>43643</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>43671</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43679</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43682</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>43686</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43689</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>43689</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43690</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>43692</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43692</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43693</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43704</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43705</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43713</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43725</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43725</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43725</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>43726</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43728</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43731</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43731</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43731</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43731</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43731</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43740</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43747</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43749</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43749</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43755</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>43755</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>43766</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>43774</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43780</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>43787</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43790</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43790</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>43790</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>43790</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>43796</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>43802</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43812</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>43817</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         <v>43839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43846</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10106,7 +10106,7 @@
         <v>43846</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43846</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>43846</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43846</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43850</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43852</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>43852</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>43854</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>43854</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>43854</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43854</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>43854</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>43859</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43881</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43886</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>43888</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>43892</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>43893</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>43900</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>43906</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>43907</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>43909</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>43914</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>43914</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>43915</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>43915</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>43916</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>43917</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>43917</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>43917</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>43922</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>43924</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>43924</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>43935</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>43935</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>43937</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>43937</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>43942</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12337,7 +12337,7 @@
         <v>43942</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12399,7 +12399,7 @@
         <v>43945</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12456,7 +12456,7 @@
         <v>43948</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>43950</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>43951</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>43957</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>43962</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>43965</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>43965</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>43969</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>43985</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>43987</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>43987</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43992</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43994</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43999</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>44005</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>44012</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44012</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>44025</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44035</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>44041</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>44041</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>44053</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44053</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>44054</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>44054</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         <v>44054</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>44062</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>44063</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>44067</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>44071</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>44071</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>44074</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>44083</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>44083</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>44089</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>44091</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>44091</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>44096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>44096</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>44102</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>44105</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>44109</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>44109</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>44109</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         <v>44112</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
         <v>44112</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>44112</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>44113</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>44120</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>44125</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>44131</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         <v>44131</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         <v>44131</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15604,7 +15604,7 @@
         <v>44137</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>44145</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>44146</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>44146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>44153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>44159</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15951,7 +15951,7 @@
         <v>44159</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16008,7 +16008,7 @@
         <v>44160</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>44162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>44167</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>44167</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>44167</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>44167</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>44167</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>44167</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>44169</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>44174</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>44183</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>44188</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>44204</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>44222</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>44223</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>44223</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>44231</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>44245</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>44258</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>44258</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>44264</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>44264</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>44264</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>44264</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>44266</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44266</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44270</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44271</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>44277</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17676,7 +17676,7 @@
         <v>44278</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>44279</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>44285</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>44287</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>44298</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>44301</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>44305</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>44310</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44310</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18204,7 +18204,7 @@
         <v>44312</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18266,7 +18266,7 @@
         <v>44314</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44322</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>44328</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44336</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>44371</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>44376</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44379</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44379</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44379</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44379</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>44379</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>44379</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>44379</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>44379</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44384</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>44384</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         <v>44400</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>44435</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19367,7 +19367,7 @@
         <v>44435</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19424,7 +19424,7 @@
         <v>44449</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19481,7 +19481,7 @@
         <v>44475</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19538,7 +19538,7 @@
         <v>44484</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19595,7 +19595,7 @@
         <v>44491</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19652,7 +19652,7 @@
         <v>44494</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19709,7 +19709,7 @@
         <v>44503</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19766,7 +19766,7 @@
         <v>44516</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19823,7 +19823,7 @@
         <v>44517</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19885,7 +19885,7 @@
         <v>44530</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19942,7 +19942,7 @@
         <v>44531</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19999,7 +19999,7 @@
         <v>44571</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         <v>44571</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20118,7 +20118,7 @@
         <v>44581</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20175,7 +20175,7 @@
         <v>44585</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20232,7 +20232,7 @@
         <v>44603</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20289,7 +20289,7 @@
         <v>44607</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20346,7 +20346,7 @@
         <v>44614</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20403,7 +20403,7 @@
         <v>44614</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20460,7 +20460,7 @@
         <v>44614</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20517,7 +20517,7 @@
         <v>44617</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20574,7 +20574,7 @@
         <v>44617</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20631,7 +20631,7 @@
         <v>44617</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
         <v>44621</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>44650</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
         <v>44665</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20859,7 +20859,7 @@
         <v>44698</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20916,7 +20916,7 @@
         <v>44701</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20973,7 +20973,7 @@
         <v>44706</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21035,7 +21035,7 @@
         <v>44715</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21097,7 +21097,7 @@
         <v>44719</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21154,7 +21154,7 @@
         <v>44725</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21216,7 +21216,7 @@
         <v>44729</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>44746</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44746</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44749</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21464,7 +21464,7 @@
         <v>44750</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>44754</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>44757</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>44757</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21707,7 +21707,7 @@
         <v>44760</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>44776</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>44776</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21893,7 +21893,7 @@
         <v>44789</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>44797</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         <v>44798</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22069,7 +22069,7 @@
         <v>44798</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>44799</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>44802</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>44804</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>44811</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22379,7 +22379,7 @@
         <v>44811</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>44811</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>44817</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>44818</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>44819</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>44823</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22746,7 +22746,7 @@
         <v>44823</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22808,7 +22808,7 @@
         <v>44823</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22870,7 +22870,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22932,7 +22932,7 @@
         <v>44830</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22989,7 +22989,7 @@
         <v>44839</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23046,7 +23046,7 @@
         <v>44840</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23103,7 +23103,7 @@
         <v>44859</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>44862</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>44868</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>44868</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23336,7 +23336,7 @@
         <v>44872</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23393,7 +23393,7 @@
         <v>44872</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23450,7 +23450,7 @@
         <v>44874</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23507,7 +23507,7 @@
         <v>44876</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23564,7 +23564,7 @@
         <v>44876</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>44879</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>44883</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>44886</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23797,7 +23797,7 @@
         <v>44887</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23854,7 +23854,7 @@
         <v>44889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23911,7 +23911,7 @@
         <v>44889</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23968,7 +23968,7 @@
         <v>44889</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24025,7 +24025,7 @@
         <v>44897</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>44900</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>44902</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>44902</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>44903</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24330,7 +24330,7 @@
         <v>44907</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24387,7 +24387,7 @@
         <v>44909</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24449,7 +24449,7 @@
         <v>44910</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>44916</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>44917</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>44923</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>44943</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>44943</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44943</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>44946</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44946</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44952</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44957</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>44958</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>44959</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44961</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44979</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>44985</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44986</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>45000</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25485,7 +25485,7 @@
         <v>45002</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>45002</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25599,7 +25599,7 @@
         <v>45005</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25656,7 +25656,7 @@
         <v>45033</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25713,7 +25713,7 @@
         <v>45033</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25770,7 +25770,7 @@
         <v>45033</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25827,7 +25827,7 @@
         <v>45035</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25884,7 +25884,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25941,7 +25941,7 @@
         <v>45036</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25998,7 +25998,7 @@
         <v>45044</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26055,7 +26055,7 @@
         <v>45051</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26112,7 +26112,7 @@
         <v>45063</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45068</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>45070</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>45072</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26355,7 +26355,7 @@
         <v>45079</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>45079</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>45079</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>45084</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26588,7 +26588,7 @@
         <v>45086</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26645,7 +26645,7 @@
         <v>45092</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26764,7 +26764,7 @@
         <v>45102</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26821,7 +26821,7 @@
         <v>45102</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26878,7 +26878,7 @@
         <v>45103</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>45103</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26992,7 +26992,7 @@
         <v>45103</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>45106</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         <v>45111</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         <v>45117</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27220,7 +27220,7 @@
         <v>45117</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27277,7 +27277,7 @@
         <v>45118</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27334,7 +27334,7 @@
         <v>45133</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>45152</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>45167</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>45167</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27557,7 +27557,7 @@
       </c>
       <c r="R457" s="2" t="inlineStr"/>
     </row>
-    <row r="458">
+    <row r="458" ht="15" customHeight="1">
       <c r="A458" t="inlineStr">
         <is>
           <t>A 39916-2023</t>
@@ -27567,7 +27567,7 @@
         <v>45168</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27618,6 +27618,63 @@
         <v>0</v>
       </c>
       <c r="R458" s="2" t="inlineStr"/>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>A 44611-2023</t>
+        </is>
+      </c>
+      <c r="B459" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C459" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>OVANÅKER</t>
+        </is>
+      </c>
+      <c r="G459" t="n">
+        <v>1</v>
+      </c>
+      <c r="H459" t="n">
+        <v>0</v>
+      </c>
+      <c r="I459" t="n">
+        <v>0</v>
+      </c>
+      <c r="J459" t="n">
+        <v>0</v>
+      </c>
+      <c r="K459" t="n">
+        <v>0</v>
+      </c>
+      <c r="L459" t="n">
+        <v>0</v>
+      </c>
+      <c r="M459" t="n">
+        <v>0</v>
+      </c>
+      <c r="N459" t="n">
+        <v>0</v>
+      </c>
+      <c r="O459" t="n">
+        <v>0</v>
+      </c>
+      <c r="P459" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q459" t="n">
+        <v>0</v>
+      </c>
+      <c r="R459" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt OVANÅKER.xlsx
+++ b/Översikt OVANÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>43847</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44819</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>43713</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>44887</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>43713</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>43349</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43521</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>43875</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>44365</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>44379</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44841</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>44957</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>43318</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43349</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>43349</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>43382</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>43392</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>43392</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>43402</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>43403</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
         <v>43409</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>43409</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>43410</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>43412</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         <v>43416</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
         <v>43419</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>43419</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
         <v>43419</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         <v>43424</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>43434</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>43440</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>43440</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>43440</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43440</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3322,7 +3322,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3379,7 +3379,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3436,7 +3436,7 @@
         <v>43451</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3493,7 +3493,7 @@
         <v>43451</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
         <v>43451</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         <v>43451</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         <v>43451</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>43462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43467</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43479</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43480</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43481</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43482</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43486</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43487</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43493</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>43493</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>43503</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>43507</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>43509</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>43515</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>43521</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>43521</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>43525</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43529</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
         <v>43531</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>43539</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>43542</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>43545</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>43551</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>43556</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>43556</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         <v>43556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
         <v>43570</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43571</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>43572</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
         <v>43581</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
         <v>43587</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>43591</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>43601</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>43602</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>43606</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43607</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43608</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43613</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43614</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43614</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43614</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>43616</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>43616</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>43616</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43616</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43616</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43616</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43616</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43616</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43619</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43619</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>43621</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>43621</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>43629</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>43629</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>43640</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>43640</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7454,7 +7454,7 @@
         <v>43641</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>43643</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>43671</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43679</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43682</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>43686</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43689</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>43689</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43690</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>43692</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43692</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43693</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43704</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43705</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43713</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43725</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43725</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43725</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>43726</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43728</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43731</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43731</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43731</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43731</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43731</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43740</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43747</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43749</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43749</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43755</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>43755</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>43766</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>43774</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43780</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>43787</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43790</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43790</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>43790</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>43790</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>43796</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>43802</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43812</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>43817</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         <v>43839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43846</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10106,7 +10106,7 @@
         <v>43846</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43846</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>43846</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43846</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43850</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43852</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>43852</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>43854</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>43854</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>43854</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43854</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>43854</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>43859</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43881</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43886</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>43888</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>43892</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>43893</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>43900</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>43906</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>43907</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>43909</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>43914</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>43914</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>43915</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>43915</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>43916</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>43917</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>43917</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>43917</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>43922</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>43924</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>43924</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>43935</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>43935</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>43937</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>43937</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>43942</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12337,7 +12337,7 @@
         <v>43942</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12399,7 +12399,7 @@
         <v>43945</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12456,7 +12456,7 @@
         <v>43948</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>43950</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>43951</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>43957</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>43962</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>43965</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>43965</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>43969</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>43985</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>43987</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>43987</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43992</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43994</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43999</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>44005</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>44012</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44012</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>44025</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44035</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>44041</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>44041</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>44053</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44053</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>44054</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>44054</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         <v>44054</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>44062</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>44063</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>44067</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>44071</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>44071</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>44074</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>44083</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>44083</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>44089</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>44091</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>44091</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>44096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>44096</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>44102</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>44105</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>44109</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>44109</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>44109</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         <v>44112</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
         <v>44112</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>44112</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>44113</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>44120</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>44125</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>44131</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         <v>44131</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         <v>44131</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15604,7 +15604,7 @@
         <v>44137</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>44145</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>44146</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>44146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>44153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>44159</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15951,7 +15951,7 @@
         <v>44159</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16008,7 +16008,7 @@
         <v>44160</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>44162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>44167</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>44167</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>44167</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>44167</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>44167</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>44167</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>44169</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>44174</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>44183</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>44188</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>44204</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>44222</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>44223</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>44223</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>44231</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>44245</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>44258</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>44258</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>44264</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>44264</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>44264</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>44264</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>44266</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44266</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44270</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44271</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>44277</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17676,7 +17676,7 @@
         <v>44278</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>44279</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>44285</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>44287</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>44298</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>44301</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>44305</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>44310</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44310</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18204,7 +18204,7 @@
         <v>44312</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18266,7 +18266,7 @@
         <v>44314</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44322</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>44328</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44336</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>44371</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>44376</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44379</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44379</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44379</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44379</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>44379</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>44379</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>44379</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>44379</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44384</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>44384</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         <v>44400</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>44435</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19367,7 +19367,7 @@
         <v>44435</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19424,7 +19424,7 @@
         <v>44449</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19481,7 +19481,7 @@
         <v>44475</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19538,7 +19538,7 @@
         <v>44484</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19595,7 +19595,7 @@
         <v>44491</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19652,7 +19652,7 @@
         <v>44494</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19709,7 +19709,7 @@
         <v>44503</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19766,7 +19766,7 @@
         <v>44516</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19823,7 +19823,7 @@
         <v>44517</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19885,7 +19885,7 @@
         <v>44530</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19942,7 +19942,7 @@
         <v>44531</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19999,7 +19999,7 @@
         <v>44571</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         <v>44571</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20118,7 +20118,7 @@
         <v>44581</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20175,7 +20175,7 @@
         <v>44585</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20232,7 +20232,7 @@
         <v>44603</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20289,7 +20289,7 @@
         <v>44607</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20346,7 +20346,7 @@
         <v>44614</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20403,7 +20403,7 @@
         <v>44614</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20460,7 +20460,7 @@
         <v>44614</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20517,7 +20517,7 @@
         <v>44617</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20574,7 +20574,7 @@
         <v>44617</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20631,7 +20631,7 @@
         <v>44617</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
         <v>44621</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>44650</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
         <v>44665</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20859,7 +20859,7 @@
         <v>44698</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20916,7 +20916,7 @@
         <v>44701</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20973,7 +20973,7 @@
         <v>44706</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21035,7 +21035,7 @@
         <v>44715</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21097,7 +21097,7 @@
         <v>44719</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21154,7 +21154,7 @@
         <v>44725</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21216,7 +21216,7 @@
         <v>44729</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>44746</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44746</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44749</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21464,7 +21464,7 @@
         <v>44750</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>44754</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>44757</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>44757</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21707,7 +21707,7 @@
         <v>44760</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>44776</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>44776</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21893,7 +21893,7 @@
         <v>44789</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>44797</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         <v>44798</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22069,7 +22069,7 @@
         <v>44798</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>44799</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>44802</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>44804</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>44811</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22379,7 +22379,7 @@
         <v>44811</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>44811</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>44817</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>44818</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>44819</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>44823</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22746,7 +22746,7 @@
         <v>44823</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22808,7 +22808,7 @@
         <v>44823</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22870,7 +22870,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22932,7 +22932,7 @@
         <v>44830</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22989,7 +22989,7 @@
         <v>44839</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23046,7 +23046,7 @@
         <v>44840</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23103,7 +23103,7 @@
         <v>44859</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>44862</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>44868</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>44868</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23336,7 +23336,7 @@
         <v>44872</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23393,7 +23393,7 @@
         <v>44872</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23450,7 +23450,7 @@
         <v>44874</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23507,7 +23507,7 @@
         <v>44876</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23564,7 +23564,7 @@
         <v>44876</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>44879</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>44883</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>44886</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23797,7 +23797,7 @@
         <v>44887</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23854,7 +23854,7 @@
         <v>44889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23911,7 +23911,7 @@
         <v>44889</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23968,7 +23968,7 @@
         <v>44889</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24025,7 +24025,7 @@
         <v>44897</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>44900</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>44902</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>44902</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>44903</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24330,7 +24330,7 @@
         <v>44907</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24387,7 +24387,7 @@
         <v>44909</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24449,7 +24449,7 @@
         <v>44910</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>44916</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>44917</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>44923</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>44943</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>44943</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44943</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>44946</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44946</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44952</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44957</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>44958</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>44959</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44961</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44979</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>44985</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44986</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>45000</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25485,7 +25485,7 @@
         <v>45002</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>45002</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25599,7 +25599,7 @@
         <v>45005</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25656,7 +25656,7 @@
         <v>45033</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25713,7 +25713,7 @@
         <v>45033</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25770,7 +25770,7 @@
         <v>45033</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25827,7 +25827,7 @@
         <v>45035</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25884,7 +25884,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25941,7 +25941,7 @@
         <v>45036</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25998,7 +25998,7 @@
         <v>45044</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26055,7 +26055,7 @@
         <v>45051</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26112,7 +26112,7 @@
         <v>45063</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45068</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>45070</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>45072</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26355,7 +26355,7 @@
         <v>45079</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>45079</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>45079</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>45084</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26588,7 +26588,7 @@
         <v>45086</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26645,7 +26645,7 @@
         <v>45092</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26764,7 +26764,7 @@
         <v>45102</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26821,7 +26821,7 @@
         <v>45102</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26878,7 +26878,7 @@
         <v>45103</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>45103</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26992,7 +26992,7 @@
         <v>45103</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>45106</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         <v>45111</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         <v>45117</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27220,7 +27220,7 @@
         <v>45117</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27277,7 +27277,7 @@
         <v>45118</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27334,7 +27334,7 @@
         <v>45133</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>45152</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>45167</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>45167</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>45168</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>45189</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>

--- a/Översikt OVANÅKER.xlsx
+++ b/Översikt OVANÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>43847</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44819</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>43713</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>44887</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>43713</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>43349</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43521</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>43875</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>44365</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>44379</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44841</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>44957</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>43318</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43349</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>43349</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>43382</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>43392</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>43392</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>43402</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>43403</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
         <v>43409</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>43409</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>43410</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>43412</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         <v>43416</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
         <v>43419</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>43419</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
         <v>43419</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         <v>43424</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>43434</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>43440</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>43440</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>43440</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43440</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3322,7 +3322,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3379,7 +3379,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3436,7 +3436,7 @@
         <v>43451</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3493,7 +3493,7 @@
         <v>43451</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
         <v>43451</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         <v>43451</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         <v>43451</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>43462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43467</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43479</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43480</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43481</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43482</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43486</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43487</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43493</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>43493</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>43503</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>43507</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>43509</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>43515</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>43521</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>43521</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>43525</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43529</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
         <v>43531</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>43539</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>43542</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>43545</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>43551</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>43556</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>43556</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         <v>43556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
         <v>43570</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43571</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>43572</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
         <v>43581</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
         <v>43587</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>43591</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>43601</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>43602</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>43606</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43607</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43608</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43613</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43614</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43614</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43614</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>43616</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>43616</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>43616</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43616</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43616</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43616</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43616</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43616</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43619</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43619</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>43621</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>43621</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>43629</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>43629</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>43640</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>43640</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7454,7 +7454,7 @@
         <v>43641</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>43643</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>43671</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43679</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43682</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>43686</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43689</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>43689</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43690</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>43692</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43692</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43693</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43704</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43705</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43713</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43725</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43725</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43725</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>43726</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43728</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43731</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43731</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43731</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43731</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43731</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43740</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43747</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43749</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43749</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43755</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>43755</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>43766</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>43774</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43780</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>43787</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43790</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43790</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>43790</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>43790</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>43796</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>43802</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43812</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>43817</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         <v>43839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43846</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10106,7 +10106,7 @@
         <v>43846</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43846</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>43846</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43846</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43850</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43852</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>43852</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>43854</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>43854</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>43854</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43854</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>43854</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>43859</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43881</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43886</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>43888</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>43892</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>43893</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>43900</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>43906</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>43907</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>43909</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>43914</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>43914</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>43915</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>43915</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>43916</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>43917</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>43917</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>43917</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>43922</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>43924</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>43924</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>43935</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>43935</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>43937</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>43937</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>43942</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12337,7 +12337,7 @@
         <v>43942</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12399,7 +12399,7 @@
         <v>43945</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12456,7 +12456,7 @@
         <v>43948</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>43950</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>43951</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>43957</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>43962</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>43965</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>43965</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>43969</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>43985</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>43987</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>43987</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43992</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43994</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43999</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>44005</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>44012</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44012</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>44025</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44035</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>44041</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>44041</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>44053</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44053</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>44054</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>44054</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         <v>44054</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>44062</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>44063</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>44067</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>44071</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>44071</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>44074</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>44083</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>44083</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>44089</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>44091</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>44091</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>44096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>44096</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>44102</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>44105</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>44109</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>44109</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>44109</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         <v>44112</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
         <v>44112</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>44112</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>44113</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>44120</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>44125</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>44131</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         <v>44131</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         <v>44131</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15604,7 +15604,7 @@
         <v>44137</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>44145</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>44146</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>44146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>44153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>44159</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15951,7 +15951,7 @@
         <v>44159</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16008,7 +16008,7 @@
         <v>44160</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>44162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>44167</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>44167</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>44167</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>44167</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>44167</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>44167</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>44169</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>44174</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>44183</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>44188</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>44204</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>44222</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>44223</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>44223</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>44231</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>44245</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>44258</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>44258</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>44264</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>44264</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>44264</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>44264</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>44266</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44266</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44270</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44271</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>44277</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17676,7 +17676,7 @@
         <v>44278</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>44279</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>44285</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>44287</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>44298</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>44301</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>44305</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>44310</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44310</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18204,7 +18204,7 @@
         <v>44312</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18266,7 +18266,7 @@
         <v>44314</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44322</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>44328</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44336</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>44371</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>44376</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44379</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44379</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44379</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44379</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>44379</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>44379</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>44379</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>44379</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44384</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>44384</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         <v>44400</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>44435</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19367,7 +19367,7 @@
         <v>44435</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19424,7 +19424,7 @@
         <v>44449</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19481,7 +19481,7 @@
         <v>44475</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19538,7 +19538,7 @@
         <v>44484</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19595,7 +19595,7 @@
         <v>44491</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19652,7 +19652,7 @@
         <v>44494</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19709,7 +19709,7 @@
         <v>44503</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19766,7 +19766,7 @@
         <v>44516</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19823,7 +19823,7 @@
         <v>44517</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19885,7 +19885,7 @@
         <v>44530</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19942,7 +19942,7 @@
         <v>44531</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19999,7 +19999,7 @@
         <v>44571</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         <v>44571</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20118,7 +20118,7 @@
         <v>44581</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20175,7 +20175,7 @@
         <v>44585</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20232,7 +20232,7 @@
         <v>44603</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20289,7 +20289,7 @@
         <v>44607</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20346,7 +20346,7 @@
         <v>44614</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20403,7 +20403,7 @@
         <v>44614</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20460,7 +20460,7 @@
         <v>44614</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20517,7 +20517,7 @@
         <v>44617</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20574,7 +20574,7 @@
         <v>44617</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20631,7 +20631,7 @@
         <v>44617</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
         <v>44621</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>44650</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
         <v>44665</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20859,7 +20859,7 @@
         <v>44698</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20916,7 +20916,7 @@
         <v>44701</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20973,7 +20973,7 @@
         <v>44706</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21035,7 +21035,7 @@
         <v>44715</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21097,7 +21097,7 @@
         <v>44719</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21154,7 +21154,7 @@
         <v>44725</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21216,7 +21216,7 @@
         <v>44729</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>44746</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44746</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44749</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21464,7 +21464,7 @@
         <v>44750</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>44754</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>44757</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>44757</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21707,7 +21707,7 @@
         <v>44760</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>44776</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>44776</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21893,7 +21893,7 @@
         <v>44789</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>44797</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         <v>44798</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22069,7 +22069,7 @@
         <v>44798</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>44799</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>44802</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>44804</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>44811</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22379,7 +22379,7 @@
         <v>44811</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>44811</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>44817</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>44818</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>44819</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>44823</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22746,7 +22746,7 @@
         <v>44823</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22808,7 +22808,7 @@
         <v>44823</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22870,7 +22870,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22932,7 +22932,7 @@
         <v>44830</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22989,7 +22989,7 @@
         <v>44839</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23046,7 +23046,7 @@
         <v>44840</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23103,7 +23103,7 @@
         <v>44859</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>44862</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>44868</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>44868</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23336,7 +23336,7 @@
         <v>44872</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23393,7 +23393,7 @@
         <v>44872</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23450,7 +23450,7 @@
         <v>44874</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23507,7 +23507,7 @@
         <v>44876</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23564,7 +23564,7 @@
         <v>44876</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>44879</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>44883</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>44886</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23797,7 +23797,7 @@
         <v>44887</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23854,7 +23854,7 @@
         <v>44889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23911,7 +23911,7 @@
         <v>44889</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23968,7 +23968,7 @@
         <v>44889</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24025,7 +24025,7 @@
         <v>44897</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>44900</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>44902</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>44902</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>44903</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24330,7 +24330,7 @@
         <v>44907</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24387,7 +24387,7 @@
         <v>44909</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24449,7 +24449,7 @@
         <v>44910</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>44916</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>44917</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>44923</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>44943</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>44943</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44943</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>44946</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44946</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44952</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44957</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>44958</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>44959</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44961</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44979</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>44985</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44986</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>45000</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25485,7 +25485,7 @@
         <v>45002</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>45002</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25599,7 +25599,7 @@
         <v>45005</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25656,7 +25656,7 @@
         <v>45033</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25713,7 +25713,7 @@
         <v>45033</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25770,7 +25770,7 @@
         <v>45033</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25827,7 +25827,7 @@
         <v>45035</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25884,7 +25884,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25941,7 +25941,7 @@
         <v>45036</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25998,7 +25998,7 @@
         <v>45044</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26055,7 +26055,7 @@
         <v>45051</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26112,7 +26112,7 @@
         <v>45063</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45068</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>45070</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>45072</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26355,7 +26355,7 @@
         <v>45079</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>45079</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>45079</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>45084</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26588,7 +26588,7 @@
         <v>45086</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26645,7 +26645,7 @@
         <v>45092</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26764,7 +26764,7 @@
         <v>45102</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26821,7 +26821,7 @@
         <v>45102</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26878,7 +26878,7 @@
         <v>45103</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>45103</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26992,7 +26992,7 @@
         <v>45103</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>45106</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         <v>45111</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         <v>45117</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27220,7 +27220,7 @@
         <v>45117</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27277,7 +27277,7 @@
         <v>45118</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27334,7 +27334,7 @@
         <v>45133</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>45152</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>45167</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>45167</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>45168</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>45189</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>

--- a/Översikt OVANÅKER.xlsx
+++ b/Översikt OVANÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>43847</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44819</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>43713</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>44887</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>43713</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>43349</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43521</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>43875</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>44365</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>44379</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44841</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>44957</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>43318</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43349</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>43349</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>43382</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>43392</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>43392</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>43402</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>43403</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
         <v>43409</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>43409</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>43410</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>43412</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         <v>43416</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
         <v>43419</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>43419</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
         <v>43419</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         <v>43424</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>43434</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>43440</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>43440</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>43440</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43440</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3322,7 +3322,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3379,7 +3379,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3436,7 +3436,7 @@
         <v>43451</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3493,7 +3493,7 @@
         <v>43451</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
         <v>43451</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         <v>43451</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         <v>43451</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>43462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43467</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43479</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43480</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43481</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43482</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43486</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43487</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43493</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>43493</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>43503</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>43507</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>43509</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>43515</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>43521</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>43521</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>43525</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43529</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
         <v>43531</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>43539</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>43542</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>43545</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>43551</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>43556</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>43556</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         <v>43556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
         <v>43570</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43571</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>43572</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
         <v>43581</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
         <v>43587</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>43591</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>43601</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>43602</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>43606</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43607</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43608</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43613</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43614</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43614</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43614</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>43616</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>43616</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>43616</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43616</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43616</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43616</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43616</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43616</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43619</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43619</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>43621</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>43621</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>43629</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>43629</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>43640</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>43640</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7454,7 +7454,7 @@
         <v>43641</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>43643</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>43671</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43679</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43682</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>43686</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43689</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>43689</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43690</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>43692</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43692</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43693</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43704</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43705</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43713</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43725</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43725</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43725</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>43726</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43728</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43731</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43731</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43731</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43731</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43731</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43740</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43747</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43749</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43749</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43755</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>43755</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>43766</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>43774</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43780</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>43787</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43790</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43790</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>43790</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>43790</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>43796</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>43802</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43812</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>43817</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         <v>43839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43846</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10106,7 +10106,7 @@
         <v>43846</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43846</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>43846</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43846</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43850</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43852</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>43852</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>43854</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>43854</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>43854</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43854</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>43854</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>43859</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43881</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43886</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>43888</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>43892</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>43893</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>43900</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>43906</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>43907</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>43909</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>43914</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>43914</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>43915</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>43915</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>43916</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>43917</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>43917</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>43917</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>43922</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>43924</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>43924</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>43935</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>43935</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>43937</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>43937</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>43942</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12337,7 +12337,7 @@
         <v>43942</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12399,7 +12399,7 @@
         <v>43945</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12456,7 +12456,7 @@
         <v>43948</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>43950</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>43951</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>43957</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>43962</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>43965</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>43965</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>43969</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>43985</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>43987</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>43987</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43992</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43994</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43999</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>44005</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>44012</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44012</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>44025</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44035</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>44041</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>44041</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>44053</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44053</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>44054</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>44054</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         <v>44054</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>44062</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>44063</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>44067</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>44071</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>44071</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>44074</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>44083</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>44083</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>44089</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>44091</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>44091</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>44096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>44096</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>44102</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>44105</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>44109</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>44109</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>44109</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         <v>44112</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
         <v>44112</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>44112</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>44113</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>44120</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>44125</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>44131</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         <v>44131</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         <v>44131</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15604,7 +15604,7 @@
         <v>44137</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>44145</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>44146</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>44146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>44153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>44159</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15951,7 +15951,7 @@
         <v>44159</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16008,7 +16008,7 @@
         <v>44160</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>44162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>44167</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>44167</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>44167</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>44167</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>44167</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>44167</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>44169</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>44174</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>44183</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>44188</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>44204</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>44222</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>44223</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>44223</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>44231</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>44245</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>44258</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>44258</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>44264</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>44264</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>44264</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>44264</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>44266</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44266</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44270</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44271</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>44277</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17676,7 +17676,7 @@
         <v>44278</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>44279</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>44285</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>44287</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>44298</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>44301</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>44305</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>44310</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44310</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18204,7 +18204,7 @@
         <v>44312</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18266,7 +18266,7 @@
         <v>44314</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44322</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>44328</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44336</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>44371</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>44376</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44379</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44379</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44379</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44379</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>44379</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>44379</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>44379</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>44379</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44384</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>44384</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         <v>44400</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>44435</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19367,7 +19367,7 @@
         <v>44435</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19424,7 +19424,7 @@
         <v>44449</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19481,7 +19481,7 @@
         <v>44475</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19538,7 +19538,7 @@
         <v>44484</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19595,7 +19595,7 @@
         <v>44491</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19652,7 +19652,7 @@
         <v>44494</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19709,7 +19709,7 @@
         <v>44503</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19766,7 +19766,7 @@
         <v>44516</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19823,7 +19823,7 @@
         <v>44517</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19885,7 +19885,7 @@
         <v>44530</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19942,7 +19942,7 @@
         <v>44531</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19999,7 +19999,7 @@
         <v>44571</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         <v>44571</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20118,7 +20118,7 @@
         <v>44581</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20175,7 +20175,7 @@
         <v>44585</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20232,7 +20232,7 @@
         <v>44603</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20289,7 +20289,7 @@
         <v>44607</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20346,7 +20346,7 @@
         <v>44614</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20403,7 +20403,7 @@
         <v>44614</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20460,7 +20460,7 @@
         <v>44614</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20517,7 +20517,7 @@
         <v>44617</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20574,7 +20574,7 @@
         <v>44617</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20631,7 +20631,7 @@
         <v>44617</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
         <v>44621</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>44650</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
         <v>44665</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20859,7 +20859,7 @@
         <v>44698</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20916,7 +20916,7 @@
         <v>44701</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20973,7 +20973,7 @@
         <v>44706</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21035,7 +21035,7 @@
         <v>44715</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21097,7 +21097,7 @@
         <v>44719</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21154,7 +21154,7 @@
         <v>44725</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21216,7 +21216,7 @@
         <v>44729</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>44746</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44746</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44749</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21464,7 +21464,7 @@
         <v>44750</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>44754</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>44757</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>44757</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21707,7 +21707,7 @@
         <v>44760</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>44776</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>44776</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21893,7 +21893,7 @@
         <v>44789</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>44797</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         <v>44798</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22069,7 +22069,7 @@
         <v>44798</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>44799</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>44802</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>44804</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>44811</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22379,7 +22379,7 @@
         <v>44811</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>44811</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>44817</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>44818</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>44819</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>44823</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22746,7 +22746,7 @@
         <v>44823</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22808,7 +22808,7 @@
         <v>44823</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22870,7 +22870,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22932,7 +22932,7 @@
         <v>44830</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22989,7 +22989,7 @@
         <v>44839</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23046,7 +23046,7 @@
         <v>44840</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23103,7 +23103,7 @@
         <v>44859</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>44862</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>44868</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>44868</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23336,7 +23336,7 @@
         <v>44872</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23393,7 +23393,7 @@
         <v>44872</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23450,7 +23450,7 @@
         <v>44874</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23507,7 +23507,7 @@
         <v>44876</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23564,7 +23564,7 @@
         <v>44876</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>44879</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>44883</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>44886</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23797,7 +23797,7 @@
         <v>44887</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23854,7 +23854,7 @@
         <v>44889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23911,7 +23911,7 @@
         <v>44889</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23968,7 +23968,7 @@
         <v>44889</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24025,7 +24025,7 @@
         <v>44897</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>44900</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>44902</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>44902</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>44903</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24330,7 +24330,7 @@
         <v>44907</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24387,7 +24387,7 @@
         <v>44909</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24449,7 +24449,7 @@
         <v>44910</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>44916</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>44917</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>44923</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>44943</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>44943</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44943</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>44946</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44946</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44952</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44957</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>44958</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>44959</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44961</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44979</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>44985</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44986</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>45000</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25485,7 +25485,7 @@
         <v>45002</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>45002</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25599,7 +25599,7 @@
         <v>45005</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25656,7 +25656,7 @@
         <v>45033</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25713,7 +25713,7 @@
         <v>45033</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25770,7 +25770,7 @@
         <v>45033</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25827,7 +25827,7 @@
         <v>45035</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25884,7 +25884,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25941,7 +25941,7 @@
         <v>45036</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25998,7 +25998,7 @@
         <v>45044</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26055,7 +26055,7 @@
         <v>45051</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26112,7 +26112,7 @@
         <v>45063</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45068</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>45070</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>45072</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26355,7 +26355,7 @@
         <v>45079</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>45079</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>45079</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>45084</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26588,7 +26588,7 @@
         <v>45086</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26645,7 +26645,7 @@
         <v>45092</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26764,7 +26764,7 @@
         <v>45102</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26821,7 +26821,7 @@
         <v>45102</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26878,7 +26878,7 @@
         <v>45103</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>45103</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26992,7 +26992,7 @@
         <v>45103</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>45106</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         <v>45111</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         <v>45117</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27220,7 +27220,7 @@
         <v>45117</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27277,7 +27277,7 @@
         <v>45118</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27334,7 +27334,7 @@
         <v>45133</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>45152</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>45167</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>45167</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>45168</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>45189</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>

--- a/Översikt OVANÅKER.xlsx
+++ b/Översikt OVANÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>43847</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44819</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>43713</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>44887</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>43713</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>43349</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43521</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>43875</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>44365</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>44379</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44841</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>44957</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>43318</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43349</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>43349</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>43382</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>43392</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>43392</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>43402</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>43403</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
         <v>43409</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>43409</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>43410</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>43412</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         <v>43416</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
         <v>43419</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>43419</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
         <v>43419</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         <v>43424</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>43434</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>43440</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>43440</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>43440</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43440</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3322,7 +3322,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3379,7 +3379,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3436,7 +3436,7 @@
         <v>43451</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3493,7 +3493,7 @@
         <v>43451</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
         <v>43451</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         <v>43451</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         <v>43451</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>43462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43467</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43479</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43480</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43481</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43482</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43486</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43487</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43493</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>43493</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>43503</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>43507</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>43509</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>43515</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>43521</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>43521</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>43525</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43529</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
         <v>43531</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>43539</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>43542</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>43545</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>43551</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>43556</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>43556</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         <v>43556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
         <v>43570</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43571</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>43572</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
         <v>43581</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
         <v>43587</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>43591</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>43601</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>43602</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>43606</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43607</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43608</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43613</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43614</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43614</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43614</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>43616</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>43616</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>43616</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43616</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43616</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43616</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43616</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43616</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43619</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43619</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>43621</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>43621</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>43629</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>43629</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>43640</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>43640</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7454,7 +7454,7 @@
         <v>43641</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>43643</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>43671</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43679</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43682</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>43686</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43689</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>43689</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43690</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>43692</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43692</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43693</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43704</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43705</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43713</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43725</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43725</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43725</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>43726</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43728</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43731</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43731</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43731</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43731</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43731</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43740</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43747</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43749</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43749</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43755</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>43755</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>43766</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>43774</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43780</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>43787</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43790</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43790</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>43790</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>43790</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>43796</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>43802</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43812</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>43817</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         <v>43839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43846</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10106,7 +10106,7 @@
         <v>43846</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43846</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>43846</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43846</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43850</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43852</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>43852</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>43854</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>43854</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>43854</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43854</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>43854</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>43859</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43881</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43886</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>43888</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>43892</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>43893</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>43900</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>43906</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>43907</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>43909</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>43914</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>43914</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>43915</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>43915</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>43916</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>43917</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>43917</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>43917</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>43922</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>43924</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>43924</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>43935</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>43935</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>43937</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>43937</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>43942</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12337,7 +12337,7 @@
         <v>43942</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12399,7 +12399,7 @@
         <v>43945</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12456,7 +12456,7 @@
         <v>43948</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>43950</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>43951</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>43957</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>43962</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>43965</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>43965</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>43969</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>43985</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>43987</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>43987</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43992</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43994</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43999</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>44005</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>44012</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44012</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>44025</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44035</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>44041</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>44041</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>44053</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44053</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>44054</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>44054</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         <v>44054</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>44062</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>44063</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>44067</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>44071</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>44071</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>44074</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>44083</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>44083</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>44089</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>44091</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>44091</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>44096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>44096</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>44102</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>44105</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>44109</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>44109</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>44109</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         <v>44112</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
         <v>44112</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>44112</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>44113</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>44120</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>44125</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>44131</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         <v>44131</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         <v>44131</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15604,7 +15604,7 @@
         <v>44137</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>44145</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>44146</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>44146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>44153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>44159</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15951,7 +15951,7 @@
         <v>44159</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16008,7 +16008,7 @@
         <v>44160</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>44162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>44167</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>44167</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>44167</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>44167</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>44167</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>44167</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>44169</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>44174</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>44183</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>44188</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>44204</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>44222</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>44223</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>44223</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>44231</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>44245</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>44258</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>44258</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>44264</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>44264</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>44264</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>44264</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>44266</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44266</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44270</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44271</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>44277</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17676,7 +17676,7 @@
         <v>44278</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>44279</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>44285</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>44287</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>44298</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>44301</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>44305</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>44310</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44310</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18204,7 +18204,7 @@
         <v>44312</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18266,7 +18266,7 @@
         <v>44314</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44322</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>44328</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44336</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>44371</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>44376</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44379</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44379</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44379</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44379</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>44379</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>44379</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>44379</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>44379</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44384</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>44384</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         <v>44400</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>44435</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19367,7 +19367,7 @@
         <v>44435</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19424,7 +19424,7 @@
         <v>44449</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19481,7 +19481,7 @@
         <v>44475</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19538,7 +19538,7 @@
         <v>44484</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19595,7 +19595,7 @@
         <v>44491</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19652,7 +19652,7 @@
         <v>44494</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19709,7 +19709,7 @@
         <v>44503</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19766,7 +19766,7 @@
         <v>44516</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19823,7 +19823,7 @@
         <v>44517</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19885,7 +19885,7 @@
         <v>44530</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19942,7 +19942,7 @@
         <v>44531</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19999,7 +19999,7 @@
         <v>44571</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         <v>44571</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20118,7 +20118,7 @@
         <v>44581</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20175,7 +20175,7 @@
         <v>44585</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20232,7 +20232,7 @@
         <v>44603</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20289,7 +20289,7 @@
         <v>44607</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20346,7 +20346,7 @@
         <v>44614</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20403,7 +20403,7 @@
         <v>44614</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20460,7 +20460,7 @@
         <v>44614</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20517,7 +20517,7 @@
         <v>44617</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20574,7 +20574,7 @@
         <v>44617</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20631,7 +20631,7 @@
         <v>44617</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
         <v>44621</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>44650</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
         <v>44665</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20859,7 +20859,7 @@
         <v>44698</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20916,7 +20916,7 @@
         <v>44701</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20973,7 +20973,7 @@
         <v>44706</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21035,7 +21035,7 @@
         <v>44715</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21097,7 +21097,7 @@
         <v>44719</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21154,7 +21154,7 @@
         <v>44725</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21216,7 +21216,7 @@
         <v>44729</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>44746</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44746</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44749</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21464,7 +21464,7 @@
         <v>44750</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>44754</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>44757</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>44757</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21707,7 +21707,7 @@
         <v>44760</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>44776</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>44776</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21893,7 +21893,7 @@
         <v>44789</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>44797</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         <v>44798</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22069,7 +22069,7 @@
         <v>44798</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>44799</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>44802</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>44804</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>44811</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22379,7 +22379,7 @@
         <v>44811</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>44811</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>44817</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>44818</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>44819</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>44823</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22746,7 +22746,7 @@
         <v>44823</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22808,7 +22808,7 @@
         <v>44823</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22870,7 +22870,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22932,7 +22932,7 @@
         <v>44830</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22989,7 +22989,7 @@
         <v>44839</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23046,7 +23046,7 @@
         <v>44840</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23103,7 +23103,7 @@
         <v>44859</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>44862</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>44868</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>44868</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23336,7 +23336,7 @@
         <v>44872</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23393,7 +23393,7 @@
         <v>44872</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23450,7 +23450,7 @@
         <v>44874</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23507,7 +23507,7 @@
         <v>44876</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23564,7 +23564,7 @@
         <v>44876</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>44879</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>44883</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>44886</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23797,7 +23797,7 @@
         <v>44887</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23854,7 +23854,7 @@
         <v>44889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23911,7 +23911,7 @@
         <v>44889</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23968,7 +23968,7 @@
         <v>44889</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24025,7 +24025,7 @@
         <v>44897</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>44900</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>44902</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>44902</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>44903</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24330,7 +24330,7 @@
         <v>44907</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24387,7 +24387,7 @@
         <v>44909</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24449,7 +24449,7 @@
         <v>44910</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>44916</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>44917</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>44923</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>44943</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>44943</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44943</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>44946</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44946</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44952</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44957</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>44958</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>44959</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44961</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44979</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>44985</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44986</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>45000</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25485,7 +25485,7 @@
         <v>45002</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>45002</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25599,7 +25599,7 @@
         <v>45005</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25656,7 +25656,7 @@
         <v>45033</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25713,7 +25713,7 @@
         <v>45033</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25770,7 +25770,7 @@
         <v>45033</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25827,7 +25827,7 @@
         <v>45035</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25884,7 +25884,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25941,7 +25941,7 @@
         <v>45036</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25998,7 +25998,7 @@
         <v>45044</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26055,7 +26055,7 @@
         <v>45051</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26112,7 +26112,7 @@
         <v>45063</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45068</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>45070</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>45072</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26355,7 +26355,7 @@
         <v>45079</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>45079</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>45079</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>45084</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26588,7 +26588,7 @@
         <v>45086</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26645,7 +26645,7 @@
         <v>45092</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26764,7 +26764,7 @@
         <v>45102</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26821,7 +26821,7 @@
         <v>45102</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26878,7 +26878,7 @@
         <v>45103</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>45103</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26992,7 +26992,7 @@
         <v>45103</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>45106</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         <v>45111</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         <v>45117</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27220,7 +27220,7 @@
         <v>45117</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27277,7 +27277,7 @@
         <v>45118</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27334,7 +27334,7 @@
         <v>45133</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>45152</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>45167</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>45167</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>45168</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>45189</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>

--- a/Översikt OVANÅKER.xlsx
+++ b/Översikt OVANÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>43847</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44819</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>43713</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>44887</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>43713</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>43349</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43521</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>43875</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>44365</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>44379</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44841</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>44957</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>43318</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43349</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>43349</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>43382</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>43392</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>43392</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>43402</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>43403</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
         <v>43409</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>43409</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>43410</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>43412</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         <v>43416</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
         <v>43419</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>43419</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
         <v>43419</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         <v>43424</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>43434</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>43440</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>43440</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>43440</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43440</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3322,7 +3322,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3379,7 +3379,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3436,7 +3436,7 @@
         <v>43451</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3493,7 +3493,7 @@
         <v>43451</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
         <v>43451</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         <v>43451</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         <v>43451</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>43462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43467</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43479</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43480</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43481</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43482</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43486</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43487</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43493</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>43493</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>43503</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>43507</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>43509</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>43515</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>43521</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>43521</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>43525</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43529</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
         <v>43531</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>43539</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>43542</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>43545</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>43551</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>43556</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>43556</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         <v>43556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
         <v>43570</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43571</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>43572</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
         <v>43581</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
         <v>43587</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>43591</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>43601</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>43602</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>43606</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43607</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43608</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43613</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43614</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43614</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43614</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>43616</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>43616</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>43616</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43616</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43616</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43616</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43616</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43616</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43619</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43619</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>43621</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>43621</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>43629</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>43629</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>43640</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>43640</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7454,7 +7454,7 @@
         <v>43641</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>43643</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>43671</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43679</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43682</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>43686</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43689</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>43689</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43690</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>43692</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43692</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43693</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43704</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43705</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43713</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43725</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43725</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43725</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>43726</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43728</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43731</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43731</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43731</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43731</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43731</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43740</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43747</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43749</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43749</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43755</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>43755</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>43766</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>43774</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43780</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>43787</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43790</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43790</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>43790</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>43790</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>43796</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>43802</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43812</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>43817</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         <v>43839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43846</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10106,7 +10106,7 @@
         <v>43846</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43846</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>43846</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43846</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43850</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43852</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>43852</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>43854</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>43854</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>43854</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43854</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>43854</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>43859</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43881</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43886</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>43888</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>43892</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>43893</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>43900</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>43906</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>43907</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>43909</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>43914</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>43914</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>43915</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>43915</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>43916</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>43917</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>43917</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>43917</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>43922</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>43924</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>43924</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>43935</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>43935</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>43937</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>43937</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>43942</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12337,7 +12337,7 @@
         <v>43942</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12399,7 +12399,7 @@
         <v>43945</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12456,7 +12456,7 @@
         <v>43948</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>43950</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>43951</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>43957</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>43962</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>43965</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>43965</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>43969</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>43985</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>43987</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>43987</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43992</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43994</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43999</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>44005</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>44012</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44012</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>44025</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44035</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>44041</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>44041</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>44053</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44053</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>44054</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>44054</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         <v>44054</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>44062</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>44063</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>44067</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>44071</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>44071</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>44074</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>44083</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>44083</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>44089</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>44091</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>44091</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>44096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>44096</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>44102</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>44105</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>44109</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>44109</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>44109</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         <v>44112</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
         <v>44112</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>44112</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>44113</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>44120</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>44125</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>44131</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         <v>44131</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         <v>44131</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15604,7 +15604,7 @@
         <v>44137</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>44145</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>44146</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>44146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>44153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>44159</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15951,7 +15951,7 @@
         <v>44159</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16008,7 +16008,7 @@
         <v>44160</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>44162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>44167</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>44167</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>44167</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>44167</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>44167</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>44167</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>44169</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>44174</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>44183</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>44188</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>44204</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>44222</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>44223</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>44223</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>44231</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>44245</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>44258</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>44258</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>44264</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>44264</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>44264</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>44264</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>44266</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44266</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44270</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44271</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>44277</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17676,7 +17676,7 @@
         <v>44278</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>44279</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>44285</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>44287</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>44298</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>44301</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>44305</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>44310</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44310</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18204,7 +18204,7 @@
         <v>44312</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18266,7 +18266,7 @@
         <v>44314</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44322</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>44328</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44336</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>44371</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>44376</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44379</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44379</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44379</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44379</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>44379</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>44379</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>44379</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>44379</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44384</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>44384</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         <v>44400</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>44435</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19367,7 +19367,7 @@
         <v>44435</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19424,7 +19424,7 @@
         <v>44449</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19481,7 +19481,7 @@
         <v>44475</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19538,7 +19538,7 @@
         <v>44484</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19595,7 +19595,7 @@
         <v>44491</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19652,7 +19652,7 @@
         <v>44494</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19709,7 +19709,7 @@
         <v>44503</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19766,7 +19766,7 @@
         <v>44516</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19823,7 +19823,7 @@
         <v>44517</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19885,7 +19885,7 @@
         <v>44530</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19942,7 +19942,7 @@
         <v>44531</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19999,7 +19999,7 @@
         <v>44571</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         <v>44571</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20118,7 +20118,7 @@
         <v>44581</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20175,7 +20175,7 @@
         <v>44585</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20232,7 +20232,7 @@
         <v>44603</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20289,7 +20289,7 @@
         <v>44607</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20346,7 +20346,7 @@
         <v>44614</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20403,7 +20403,7 @@
         <v>44614</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20460,7 +20460,7 @@
         <v>44614</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20517,7 +20517,7 @@
         <v>44617</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20574,7 +20574,7 @@
         <v>44617</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20631,7 +20631,7 @@
         <v>44617</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
         <v>44621</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>44650</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
         <v>44665</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20859,7 +20859,7 @@
         <v>44698</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20916,7 +20916,7 @@
         <v>44701</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20973,7 +20973,7 @@
         <v>44706</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21035,7 +21035,7 @@
         <v>44715</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21097,7 +21097,7 @@
         <v>44719</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21154,7 +21154,7 @@
         <v>44725</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21216,7 +21216,7 @@
         <v>44729</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>44746</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44746</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44749</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21464,7 +21464,7 @@
         <v>44750</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>44754</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>44757</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>44757</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21707,7 +21707,7 @@
         <v>44760</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>44776</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>44776</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21893,7 +21893,7 @@
         <v>44789</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>44797</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         <v>44798</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22069,7 +22069,7 @@
         <v>44798</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>44799</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>44802</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>44804</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>44811</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22379,7 +22379,7 @@
         <v>44811</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>44811</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>44817</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>44818</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>44819</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>44823</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22746,7 +22746,7 @@
         <v>44823</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22808,7 +22808,7 @@
         <v>44823</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22870,7 +22870,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22932,7 +22932,7 @@
         <v>44830</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22989,7 +22989,7 @@
         <v>44839</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23046,7 +23046,7 @@
         <v>44840</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23103,7 +23103,7 @@
         <v>44859</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>44862</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>44868</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>44868</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23336,7 +23336,7 @@
         <v>44872</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23393,7 +23393,7 @@
         <v>44872</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23450,7 +23450,7 @@
         <v>44874</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23507,7 +23507,7 @@
         <v>44876</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23564,7 +23564,7 @@
         <v>44876</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>44879</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>44883</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>44886</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23797,7 +23797,7 @@
         <v>44887</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23854,7 +23854,7 @@
         <v>44889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23911,7 +23911,7 @@
         <v>44889</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23968,7 +23968,7 @@
         <v>44889</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24025,7 +24025,7 @@
         <v>44897</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>44900</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>44902</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>44902</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>44903</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24330,7 +24330,7 @@
         <v>44907</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24387,7 +24387,7 @@
         <v>44909</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24449,7 +24449,7 @@
         <v>44910</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>44916</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>44917</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>44923</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>44943</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>44943</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44943</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>44946</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44946</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44952</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44957</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>44958</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>44959</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44961</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44979</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>44985</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44986</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>45000</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25485,7 +25485,7 @@
         <v>45002</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>45002</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25599,7 +25599,7 @@
         <v>45005</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25656,7 +25656,7 @@
         <v>45033</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25713,7 +25713,7 @@
         <v>45033</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25770,7 +25770,7 @@
         <v>45033</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25827,7 +25827,7 @@
         <v>45035</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25884,7 +25884,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25941,7 +25941,7 @@
         <v>45036</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25998,7 +25998,7 @@
         <v>45044</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26055,7 +26055,7 @@
         <v>45051</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26112,7 +26112,7 @@
         <v>45063</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45068</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>45070</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>45072</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26355,7 +26355,7 @@
         <v>45079</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>45079</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>45079</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>45084</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26588,7 +26588,7 @@
         <v>45086</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26645,7 +26645,7 @@
         <v>45092</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26764,7 +26764,7 @@
         <v>45102</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26821,7 +26821,7 @@
         <v>45102</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26878,7 +26878,7 @@
         <v>45103</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>45103</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26992,7 +26992,7 @@
         <v>45103</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>45106</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         <v>45111</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         <v>45117</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27220,7 +27220,7 @@
         <v>45117</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27277,7 +27277,7 @@
         <v>45118</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27334,7 +27334,7 @@
         <v>45133</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>45152</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>45167</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>45167</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>45168</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>45189</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>

--- a/Översikt OVANÅKER.xlsx
+++ b/Översikt OVANÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>43847</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44819</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>43713</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>44887</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>43713</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>43349</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>43521</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>43875</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>44365</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>44379</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44841</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>44957</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>43318</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43349</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>43349</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>43382</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>43392</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>43392</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>43402</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>43403</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
         <v>43409</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>43409</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>43410</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>43412</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         <v>43416</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
         <v>43419</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>43419</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
         <v>43419</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         <v>43424</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>43434</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>43440</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>43440</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>43440</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43440</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3322,7 +3322,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3379,7 +3379,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3436,7 +3436,7 @@
         <v>43451</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3493,7 +3493,7 @@
         <v>43451</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
         <v>43451</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         <v>43451</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         <v>43451</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>43462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43467</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43479</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43480</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43481</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43482</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43486</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43487</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43493</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>43493</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>43503</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>43507</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>43509</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>43515</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>43521</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>43521</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>43525</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43529</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
         <v>43531</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>43539</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>43542</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>43545</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>43551</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>43556</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>43556</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         <v>43556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
         <v>43570</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43571</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>43572</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
         <v>43581</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
         <v>43587</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>43591</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>43601</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>43602</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>43606</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43607</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43608</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43613</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43614</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43614</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43614</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>43616</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>43616</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>43616</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43616</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43616</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43616</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43616</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43616</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43619</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43619</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>43621</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>43621</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>43629</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>43629</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>43640</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>43640</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7454,7 +7454,7 @@
         <v>43641</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>43643</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>43671</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43679</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43682</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>43686</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43689</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>43689</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43690</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>43692</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43692</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43693</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43704</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43705</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43713</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43725</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43725</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43725</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>43726</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43728</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43731</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43731</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43731</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43731</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43731</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43740</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43747</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43749</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43749</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43755</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>43755</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>43766</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>43774</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43780</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>43787</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43790</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43790</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>43790</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>43790</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>43796</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>43802</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43812</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>43817</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         <v>43839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43846</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10106,7 +10106,7 @@
         <v>43846</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43846</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>43846</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43846</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43850</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43852</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>43852</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>43854</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>43854</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>43854</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43854</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>43854</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>43859</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43881</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43886</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>43888</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>43892</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>43893</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>43900</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>43906</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>43907</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>43909</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>43914</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>43914</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>43915</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>43915</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>43916</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>43917</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>43917</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>43917</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>43922</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>43924</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>43924</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>43935</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>43935</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>43937</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>43937</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>43942</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12337,7 +12337,7 @@
         <v>43942</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12399,7 +12399,7 @@
         <v>43945</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12456,7 +12456,7 @@
         <v>43948</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>43950</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>43951</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>43957</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>43962</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>43965</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>43965</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>43969</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>43985</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>43987</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>43987</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43992</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43994</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43999</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>44005</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>44012</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44012</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>44025</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44035</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>44041</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>44041</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>44053</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44053</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>44054</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>44054</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         <v>44054</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>44062</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>44063</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>44067</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>44071</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>44071</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>44074</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>44083</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>44083</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>44089</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>44091</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>44091</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>44096</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>44096</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>44102</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>44105</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>44109</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>44109</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>44109</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         <v>44112</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
         <v>44112</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>44112</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>44113</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>44120</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>44125</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>44131</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         <v>44131</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         <v>44131</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15604,7 +15604,7 @@
         <v>44137</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>44145</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>44146</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>44146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>44153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>44159</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15951,7 +15951,7 @@
         <v>44159</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16008,7 +16008,7 @@
         <v>44160</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>44162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>44167</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>44167</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>44167</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>44167</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>44167</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>44167</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>44169</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>44174</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>44183</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>44188</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>44204</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>44222</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>44223</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>44223</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>44231</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>44245</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>44258</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>44258</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>44264</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>44264</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>44264</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>44264</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>44266</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>44266</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44270</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44271</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>44277</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17676,7 +17676,7 @@
         <v>44278</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>44279</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>44285</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>44287</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>44298</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>44301</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>44305</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>44310</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44310</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18204,7 +18204,7 @@
         <v>44312</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18266,7 +18266,7 @@
         <v>44314</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44322</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>44328</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44336</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>44371</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>44376</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44379</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44379</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44379</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44379</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>44379</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>44379</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>44379</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>44379</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44384</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>44384</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         <v>44400</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>44435</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19367,7 +19367,7 @@
         <v>44435</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19424,7 +19424,7 @@
         <v>44449</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19481,7 +19481,7 @@
         <v>44475</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19538,7 +19538,7 @@
         <v>44484</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19595,7 +19595,7 @@
         <v>44491</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19652,7 +19652,7 @@
         <v>44494</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19709,7 +19709,7 @@
         <v>44503</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19766,7 +19766,7 @@
         <v>44516</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19823,7 +19823,7 @@
         <v>44517</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19885,7 +19885,7 @@
         <v>44530</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19942,7 +19942,7 @@
         <v>44531</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19999,7 +19999,7 @@
         <v>44571</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         <v>44571</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20118,7 +20118,7 @@
         <v>44581</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20175,7 +20175,7 @@
         <v>44585</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20232,7 +20232,7 @@
         <v>44603</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20289,7 +20289,7 @@
         <v>44607</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20346,7 +20346,7 @@
         <v>44614</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20403,7 +20403,7 @@
         <v>44614</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20460,7 +20460,7 @@
         <v>44614</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20517,7 +20517,7 @@
         <v>44617</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20574,7 +20574,7 @@
         <v>44617</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20631,7 +20631,7 @@
         <v>44617</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
         <v>44621</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>44650</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
         <v>44665</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20859,7 +20859,7 @@
         <v>44698</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20916,7 +20916,7 @@
         <v>44701</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20973,7 +20973,7 @@
         <v>44706</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21035,7 +21035,7 @@
         <v>44715</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21097,7 +21097,7 @@
         <v>44719</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21154,7 +21154,7 @@
         <v>44725</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21216,7 +21216,7 @@
         <v>44729</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>44746</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44746</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44749</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21464,7 +21464,7 @@
         <v>44750</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>44754</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>44757</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>44757</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21707,7 +21707,7 @@
         <v>44760</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>44776</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>44776</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21893,7 +21893,7 @@
         <v>44789</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>44797</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         <v>44798</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22069,7 +22069,7 @@
         <v>44798</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>44799</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>44802</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>44804</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>44811</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22379,7 +22379,7 @@
         <v>44811</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>44811</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>44817</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>44818</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>44819</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>44823</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22746,7 +22746,7 @@
         <v>44823</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22808,7 +22808,7 @@
         <v>44823</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22870,7 +22870,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22932,7 +22932,7 @@
         <v>44830</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22989,7 +22989,7 @@
         <v>44839</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23046,7 +23046,7 @@
         <v>44840</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23103,7 +23103,7 @@
         <v>44859</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>44862</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>44868</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>44868</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23336,7 +23336,7 @@
         <v>44872</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23393,7 +23393,7 @@
         <v>44872</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23450,7 +23450,7 @@
         <v>44874</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23507,7 +23507,7 @@
         <v>44876</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23564,7 +23564,7 @@
         <v>44876</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>44879</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>44883</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>44886</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23797,7 +23797,7 @@
         <v>44887</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23854,7 +23854,7 @@
         <v>44889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23911,7 +23911,7 @@
         <v>44889</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23968,7 +23968,7 @@
         <v>44889</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24025,7 +24025,7 @@
         <v>44897</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>44900</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>44902</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>44902</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>44903</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24330,7 +24330,7 @@
         <v>44907</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24387,7 +24387,7 @@
         <v>44909</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24449,7 +24449,7 @@
         <v>44910</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>44916</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>44917</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>44923</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>44943</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>44943</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44943</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>44946</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44946</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44952</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44957</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>44958</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>44959</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44961</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44979</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>44985</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44986</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>45000</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25485,7 +25485,7 @@
         <v>45002</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>45002</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25599,7 +25599,7 @@
         <v>45005</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25656,7 +25656,7 @@
         <v>45033</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25713,7 +25713,7 @@
         <v>45033</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25770,7 +25770,7 @@
         <v>45033</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25827,7 +25827,7 @@
         <v>45035</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25884,7 +25884,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25941,7 +25941,7 @@
         <v>45036</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25998,7 +25998,7 @@
         <v>45044</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26055,7 +26055,7 @@
         <v>45051</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26112,7 +26112,7 @@
         <v>45063</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45068</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>45070</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>45072</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26355,7 +26355,7 @@
         <v>45079</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>45079</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>45079</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>45084</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26588,7 +26588,7 @@
         <v>45086</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26645,7 +26645,7 @@
         <v>45092</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26764,7 +26764,7 @@
         <v>45102</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26821,7 +26821,7 @@
         <v>45102</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26878,7 +26878,7 @@
         <v>45103</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>45103</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26992,7 +26992,7 @@
         <v>45103</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>45106</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         <v>45111</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         <v>45117</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27220,7 +27220,7 @@
         <v>45117</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27277,7 +27277,7 @@
         <v>45118</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27334,7 +27334,7 @@
         <v>45133</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>45152</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>45167</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>45167</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>45168</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>45189</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
